--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B9C48A-D5D2-443B-AB14-E4069A860025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B27367-8EDA-4DBC-AC0E-F90CEAE4412F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="1" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="7000" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="3" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
     <sheet name="GoldPro3.SquarePasture" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>起</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -83,12 +85,20 @@
     <t>hi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +181,31 @@
       <color rgb="FFC00000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -282,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +419,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9564,10 +9620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE08187-13D3-4A00-8554-61C8A3F85608}">
-  <dimension ref="A2:EL22"/>
+  <dimension ref="A2:EL33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12769,6 +12825,96 @@
         <v>19</v>
       </c>
     </row>
+    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
+      <c r="C29" s="16">
+        <v>3</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="J29" s="16">
+        <v>3</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="16">
+        <v>2</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12776,4 +12922,678 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
+  <dimension ref="A1:Y28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.4609375" style="12"/>
+    <col min="2" max="2" width="2.4609375" style="1"/>
+    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="2.4609375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="2.4609375" style="1"/>
+    <col min="20" max="20" width="2.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.4609375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C1" s="16">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C2" s="16">
+        <v>9</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C3" s="16">
+        <v>8</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C4" s="16">
+        <v>7</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C5" s="16">
+        <v>6</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
+        <v>2</v>
+      </c>
+      <c r="K5" s="37">
+        <v>3</v>
+      </c>
+      <c r="L5" s="37">
+        <v>4</v>
+      </c>
+      <c r="M5" s="37">
+        <v>5</v>
+      </c>
+      <c r="N5" s="37">
+        <v>6</v>
+      </c>
+      <c r="O5" s="37">
+        <v>7</v>
+      </c>
+      <c r="P5" s="37">
+        <v>8</v>
+      </c>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C6" s="16">
+        <v>5</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="37">
+        <v>2</v>
+      </c>
+      <c r="J6" s="37">
+        <v>3</v>
+      </c>
+      <c r="K6" s="37">
+        <v>4</v>
+      </c>
+      <c r="L6" s="37">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37">
+        <v>6</v>
+      </c>
+      <c r="N6" s="37">
+        <v>7</v>
+      </c>
+      <c r="O6" s="37">
+        <v>8</v>
+      </c>
+      <c r="P6" s="37">
+        <v>9</v>
+      </c>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B7" s="27"/>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="37">
+        <v>1</v>
+      </c>
+      <c r="P7" s="37">
+        <v>2</v>
+      </c>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="37">
+        <v>1</v>
+      </c>
+      <c r="O9" s="37">
+        <v>2</v>
+      </c>
+      <c r="P9" s="37">
+        <v>3</v>
+      </c>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="37"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <v>2</v>
+      </c>
+      <c r="G12" s="34">
+        <v>3</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4</v>
+      </c>
+      <c r="I12" s="34">
+        <v>5</v>
+      </c>
+      <c r="J12" s="34">
+        <v>6</v>
+      </c>
+      <c r="K12" s="34">
+        <v>7</v>
+      </c>
+      <c r="L12" s="34">
+        <v>8</v>
+      </c>
+      <c r="M12" s="34">
+        <v>9</v>
+      </c>
+      <c r="N12" s="34">
+        <v>10</v>
+      </c>
+      <c r="O12" s="34">
+        <v>11</v>
+      </c>
+      <c r="P12" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C16" s="36"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C17" s="36"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C18" s="36"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C22" s="36"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C23" s="36"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C24" s="36"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C25" s="36"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C26" s="36"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C27" s="36"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="36"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B27367-8EDA-4DBC-AC0E-F90CEAE4412F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E75F0-842D-418F-B3E5-D9B91D6CEE99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="3" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="7005" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="3" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>起</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,6 +91,11 @@
   </si>
   <si>
     <t>→</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 December Contest, Silver 
+Problem 3. Stuck in a Rut</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -204,6 +209,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -233,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,6 +310,21 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -414,32 +435,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6281,6 +6302,1367 @@
           <a:prstDash val="sysDash"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EADA891-1659-4BA0-9B4E-AE868E838B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1662625" y="1940092"/>
+          <a:ext cx="2001993" cy="652"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6078EB98-EA17-4F13-B364-3754C00E5872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1520512" y="2092885"/>
+          <a:ext cx="2279462" cy="2615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110290</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15041</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE477127-F706-4297-AA14-D75D1BCA388F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1774658" y="65171"/>
+          <a:ext cx="5013" cy="1634291"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100264</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110289</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9C1DAC-03F1-4A58-A660-C62E537E4482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2757238" y="696830"/>
+          <a:ext cx="10025" cy="2050381"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0B5A65-3C49-4E6A-8AE3-C333C93DDF89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2877552" y="2351171"/>
+          <a:ext cx="787066" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BF0347-8AED-47BE-BB1F-3197C178222C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674019" y="2774281"/>
+          <a:ext cx="990599" cy="3008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="椭圆 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6D7EC6-DDCB-4F69-A51D-D439FA938154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1799724" y="1864894"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82216</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>72188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="椭圆 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BA4C11-F785-4790-B22A-717330F4BE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1796716" y="2057399"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74195</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134353</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="椭圆 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78AE7FA-46A8-426B-8C4A-642DCB5FC606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3052011" y="2259930"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136358</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="椭圆 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CCFE9F-437E-4160-A25A-BB950356AB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3054016" y="2662988"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD65D85-DB8C-4AF1-8590-9640D270B7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1452072" y="1168066"/>
+          <a:ext cx="2001993" cy="652"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7AE7BCF-4FC4-4DCA-BD77-6D655CC9EC25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1269854" y="1370990"/>
+          <a:ext cx="2189225" cy="2615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110289</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115304</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8099D0-21F0-47F8-A9B3-5A9F58A323C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1564105" y="2972803"/>
+          <a:ext cx="5015" cy="1654344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110289</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76B830F-8405-4AED-93D1-C24A9CE4C3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2757238" y="2977817"/>
+          <a:ext cx="10025" cy="2075446"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E3FE9E-5FF8-4D83-872A-044939781E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2667000" y="1579144"/>
+          <a:ext cx="787065" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185486</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0C12FD-BD50-4F61-8647-9C873304AC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463466" y="2002255"/>
+          <a:ext cx="990599" cy="3008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85224</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145382</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="椭圆 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAFE0BB-DD79-4540-B084-0F9EB5CA7239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539040" y="1132973"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82216</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="椭圆 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B7D493-FFBA-4431-90FF-93C07416481F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536032" y="1335504"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134353</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="椭圆 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B135F58E-4615-4E0E-90B2-EF0A358E02B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2731169" y="1548061"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="椭圆 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F19E2E1-01A5-4269-92D3-C98DA9FC507A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733174" y="1971173"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102271</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>207546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B60AB75-114E-4584-933D-6CB437902ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1955132" y="2962776"/>
+          <a:ext cx="2007" cy="2277981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72190</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132348</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147386</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="椭圆 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB320EB-400E-4727-BD20-D85D995AD8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1927058" y="4072688"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69182</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="椭圆 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8339B124-FA90-4492-B058-10CB46CE530B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="4265193"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D71F811-5B2D-4123-92D0-4C73B6D8A506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="952500" y="2987842"/>
+          <a:ext cx="0" cy="576513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6606,17 +7988,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.07421875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.61328125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.4609375" style="12"/>
-    <col min="8" max="8" width="3.23046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="2.4609375" style="12"/>
-    <col min="14" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="12"/>
+    <col min="8" max="8" width="3.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="2.44140625" style="12"/>
+    <col min="14" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O3" s="1">
         <v>11</v>
       </c>
@@ -6702,7 +8084,7 @@
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
     </row>
-    <row r="4" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O4" s="1">
         <v>10</v>
       </c>
@@ -6788,7 +8170,7 @@
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O5" s="1">
         <v>9</v>
       </c>
@@ -6874,7 +8256,7 @@
       <c r="CN5" s="2"/>
       <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -6971,7 +8353,7 @@
       <c r="CN6" s="2"/>
       <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O7" s="1">
         <v>7</v>
       </c>
@@ -7057,7 +8439,7 @@
       <c r="CN7" s="2"/>
       <c r="CO7" s="2"/>
     </row>
-    <row r="8" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O8" s="1">
         <v>6</v>
       </c>
@@ -7155,7 +8537,7 @@
       <c r="CN8" s="2"/>
       <c r="CO8" s="2"/>
     </row>
-    <row r="9" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -7247,7 +8629,7 @@
       <c r="CN9" s="2"/>
       <c r="CO9" s="2"/>
     </row>
-    <row r="10" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O10" s="1">
         <v>4</v>
       </c>
@@ -7345,7 +8727,7 @@
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
     </row>
-    <row r="11" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O11" s="1">
         <v>3</v>
       </c>
@@ -7443,7 +8825,7 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
     </row>
-    <row r="12" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O12" s="1">
         <v>2</v>
       </c>
@@ -7541,7 +8923,7 @@
       <c r="CN12" s="2"/>
       <c r="CO12" s="2"/>
     </row>
-    <row r="13" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O13" s="1">
         <v>1</v>
       </c>
@@ -7639,7 +9021,7 @@
       <c r="CN13" s="2"/>
       <c r="CO13" s="2"/>
     </row>
-    <row r="14" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -7737,7 +9119,7 @@
       <c r="CN14" s="2"/>
       <c r="CO14" s="2"/>
     </row>
-    <row r="15" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="15:93" x14ac:dyDescent="0.25">
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -7937,7 +9319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O18" s="1">
         <v>9</v>
       </c>
@@ -7980,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O19" s="1">
         <v>8</v>
       </c>
@@ -8020,7 +9402,7 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O20" s="1">
         <v>7</v>
       </c>
@@ -8060,7 +9442,7 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O21" s="1">
         <v>6</v>
       </c>
@@ -8100,7 +9482,7 @@
       <c r="AY21" s="28"/>
       <c r="AZ21" s="28"/>
     </row>
-    <row r="22" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O22" s="1">
         <v>5</v>
       </c>
@@ -8140,7 +9522,7 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="28"/>
     </row>
-    <row r="23" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O23" s="1">
         <v>4</v>
       </c>
@@ -8186,7 +9568,7 @@
       <c r="AY23" s="28"/>
       <c r="AZ23" s="28"/>
     </row>
-    <row r="24" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O24" s="1">
         <v>3</v>
       </c>
@@ -8230,7 +9612,7 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O25" s="1">
         <v>2</v>
       </c>
@@ -8274,7 +9656,7 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O26" s="1">
         <v>1</v>
       </c>
@@ -8320,7 +9702,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="27" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -8384,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:86" x14ac:dyDescent="0.25">
       <c r="P28" s="1">
         <v>0</v>
       </c>
@@ -8419,7 +9801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -8436,7 +9818,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="31" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
@@ -8453,26 +9835,26 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="32" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -8502,7 +9884,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -8538,7 +9920,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -8578,7 +9960,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -8614,7 +9996,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -8648,7 +10030,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -8682,7 +10064,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N39" s="12"/>
       <c r="O39" s="1">
         <v>5</v>
@@ -8701,7 +10083,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N40" s="12"/>
       <c r="O40" s="1">
         <v>4</v>
@@ -8722,7 +10104,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N41" s="12"/>
       <c r="O41" s="1">
         <v>3</v>
@@ -8743,7 +10125,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N42" s="12"/>
       <c r="O42" s="1">
         <v>2</v>
@@ -8764,7 +10146,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M43" s="15"/>
       <c r="N43" s="12"/>
       <c r="O43" s="1">
@@ -8788,7 +10170,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N44" s="12"/>
       <c r="O44" s="1">
         <v>0</v>
@@ -8807,7 +10189,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P45" s="1">
         <v>0</v>
       </c>
@@ -8842,23 +10224,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O47" s="12"/>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O48" s="1">
         <v>11</v>
       </c>
@@ -8874,7 +10256,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O49" s="1">
         <v>10</v>
       </c>
@@ -8890,7 +10272,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O50" s="1">
         <v>9</v>
       </c>
@@ -8906,7 +10288,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O51" s="1">
         <v>8</v>
       </c>
@@ -8922,7 +10304,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O52" s="1">
         <v>7</v>
       </c>
@@ -8938,7 +10320,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O53" s="1">
         <v>6</v>
       </c>
@@ -8954,7 +10336,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O54" s="1">
         <v>5</v>
       </c>
@@ -8970,7 +10352,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O55" s="1">
         <v>4</v>
       </c>
@@ -8988,7 +10370,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O56" s="1">
         <v>3</v>
       </c>
@@ -9006,7 +10388,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M57" s="15"/>
       <c r="O57" s="1">
         <v>2</v>
@@ -9027,7 +10409,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O58" s="1">
         <v>1</v>
       </c>
@@ -9045,7 +10427,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -9061,7 +10443,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P60" s="1">
         <v>0</v>
       </c>
@@ -9096,23 +10478,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O62" s="12"/>
-      <c r="P62" s="32" t="s">
+      <c r="P62" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
     </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O63" s="1">
         <v>11</v>
       </c>
@@ -9128,7 +10510,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O64" s="1">
         <v>10</v>
       </c>
@@ -9144,7 +10526,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O65" s="1">
         <v>9</v>
       </c>
@@ -9160,7 +10542,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O66" s="1">
         <v>8</v>
       </c>
@@ -9176,7 +10558,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O67" s="1">
         <v>7</v>
       </c>
@@ -9192,7 +10574,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O68" s="1">
         <v>6</v>
       </c>
@@ -9208,7 +10590,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O69" s="1">
         <v>5</v>
       </c>
@@ -9224,7 +10606,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O70" s="1">
         <v>4</v>
       </c>
@@ -9242,7 +10624,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O71" s="1">
         <v>3</v>
       </c>
@@ -9260,7 +10642,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="12:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="L72" s="15"/>
       <c r="O72" s="1">
         <v>2</v>
@@ -9281,7 +10663,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O73" s="1">
         <v>1</v>
       </c>
@@ -9299,7 +10681,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O74" s="1">
         <v>0</v>
       </c>
@@ -9315,7 +10697,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.25">
       <c r="P75" s="1">
         <v>0</v>
       </c>
@@ -9350,23 +10732,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O77" s="12"/>
-      <c r="P77" s="32" t="s">
+      <c r="P77" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O78" s="1">
         <v>11</v>
       </c>
@@ -9382,7 +10764,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O79" s="1">
         <v>10</v>
       </c>
@@ -9398,7 +10780,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O80" s="1">
         <v>9</v>
       </c>
@@ -9414,7 +10796,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O81" s="1">
         <v>8</v>
       </c>
@@ -9430,7 +10812,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O82" s="1">
         <v>7</v>
       </c>
@@ -9446,7 +10828,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O83" s="1">
         <v>6</v>
       </c>
@@ -9462,7 +10844,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O84" s="1">
         <v>5</v>
       </c>
@@ -9478,7 +10860,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M85" s="15"/>
       <c r="O85" s="1">
         <v>4</v>
@@ -9499,7 +10881,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O86" s="1">
         <v>3</v>
       </c>
@@ -9517,7 +10899,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O87" s="1">
         <v>2</v>
       </c>
@@ -9535,7 +10917,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O88" s="1">
         <v>1</v>
       </c>
@@ -9553,7 +10935,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O89" s="1">
         <v>0</v>
       </c>
@@ -9569,7 +10951,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P90" s="1">
         <v>0</v>
       </c>
@@ -9626,26 +11008,26 @@
       <selection activeCell="J29" sqref="J29:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="12"/>
-    <col min="2" max="2" width="2.4609375" style="1"/>
-    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="2.4609375" style="1" customWidth="1"/>
-    <col min="24" max="26" width="2.4609375" style="1"/>
-    <col min="27" max="27" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="2.4609375" style="1"/>
-    <col min="51" max="51" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="74" width="2.4609375" style="1"/>
-    <col min="75" max="75" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="98" width="2.4609375" style="1"/>
-    <col min="99" max="99" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="121" width="2.4609375" style="1"/>
-    <col min="122" max="122" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="12"/>
+    <col min="2" max="2" width="2.44140625" style="1"/>
+    <col min="3" max="3" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="2.44140625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.44140625" style="1"/>
+    <col min="27" max="27" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="2.44140625" style="1"/>
+    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="74" width="2.44140625" style="1"/>
+    <col min="75" max="75" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="98" width="2.44140625" style="1"/>
+    <col min="99" max="99" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="2.44140625" style="1"/>
+    <col min="122" max="122" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="16">
         <v>19</v>
@@ -9791,7 +11173,7 @@
       <c r="EK2" s="5"/>
       <c r="EL2" s="5"/>
     </row>
-    <row r="3" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C3" s="16">
         <v>18</v>
       </c>
@@ -9931,7 +11313,7 @@
       <c r="EK3" s="5"/>
       <c r="EL3" s="5"/>
     </row>
-    <row r="4" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C4" s="16">
         <v>17</v>
       </c>
@@ -10071,7 +11453,7 @@
       <c r="EK4" s="5"/>
       <c r="EL4" s="5"/>
     </row>
-    <row r="5" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
         <v>16</v>
       </c>
@@ -10199,7 +11581,7 @@
       <c r="EK5" s="5"/>
       <c r="EL5" s="5"/>
     </row>
-    <row r="6" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
         <v>15</v>
       </c>
@@ -10339,7 +11721,7 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
     </row>
-    <row r="7" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
@@ -10482,7 +11864,7 @@
       <c r="EK7" s="5"/>
       <c r="EL7" s="5"/>
     </row>
-    <row r="8" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
         <v>13</v>
       </c>
@@ -10634,7 +12016,7 @@
       <c r="EK8" s="5"/>
       <c r="EL8" s="5"/>
     </row>
-    <row r="9" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C9" s="16">
         <v>12</v>
       </c>
@@ -10774,7 +12156,7 @@
       <c r="EK9" s="5"/>
       <c r="EL9" s="5"/>
     </row>
-    <row r="10" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <v>11</v>
       </c>
@@ -10926,7 +12308,7 @@
       <c r="EK10" s="5"/>
       <c r="EL10" s="5"/>
     </row>
-    <row r="11" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <v>10</v>
       </c>
@@ -11066,7 +12448,7 @@
       <c r="EK11" s="5"/>
       <c r="EL11" s="5"/>
     </row>
-    <row r="12" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -11206,7 +12588,7 @@
       <c r="EK12" s="4"/>
       <c r="EL12" s="5"/>
     </row>
-    <row r="13" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <v>8</v>
       </c>
@@ -11346,7 +12728,7 @@
       <c r="EK13" s="5"/>
       <c r="EL13" s="5"/>
     </row>
-    <row r="14" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C14" s="16">
         <v>7</v>
       </c>
@@ -11486,7 +12868,7 @@
       <c r="EK14" s="5"/>
       <c r="EL14" s="5"/>
     </row>
-    <row r="15" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
         <v>6</v>
       </c>
@@ -11626,7 +13008,7 @@
       <c r="EK15" s="5"/>
       <c r="EL15" s="5"/>
     </row>
-    <row r="16" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
         <v>5</v>
       </c>
@@ -11766,7 +13148,7 @@
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
     </row>
-    <row r="17" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
@@ -11909,7 +13291,7 @@
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
     </row>
-    <row r="18" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>3</v>
       </c>
@@ -12049,7 +13431,7 @@
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
     </row>
-    <row r="19" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -12183,7 +13565,7 @@
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
     </row>
-    <row r="20" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -12323,7 +13705,7 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
     </row>
-    <row r="21" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C21" s="16">
         <v>0</v>
       </c>
@@ -12463,7 +13845,7 @@
       <c r="EK21" s="18"/>
       <c r="EL21" s="18"/>
     </row>
-    <row r="22" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:142" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -12825,7 +14207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C29" s="16">
         <v>3</v>
       </c>
@@ -12841,7 +14223,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C30" s="16">
         <v>2</v>
       </c>
@@ -12857,7 +14239,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C31" s="16">
         <v>1</v>
       </c>
@@ -12872,7 +14254,7 @@
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C32" s="16">
         <v>0</v>
       </c>
@@ -12888,7 +14270,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>0</v>
       </c>
@@ -12930,7 +14312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12939,661 +14321,593 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="12"/>
-    <col min="2" max="2" width="2.4609375" style="1"/>
-    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="2.4609375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="2.4609375" style="1"/>
-    <col min="20" max="20" width="2.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1"/>
+    <col min="2" max="2" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="2.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="2.44140625" style="1"/>
+    <col min="19" max="19" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C1" s="16">
+    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
         <v>10</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="T1" s="16"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="S4" s="16"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C2" s="16">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
         <v>9</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="T2" s="16"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="S5" s="16"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C3" s="16">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="T3" s="16"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="S6" s="16"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C4" s="16">
+    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="T4" s="16"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="S7" s="16"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C5" s="16">
+    <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="37">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="37">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="35"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
         <v>2</v>
       </c>
-      <c r="K5" s="37">
+      <c r="F15" s="32">
         <v>3</v>
       </c>
-      <c r="L5" s="37">
+      <c r="G15" s="32">
         <v>4</v>
       </c>
-      <c r="M5" s="37">
+      <c r="H15" s="32">
         <v>5</v>
       </c>
-      <c r="N5" s="37">
+      <c r="I15" s="32">
         <v>6</v>
       </c>
-      <c r="O5" s="37">
+      <c r="J15" s="32">
         <v>7</v>
       </c>
-      <c r="P5" s="37">
+      <c r="K15" s="32">
         <v>8</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="L15" s="32">
+        <v>9</v>
+      </c>
+      <c r="M15" s="32">
+        <v>10</v>
+      </c>
+      <c r="N15" s="32">
+        <v>11</v>
+      </c>
+      <c r="O15" s="32">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C6" s="16">
-        <v>5</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="37">
-        <v>1</v>
-      </c>
-      <c r="I6" s="37">
-        <v>2</v>
-      </c>
-      <c r="J6" s="37">
-        <v>3</v>
-      </c>
-      <c r="K6" s="37">
-        <v>4</v>
-      </c>
-      <c r="L6" s="37">
-        <v>5</v>
-      </c>
-      <c r="M6" s="37">
-        <v>6</v>
-      </c>
-      <c r="N6" s="37">
-        <v>7</v>
-      </c>
-      <c r="O6" s="37">
-        <v>8</v>
-      </c>
-      <c r="P6" s="37">
-        <v>9</v>
-      </c>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B7" s="27"/>
-      <c r="C7" s="16">
-        <v>4</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37">
-        <v>1</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="37">
-        <v>1</v>
-      </c>
-      <c r="P7" s="37">
-        <v>2</v>
-      </c>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C9" s="16">
-        <v>2</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="37">
-        <v>1</v>
-      </c>
-      <c r="O9" s="37">
-        <v>2</v>
-      </c>
-      <c r="P9" s="37">
-        <v>3</v>
-      </c>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="37"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="37"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34">
-        <v>2</v>
-      </c>
-      <c r="G12" s="34">
-        <v>3</v>
-      </c>
-      <c r="H12" s="34">
-        <v>4</v>
-      </c>
-      <c r="I12" s="34">
-        <v>5</v>
-      </c>
-      <c r="J12" s="34">
-        <v>6</v>
-      </c>
-      <c r="K12" s="34">
-        <v>7</v>
-      </c>
-      <c r="L12" s="34">
-        <v>8</v>
-      </c>
-      <c r="M12" s="34">
-        <v>9</v>
-      </c>
-      <c r="N12" s="34">
-        <v>10</v>
-      </c>
-      <c r="O12" s="34">
-        <v>11</v>
-      </c>
-      <c r="P12" s="34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C16" s="36"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C17" s="36"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+    <row r="17" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C18" s="36"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+    <row r="18" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>10</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C19" s="36"/>
-      <c r="D19" s="35"/>
+    <row r="19" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>9</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="O19" s="35"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C20" s="36"/>
+    <row r="20" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>8</v>
+      </c>
+      <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="37" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
+      <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C21" s="36"/>
+    <row r="21" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>7</v>
+      </c>
+      <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="36"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
+      <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C22" s="36"/>
+    <row r="22" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>6</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
+      <c r="O22" s="35"/>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C23" s="36"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+    <row r="23" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C24" s="36"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
+    <row r="24" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C25" s="36"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
+    <row r="25" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C26" s="36"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
+    <row r="26" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C27" s="36"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
+    <row r="27" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="35"/>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C28" s="36"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
+    <row r="28" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32">
+        <v>2</v>
+      </c>
+      <c r="F29" s="32">
+        <v>3</v>
+      </c>
+      <c r="G29" s="32">
+        <v>4</v>
+      </c>
+      <c r="H29" s="32">
+        <v>5</v>
+      </c>
+      <c r="I29" s="32">
+        <v>6</v>
+      </c>
+      <c r="J29" s="32">
+        <v>7</v>
+      </c>
+      <c r="K29" s="32">
+        <v>8</v>
+      </c>
+      <c r="L29" s="32">
+        <v>9</v>
+      </c>
+      <c r="M29" s="32">
+        <v>10</v>
+      </c>
+      <c r="N29" s="32">
+        <v>11</v>
+      </c>
+      <c r="O29" s="32">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E75F0-842D-418F-B3E5-D9B91D6CEE99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B99BF-54A4-487C-AB52-E0AEBFF4479C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7005" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="3" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
@@ -214,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,12 +444,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,11 +456,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6773,15 +6782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>74195</xdr:colOff>
+      <xdr:colOff>79208</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>74193</xdr:rowOff>
+      <xdr:rowOff>79206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134353</xdr:colOff>
+      <xdr:colOff>139366</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129338</xdr:rowOff>
+      <xdr:rowOff>134351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6796,7 +6805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3052011" y="2259930"/>
+          <a:off x="2736182" y="2199772"/>
           <a:ext cx="60158" cy="55145"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7680,6 +7689,246 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75198</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135356</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="椭圆 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B081D1-2433-4EF4-8377-40F2F1A44563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2732172" y="1794709"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77203</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137361</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4504B131-BC35-407D-B6DC-7DB28FE1D842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734177" y="1992228"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80211</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140369</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC3B3F3-A972-4360-84B0-D292D09557B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2737185" y="4917908"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77203</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137361</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C528E2-D244-489F-BDBA-24DC2BC1ED2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734177" y="4714374"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9838,19 +10087,19 @@
     <row r="32" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
@@ -10226,19 +10475,19 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O47" s="12"/>
-      <c r="P47" s="33" t="s">
+      <c r="P47" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O48" s="1">
@@ -10480,19 +10729,19 @@
     </row>
     <row r="62" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O62" s="12"/>
-      <c r="P62" s="33" t="s">
+      <c r="P62" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
     </row>
     <row r="63" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O63" s="1">
@@ -10734,19 +10983,19 @@
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O77" s="12"/>
-      <c r="P77" s="33" t="s">
+      <c r="P77" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="39"/>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O78" s="1">
@@ -14323,8 +14572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14341,141 +14590,141 @@
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>10</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>8</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>7</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14483,103 +14732,103 @@
       <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="37" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="37" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="37" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="37" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="35"/>
+      <c r="O13" s="33"/>
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>0</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="33"/>
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -14635,18 +14884,18 @@
       <c r="B18" s="16">
         <v>10</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="37" t="s">
         <v>15</v>
       </c>
@@ -14661,19 +14910,19 @@
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -14685,179 +14934,179 @@
       <c r="B20" s="16">
         <v>8</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>7</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
     </row>
     <row r="22" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>6</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>5</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="37" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>4</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="37" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="37" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>2</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="37" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
         <v>1</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="37" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="35"/>
+      <c r="O27" s="33"/>
     </row>
     <row r="28" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>0</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="37" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="35"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C29" s="32">

--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B99BF-54A4-487C-AB52-E0AEBFF4479C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C738A-9A90-4460-9276-C47D764054C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="3" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="11210" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="1" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
     <sheet name="GoldPro3.SquarePasture" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId4"/>
+    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="GoldPro3.SquarePasture2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,8 +214,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +266,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,6 +369,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -344,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +536,15 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -469,6 +555,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7929,6 +8066,1403 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935D9611-FEE6-4E4F-B7BE-67E9A3064BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75649" y="3910724"/>
+          <a:ext cx="4320000" cy="3174"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212944</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214586</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2410059-EE57-4A12-8976-FD214FB311F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="427530" y="59123"/>
+          <a:ext cx="1642" cy="5379981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC46A3BB-D1F2-41EC-8ECE-F0164584BE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75649" y="3122448"/>
+          <a:ext cx="4320000" cy="2736"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>767</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8200E0B1-27CD-42A0-9FCB-21E3AA7BE1F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3188905" y="59123"/>
+          <a:ext cx="3612" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0A2B04-E1C1-491C-B297-C103C91EB3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75649" y="957426"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CDD666-41A5-46F5-B808-9FC1AB88BD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="3476410"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2710E59F-3A04-48CF-8CA4-FC2986516AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5020332" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230E382E-8416-49C7-98AF-1D40AC936B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="2923736"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3698BAE6-25DF-4606-A8E9-4A136FA64E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7782035" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C2DBE-C969-44BB-98E8-E816AFBA6C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="755976"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>40618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>20721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416F5D64-6B6C-473F-A868-CE830EDC980B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9434239" y="3296858"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6789FA47-6DFD-463E-9269-7721E0F97390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9758746" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC034EE-C41D-4275-986F-07C20607BBD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="2923736"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00497DB-BF9F-4697-B154-38965AAA5BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12520449" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6807B4F0-1251-4741-8099-735C7033F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429859" y="541828"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>40618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>20721</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D90C53-1D71-4B5D-8E7A-51E6009A204F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14032515" y="3108548"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFF2CE3-E55C-445A-84A5-8F7959EF4585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14357022" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7C6BE7-0A25-4A4D-B072-5F3AD3A9D841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429859" y="2923736"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FE1C31-8F45-4F0A-848D-491E45717FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17118725" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>49376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>29479</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FCB4F4-5261-4276-931E-A58E4077F372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14041273" y="349139"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11439E8A-2D83-436E-B002-22B7C8E13D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18955297" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896741C7-337B-4F75-B28A-FBA165A10CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028135" y="2923736"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BB4B63-AA99-4F12-8215-10E6FDAE769A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21717001" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>44997</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>25100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11932</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58162FD-FD22-4780-B4D8-60F02533F25D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18635169" y="178346"/>
+          <a:ext cx="4210517" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8237,17 +9771,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="12"/>
-    <col min="8" max="8" width="3.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="2.44140625" style="12"/>
-    <col min="14" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="3.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.69140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.4609375" style="12"/>
+    <col min="8" max="8" width="3.23046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="2.4609375" style="12"/>
+    <col min="14" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O3" s="1">
         <v>11</v>
       </c>
@@ -8333,7 +9867,7 @@
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
     </row>
-    <row r="4" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O4" s="1">
         <v>10</v>
       </c>
@@ -8419,7 +9953,7 @@
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O5" s="1">
         <v>9</v>
       </c>
@@ -8505,7 +10039,7 @@
       <c r="CN5" s="2"/>
       <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -8602,7 +10136,7 @@
       <c r="CN6" s="2"/>
       <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O7" s="1">
         <v>7</v>
       </c>
@@ -8688,7 +10222,7 @@
       <c r="CN7" s="2"/>
       <c r="CO7" s="2"/>
     </row>
-    <row r="8" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O8" s="1">
         <v>6</v>
       </c>
@@ -8786,7 +10320,7 @@
       <c r="CN8" s="2"/>
       <c r="CO8" s="2"/>
     </row>
-    <row r="9" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -8878,7 +10412,7 @@
       <c r="CN9" s="2"/>
       <c r="CO9" s="2"/>
     </row>
-    <row r="10" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O10" s="1">
         <v>4</v>
       </c>
@@ -8976,7 +10510,7 @@
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
     </row>
-    <row r="11" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O11" s="1">
         <v>3</v>
       </c>
@@ -9074,7 +10608,7 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
     </row>
-    <row r="12" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O12" s="1">
         <v>2</v>
       </c>
@@ -9172,7 +10706,7 @@
       <c r="CN12" s="2"/>
       <c r="CO12" s="2"/>
     </row>
-    <row r="13" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O13" s="1">
         <v>1</v>
       </c>
@@ -9270,7 +10804,7 @@
       <c r="CN13" s="2"/>
       <c r="CO13" s="2"/>
     </row>
-    <row r="14" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -9368,7 +10902,7 @@
       <c r="CN14" s="2"/>
       <c r="CO14" s="2"/>
     </row>
-    <row r="15" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="15:93" x14ac:dyDescent="0.35">
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -9568,7 +11102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O18" s="1">
         <v>9</v>
       </c>
@@ -9611,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O19" s="1">
         <v>8</v>
       </c>
@@ -9651,7 +11185,7 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O20" s="1">
         <v>7</v>
       </c>
@@ -9691,7 +11225,7 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O21" s="1">
         <v>6</v>
       </c>
@@ -9731,7 +11265,7 @@
       <c r="AY21" s="28"/>
       <c r="AZ21" s="28"/>
     </row>
-    <row r="22" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O22" s="1">
         <v>5</v>
       </c>
@@ -9771,7 +11305,7 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="28"/>
     </row>
-    <row r="23" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O23" s="1">
         <v>4</v>
       </c>
@@ -9817,7 +11351,7 @@
       <c r="AY23" s="28"/>
       <c r="AZ23" s="28"/>
     </row>
-    <row r="24" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O24" s="1">
         <v>3</v>
       </c>
@@ -9861,7 +11395,7 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O25" s="1">
         <v>2</v>
       </c>
@@ -9905,7 +11439,7 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O26" s="1">
         <v>1</v>
       </c>
@@ -9951,7 +11485,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="27" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -10015,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="14:86" x14ac:dyDescent="0.35">
       <c r="P28" s="1">
         <v>0</v>
       </c>
@@ -10050,7 +11584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="30" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -10067,7 +11601,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="31" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
@@ -10084,26 +11618,26 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="38" t="s">
+      <c r="P32" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -10133,7 +11667,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -10169,7 +11703,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -10209,7 +11743,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -10245,7 +11779,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -10279,7 +11813,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -10313,7 +11847,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N39" s="12"/>
       <c r="O39" s="1">
         <v>5</v>
@@ -10332,7 +11866,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N40" s="12"/>
       <c r="O40" s="1">
         <v>4</v>
@@ -10353,7 +11887,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N41" s="12"/>
       <c r="O41" s="1">
         <v>3</v>
@@ -10374,7 +11908,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N42" s="12"/>
       <c r="O42" s="1">
         <v>2</v>
@@ -10395,7 +11929,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M43" s="15"/>
       <c r="N43" s="12"/>
       <c r="O43" s="1">
@@ -10419,7 +11953,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N44" s="12"/>
       <c r="O44" s="1">
         <v>0</v>
@@ -10438,7 +11972,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P45" s="1">
         <v>0</v>
       </c>
@@ -10473,23 +12007,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O47" s="12"/>
-      <c r="P47" s="38" t="s">
+      <c r="P47" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O48" s="1">
         <v>11</v>
       </c>
@@ -10505,7 +12039,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O49" s="1">
         <v>10</v>
       </c>
@@ -10521,7 +12055,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O50" s="1">
         <v>9</v>
       </c>
@@ -10537,7 +12071,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O51" s="1">
         <v>8</v>
       </c>
@@ -10553,7 +12087,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O52" s="1">
         <v>7</v>
       </c>
@@ -10569,7 +12103,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O53" s="1">
         <v>6</v>
       </c>
@@ -10585,7 +12119,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O54" s="1">
         <v>5</v>
       </c>
@@ -10601,7 +12135,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O55" s="1">
         <v>4</v>
       </c>
@@ -10619,7 +12153,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O56" s="1">
         <v>3</v>
       </c>
@@ -10637,7 +12171,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M57" s="15"/>
       <c r="O57" s="1">
         <v>2</v>
@@ -10658,7 +12192,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O58" s="1">
         <v>1</v>
       </c>
@@ -10676,7 +12210,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -10692,7 +12226,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
       <c r="P60" s="1">
         <v>0</v>
       </c>
@@ -10727,23 +12261,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O62" s="12"/>
-      <c r="P62" s="38" t="s">
+      <c r="P62" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O63" s="1">
         <v>11</v>
       </c>
@@ -10759,7 +12293,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O64" s="1">
         <v>10</v>
       </c>
@@ -10775,7 +12309,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O65" s="1">
         <v>9</v>
       </c>
@@ -10791,7 +12325,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O66" s="1">
         <v>8</v>
       </c>
@@ -10807,7 +12341,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O67" s="1">
         <v>7</v>
       </c>
@@ -10823,7 +12357,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O68" s="1">
         <v>6</v>
       </c>
@@ -10839,7 +12373,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O69" s="1">
         <v>5</v>
       </c>
@@ -10855,7 +12389,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O70" s="1">
         <v>4</v>
       </c>
@@ -10873,7 +12407,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O71" s="1">
         <v>3</v>
       </c>
@@ -10891,7 +12425,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="12:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="L72" s="15"/>
       <c r="O72" s="1">
         <v>2</v>
@@ -10912,7 +12446,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O73" s="1">
         <v>1</v>
       </c>
@@ -10930,7 +12464,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O74" s="1">
         <v>0</v>
       </c>
@@ -10946,7 +12480,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.35">
       <c r="P75" s="1">
         <v>0</v>
       </c>
@@ -10981,23 +12515,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O77" s="12"/>
-      <c r="P77" s="38" t="s">
+      <c r="P77" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O78" s="1">
         <v>11</v>
       </c>
@@ -11013,7 +12547,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O79" s="1">
         <v>10</v>
       </c>
@@ -11029,7 +12563,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O80" s="1">
         <v>9</v>
       </c>
@@ -11045,7 +12579,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O81" s="1">
         <v>8</v>
       </c>
@@ -11061,7 +12595,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O82" s="1">
         <v>7</v>
       </c>
@@ -11077,7 +12611,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O83" s="1">
         <v>6</v>
       </c>
@@ -11093,7 +12627,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O84" s="1">
         <v>5</v>
       </c>
@@ -11109,7 +12643,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M85" s="15"/>
       <c r="O85" s="1">
         <v>4</v>
@@ -11130,7 +12664,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O86" s="1">
         <v>3</v>
       </c>
@@ -11148,7 +12682,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O87" s="1">
         <v>2</v>
       </c>
@@ -11166,7 +12700,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O88" s="1">
         <v>1</v>
       </c>
@@ -11184,7 +12718,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O89" s="1">
         <v>0</v>
       </c>
@@ -11200,7 +12734,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:26" x14ac:dyDescent="0.35">
       <c r="P90" s="1">
         <v>0</v>
       </c>
@@ -11253,30 +12787,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE08187-13D3-4A00-8554-61C8A3F85608}">
   <dimension ref="A2:EL33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:P33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="12"/>
-    <col min="2" max="2" width="2.44140625" style="1"/>
-    <col min="3" max="3" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="2.44140625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="2.44140625" style="1"/>
-    <col min="27" max="27" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="2.44140625" style="1"/>
-    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="74" width="2.44140625" style="1"/>
-    <col min="75" max="75" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="98" width="2.44140625" style="1"/>
-    <col min="99" max="99" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="121" width="2.44140625" style="1"/>
-    <col min="122" max="122" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="2.4609375" style="12"/>
+    <col min="2" max="2" width="2.4609375" style="1"/>
+    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="2.4609375" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.4609375" style="1"/>
+    <col min="27" max="27" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="2.4609375" style="1"/>
+    <col min="51" max="51" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="74" width="2.4609375" style="1"/>
+    <col min="75" max="75" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="98" width="2.4609375" style="1"/>
+    <col min="99" max="99" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="2.4609375" style="1"/>
+    <col min="122" max="122" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B2" s="12"/>
       <c r="C2" s="16">
         <v>19</v>
@@ -11422,7 +12956,7 @@
       <c r="EK2" s="5"/>
       <c r="EL2" s="5"/>
     </row>
-    <row r="3" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C3" s="16">
         <v>18</v>
       </c>
@@ -11562,7 +13096,7 @@
       <c r="EK3" s="5"/>
       <c r="EL3" s="5"/>
     </row>
-    <row r="4" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C4" s="16">
         <v>17</v>
       </c>
@@ -11702,7 +13236,7 @@
       <c r="EK4" s="5"/>
       <c r="EL4" s="5"/>
     </row>
-    <row r="5" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C5" s="16">
         <v>16</v>
       </c>
@@ -11830,7 +13364,7 @@
       <c r="EK5" s="5"/>
       <c r="EL5" s="5"/>
     </row>
-    <row r="6" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C6" s="16">
         <v>15</v>
       </c>
@@ -11970,7 +13504,7 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
     </row>
-    <row r="7" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
@@ -12113,7 +13647,7 @@
       <c r="EK7" s="5"/>
       <c r="EL7" s="5"/>
     </row>
-    <row r="8" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C8" s="16">
         <v>13</v>
       </c>
@@ -12265,7 +13799,7 @@
       <c r="EK8" s="5"/>
       <c r="EL8" s="5"/>
     </row>
-    <row r="9" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C9" s="16">
         <v>12</v>
       </c>
@@ -12405,7 +13939,7 @@
       <c r="EK9" s="5"/>
       <c r="EL9" s="5"/>
     </row>
-    <row r="10" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C10" s="16">
         <v>11</v>
       </c>
@@ -12557,7 +14091,7 @@
       <c r="EK10" s="5"/>
       <c r="EL10" s="5"/>
     </row>
-    <row r="11" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C11" s="16">
         <v>10</v>
       </c>
@@ -12697,7 +14231,7 @@
       <c r="EK11" s="5"/>
       <c r="EL11" s="5"/>
     </row>
-    <row r="12" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -12837,7 +14371,7 @@
       <c r="EK12" s="4"/>
       <c r="EL12" s="5"/>
     </row>
-    <row r="13" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C13" s="16">
         <v>8</v>
       </c>
@@ -12977,7 +14511,7 @@
       <c r="EK13" s="5"/>
       <c r="EL13" s="5"/>
     </row>
-    <row r="14" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C14" s="16">
         <v>7</v>
       </c>
@@ -13117,7 +14651,7 @@
       <c r="EK14" s="5"/>
       <c r="EL14" s="5"/>
     </row>
-    <row r="15" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C15" s="16">
         <v>6</v>
       </c>
@@ -13257,7 +14791,7 @@
       <c r="EK15" s="5"/>
       <c r="EL15" s="5"/>
     </row>
-    <row r="16" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C16" s="16">
         <v>5</v>
       </c>
@@ -13397,7 +14931,7 @@
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
     </row>
-    <row r="17" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
@@ -13540,7 +15074,7 @@
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
     </row>
-    <row r="18" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C18" s="16">
         <v>3</v>
       </c>
@@ -13680,7 +15214,7 @@
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
     </row>
-    <row r="19" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -13814,7 +15348,7 @@
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
     </row>
-    <row r="20" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -13954,7 +15488,7 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
     </row>
-    <row r="21" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C21" s="16">
         <v>0</v>
       </c>
@@ -14094,7 +15628,7 @@
       <c r="EK21" s="18"/>
       <c r="EL21" s="18"/>
     </row>
-    <row r="22" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:142" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -14456,7 +15990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C29" s="16">
         <v>3</v>
       </c>
@@ -14472,7 +16006,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C30" s="16">
         <v>2</v>
       </c>
@@ -14488,7 +16022,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C31" s="16">
         <v>1</v>
       </c>
@@ -14503,7 +16037,7 @@
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C32" s="16">
         <v>0</v>
       </c>
@@ -14519,7 +16053,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D33" s="1">
         <v>0</v>
       </c>
@@ -14556,60 +16090,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1"/>
-    <col min="2" max="2" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="2.33203125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="2.44140625" style="1"/>
-    <col min="19" max="19" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="2.4609375" style="1"/>
+    <col min="2" max="2" width="2.765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="2.3046875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="2.4609375" style="1"/>
+    <col min="19" max="19" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="16">
         <v>10</v>
       </c>
@@ -14628,7 +16149,7 @@
       <c r="O4" s="33"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="16">
         <v>9</v>
       </c>
@@ -14647,7 +16168,7 @@
       <c r="O5" s="33"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="16">
         <v>8</v>
       </c>
@@ -14666,7 +16187,7 @@
       <c r="O6" s="33"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16">
         <v>7</v>
       </c>
@@ -14685,7 +16206,7 @@
       <c r="O7" s="33"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -14706,7 +16227,7 @@
       <c r="O8" s="33"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -14727,7 +16248,7 @@
       <c r="O9" s="33"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27"/>
       <c r="B10" s="16">
         <v>4</v>
@@ -14749,7 +16270,7 @@
       <c r="O10" s="33"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="16">
         <v>3</v>
       </c>
@@ -14770,7 +16291,7 @@
       <c r="O11" s="33"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -14791,7 +16312,7 @@
       <c r="O12" s="33"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16">
         <v>1</v>
       </c>
@@ -14812,7 +16333,7 @@
       <c r="O13" s="33"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -14831,7 +16352,7 @@
       <c r="O14" s="33"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C15" s="32">
         <v>0</v>
       </c>
@@ -14872,7 +16393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -14880,7 +16401,7 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="16">
         <v>10</v>
       </c>
@@ -14906,7 +16427,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -14930,7 +16451,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="16">
         <v>8</v>
       </c>
@@ -14950,7 +16471,7 @@
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16">
         <v>7</v>
       </c>
@@ -14968,7 +16489,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="16">
         <v>6</v>
       </c>
@@ -14988,7 +16509,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="16">
         <v>5</v>
       </c>
@@ -15008,7 +16529,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="16">
         <v>4</v>
       </c>
@@ -15028,7 +16549,7 @@
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="16">
         <v>3</v>
       </c>
@@ -15048,7 +16569,7 @@
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="16">
         <v>2</v>
       </c>
@@ -15068,7 +16589,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -15088,7 +16609,7 @@
       </c>
       <c r="O27" s="33"/>
     </row>
-    <row r="28" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="16">
         <v>0</v>
       </c>
@@ -15108,7 +16629,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="33"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C29" s="32">
         <v>0</v>
       </c>
@@ -15159,4 +16680,3769 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
+  <dimension ref="C4:I19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="1.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="2.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" s="16">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="16"/>
+      <c r="D10" s="38">
+        <v>0</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="38">
+        <v>3</v>
+      </c>
+      <c r="H10" s="38">
+        <v>4</v>
+      </c>
+      <c r="I10" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="16"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="16">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="16"/>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>2</v>
+      </c>
+      <c r="G19" s="38">
+        <v>3</v>
+      </c>
+      <c r="H19" s="38">
+        <v>4</v>
+      </c>
+      <c r="I19" s="38">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11676968-8A2D-4D5C-B828-16AF2C6FABD1}">
+  <dimension ref="B3:DQ29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.07421875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="2.61328125" style="40" customWidth="1"/>
+    <col min="3" max="22" width="2.23046875" style="40" customWidth="1"/>
+    <col min="23" max="24" width="3.07421875" style="40"/>
+    <col min="25" max="25" width="2.69140625" style="40" customWidth="1"/>
+    <col min="26" max="46" width="2.23046875" style="40" customWidth="1"/>
+    <col min="47" max="48" width="3.07421875" style="40"/>
+    <col min="49" max="123" width="2.23046875" style="40" customWidth="1"/>
+    <col min="124" max="16384" width="3.07421875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16">
+        <v>19</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46">
+        <v>1</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="Z3" s="16">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="48"/>
+      <c r="AY3" s="16">
+        <v>19</v>
+      </c>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="48"/>
+      <c r="BX3" s="16">
+        <v>19</v>
+      </c>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
+      <c r="CE3" s="47"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="47"/>
+      <c r="CJ3" s="47"/>
+      <c r="CK3" s="47"/>
+      <c r="CL3" s="47"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="47"/>
+      <c r="CQ3" s="47"/>
+      <c r="CR3" s="48"/>
+      <c r="CW3" s="16">
+        <v>19</v>
+      </c>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="56"/>
+      <c r="DA3" s="56"/>
+      <c r="DB3" s="56"/>
+      <c r="DC3" s="56"/>
+      <c r="DD3" s="56"/>
+      <c r="DE3" s="56"/>
+      <c r="DF3" s="56"/>
+      <c r="DG3" s="56"/>
+      <c r="DH3" s="56"/>
+      <c r="DI3" s="56"/>
+      <c r="DJ3" s="56"/>
+      <c r="DK3" s="56"/>
+      <c r="DL3" s="56"/>
+      <c r="DM3" s="47"/>
+      <c r="DN3" s="47"/>
+      <c r="DO3" s="47"/>
+      <c r="DP3" s="47"/>
+      <c r="DQ3" s="48"/>
+    </row>
+    <row r="4" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16">
+        <v>18</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
+        <v>4</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
+      <c r="Z4" s="16">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="46">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="48"/>
+      <c r="AY4" s="16">
+        <v>18</v>
+      </c>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="46">
+        <v>4</v>
+      </c>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="48"/>
+      <c r="BX4" s="16">
+        <v>18</v>
+      </c>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="46">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="47"/>
+      <c r="CO4" s="47"/>
+      <c r="CP4" s="47"/>
+      <c r="CQ4" s="47"/>
+      <c r="CR4" s="48"/>
+      <c r="CW4" s="16">
+        <v>18</v>
+      </c>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="56"/>
+      <c r="DC4" s="46">
+        <v>4</v>
+      </c>
+      <c r="DD4" s="56"/>
+      <c r="DE4" s="56"/>
+      <c r="DF4" s="56"/>
+      <c r="DG4" s="56"/>
+      <c r="DH4" s="56"/>
+      <c r="DI4" s="56"/>
+      <c r="DJ4" s="56"/>
+      <c r="DK4" s="56"/>
+      <c r="DL4" s="56"/>
+      <c r="DM4" s="47"/>
+      <c r="DN4" s="47"/>
+      <c r="DO4" s="47"/>
+      <c r="DP4" s="47"/>
+      <c r="DQ4" s="48"/>
+    </row>
+    <row r="5" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16">
+        <v>17</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="46">
+        <v>3</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="48"/>
+      <c r="Z5" s="16">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="46">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="48"/>
+      <c r="AY5" s="16">
+        <v>17</v>
+      </c>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="46">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="48"/>
+      <c r="BX5" s="16">
+        <v>17</v>
+      </c>
+      <c r="BY5" s="56"/>
+      <c r="BZ5" s="56"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="46">
+        <v>3</v>
+      </c>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="56"/>
+      <c r="CG5" s="56"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
+      <c r="CJ5" s="56"/>
+      <c r="CK5" s="56"/>
+      <c r="CL5" s="56"/>
+      <c r="CM5" s="56"/>
+      <c r="CN5" s="47"/>
+      <c r="CO5" s="47"/>
+      <c r="CP5" s="47"/>
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="48"/>
+      <c r="CW5" s="16">
+        <v>17</v>
+      </c>
+      <c r="CX5" s="56"/>
+      <c r="CY5" s="56"/>
+      <c r="CZ5" s="56"/>
+      <c r="DA5" s="46">
+        <v>3</v>
+      </c>
+      <c r="DB5" s="56"/>
+      <c r="DC5" s="56"/>
+      <c r="DD5" s="56"/>
+      <c r="DE5" s="56"/>
+      <c r="DF5" s="56"/>
+      <c r="DG5" s="56"/>
+      <c r="DH5" s="56"/>
+      <c r="DI5" s="56"/>
+      <c r="DJ5" s="56"/>
+      <c r="DK5" s="56"/>
+      <c r="DL5" s="56"/>
+      <c r="DM5" s="47"/>
+      <c r="DN5" s="47"/>
+      <c r="DO5" s="47"/>
+      <c r="DP5" s="47"/>
+      <c r="DQ5" s="48"/>
+    </row>
+    <row r="6" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46">
+        <v>5</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="48"/>
+      <c r="Z6" s="16">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="46">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="48"/>
+      <c r="AY6" s="16">
+        <v>16</v>
+      </c>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="46">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="58"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="47"/>
+      <c r="BP6" s="47"/>
+      <c r="BQ6" s="47"/>
+      <c r="BR6" s="47"/>
+      <c r="BS6" s="48"/>
+      <c r="BX6" s="16">
+        <v>16</v>
+      </c>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="57"/>
+      <c r="CA6" s="56"/>
+      <c r="CB6" s="56"/>
+      <c r="CC6" s="56"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="46">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="56"/>
+      <c r="CG6" s="56"/>
+      <c r="CH6" s="56"/>
+      <c r="CI6" s="56"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="58"/>
+      <c r="CM6" s="56"/>
+      <c r="CN6" s="47"/>
+      <c r="CO6" s="47"/>
+      <c r="CP6" s="47"/>
+      <c r="CQ6" s="47"/>
+      <c r="CR6" s="48"/>
+      <c r="CW6" s="16">
+        <v>16</v>
+      </c>
+      <c r="CX6" s="56"/>
+      <c r="CY6" s="57"/>
+      <c r="CZ6" s="56"/>
+      <c r="DA6" s="56"/>
+      <c r="DB6" s="56"/>
+      <c r="DC6" s="56"/>
+      <c r="DD6" s="46">
+        <v>5</v>
+      </c>
+      <c r="DE6" s="56"/>
+      <c r="DF6" s="56"/>
+      <c r="DG6" s="56"/>
+      <c r="DH6" s="56"/>
+      <c r="DI6" s="56"/>
+      <c r="DJ6" s="56"/>
+      <c r="DK6" s="58"/>
+      <c r="DL6" s="56"/>
+      <c r="DM6" s="47"/>
+      <c r="DN6" s="47"/>
+      <c r="DO6" s="47"/>
+      <c r="DP6" s="47"/>
+      <c r="DQ6" s="48"/>
+    </row>
+    <row r="7" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16">
+        <v>15</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
+      <c r="Z7" s="16">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="48"/>
+      <c r="AY7" s="16">
+        <v>15</v>
+      </c>
+      <c r="AZ7" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="47"/>
+      <c r="BQ7" s="47"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="48"/>
+      <c r="BX7" s="16">
+        <v>15</v>
+      </c>
+      <c r="BY7" s="51">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="52"/>
+      <c r="CA7" s="52"/>
+      <c r="CB7" s="52"/>
+      <c r="CC7" s="52"/>
+      <c r="CD7" s="52"/>
+      <c r="CE7" s="52"/>
+      <c r="CF7" s="52"/>
+      <c r="CG7" s="52"/>
+      <c r="CH7" s="52"/>
+      <c r="CI7" s="52"/>
+      <c r="CJ7" s="52"/>
+      <c r="CK7" s="52"/>
+      <c r="CL7" s="52"/>
+      <c r="CM7" s="52"/>
+      <c r="CN7" s="47"/>
+      <c r="CO7" s="47"/>
+      <c r="CP7" s="47"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="48"/>
+      <c r="CW7" s="16">
+        <v>15</v>
+      </c>
+      <c r="CX7" s="51">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="52"/>
+      <c r="CZ7" s="52"/>
+      <c r="DA7" s="52"/>
+      <c r="DB7" s="52"/>
+      <c r="DC7" s="52"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+      <c r="DI7" s="52"/>
+      <c r="DJ7" s="52"/>
+      <c r="DK7" s="52"/>
+      <c r="DL7" s="52"/>
+      <c r="DM7" s="47"/>
+      <c r="DN7" s="47"/>
+      <c r="DO7" s="47"/>
+      <c r="DP7" s="47"/>
+      <c r="DQ7" s="48"/>
+    </row>
+    <row r="8" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
+        <v>14</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
+      <c r="Z8" s="16">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="48"/>
+      <c r="AY8" s="16">
+        <v>14</v>
+      </c>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="47"/>
+      <c r="BP8" s="47"/>
+      <c r="BQ8" s="47"/>
+      <c r="BR8" s="47"/>
+      <c r="BS8" s="48"/>
+      <c r="BX8" s="16">
+        <v>14</v>
+      </c>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
+      <c r="CL8" s="52"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="47"/>
+      <c r="CO8" s="47"/>
+      <c r="CP8" s="47"/>
+      <c r="CQ8" s="47"/>
+      <c r="CR8" s="48"/>
+      <c r="CW8" s="16">
+        <v>14</v>
+      </c>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
+      <c r="DA8" s="52"/>
+      <c r="DB8" s="52"/>
+      <c r="DC8" s="52"/>
+      <c r="DD8" s="52"/>
+      <c r="DE8" s="52"/>
+      <c r="DF8" s="52"/>
+      <c r="DG8" s="52"/>
+      <c r="DH8" s="52"/>
+      <c r="DI8" s="52"/>
+      <c r="DJ8" s="52"/>
+      <c r="DK8" s="52"/>
+      <c r="DL8" s="52"/>
+      <c r="DM8" s="47"/>
+      <c r="DN8" s="47"/>
+      <c r="DO8" s="47"/>
+      <c r="DP8" s="47"/>
+      <c r="DQ8" s="48"/>
+    </row>
+    <row r="9" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <v>13</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="46">
+        <v>13</v>
+      </c>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="48"/>
+      <c r="Z9" s="16">
+        <v>13</v>
+      </c>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="46">
+        <v>13</v>
+      </c>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="48"/>
+      <c r="AY9" s="16">
+        <v>13</v>
+      </c>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="53"/>
+      <c r="BP9" s="46">
+        <v>13</v>
+      </c>
+      <c r="BQ9" s="47"/>
+      <c r="BR9" s="47"/>
+      <c r="BS9" s="48"/>
+      <c r="BX9" s="16">
+        <v>13</v>
+      </c>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
+      <c r="CL9" s="52"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="53"/>
+      <c r="CO9" s="46">
+        <v>13</v>
+      </c>
+      <c r="CP9" s="47"/>
+      <c r="CQ9" s="47"/>
+      <c r="CR9" s="48"/>
+      <c r="CW9" s="16">
+        <v>13</v>
+      </c>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
+      <c r="DA9" s="52"/>
+      <c r="DB9" s="52"/>
+      <c r="DC9" s="52"/>
+      <c r="DD9" s="52"/>
+      <c r="DE9" s="52"/>
+      <c r="DF9" s="52"/>
+      <c r="DG9" s="52"/>
+      <c r="DH9" s="52"/>
+      <c r="DI9" s="52"/>
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="52"/>
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="53"/>
+      <c r="DN9" s="46">
+        <v>13</v>
+      </c>
+      <c r="DO9" s="47"/>
+      <c r="DP9" s="47"/>
+      <c r="DQ9" s="48"/>
+    </row>
+    <row r="10" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
+        <v>12</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
+      <c r="Z10" s="16">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="48"/>
+      <c r="AY10" s="16">
+        <v>12</v>
+      </c>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="52"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="52"/>
+      <c r="BJ10" s="52"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="52"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="53"/>
+      <c r="BP10" s="53"/>
+      <c r="BQ10" s="47"/>
+      <c r="BR10" s="47"/>
+      <c r="BS10" s="48"/>
+      <c r="BX10" s="16">
+        <v>12</v>
+      </c>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
+      <c r="CL10" s="52"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="53"/>
+      <c r="CO10" s="53"/>
+      <c r="CP10" s="47"/>
+      <c r="CQ10" s="47"/>
+      <c r="CR10" s="48"/>
+      <c r="CW10" s="16">
+        <v>12</v>
+      </c>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
+      <c r="DA10" s="52"/>
+      <c r="DB10" s="52"/>
+      <c r="DC10" s="52"/>
+      <c r="DD10" s="52"/>
+      <c r="DE10" s="52"/>
+      <c r="DF10" s="52"/>
+      <c r="DG10" s="52"/>
+      <c r="DH10" s="52"/>
+      <c r="DI10" s="52"/>
+      <c r="DJ10" s="52"/>
+      <c r="DK10" s="52"/>
+      <c r="DL10" s="52"/>
+      <c r="DM10" s="53"/>
+      <c r="DN10" s="53"/>
+      <c r="DO10" s="47"/>
+      <c r="DP10" s="47"/>
+      <c r="DQ10" s="48"/>
+    </row>
+    <row r="11" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="46">
+        <v>6</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="48"/>
+      <c r="Z11" s="16">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="46">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="48"/>
+      <c r="AY11" s="16">
+        <v>11</v>
+      </c>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="46">
+        <v>6</v>
+      </c>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="53"/>
+      <c r="BP11" s="53"/>
+      <c r="BQ11" s="47"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="48"/>
+      <c r="BX11" s="16">
+        <v>11</v>
+      </c>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="54"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="46">
+        <v>6</v>
+      </c>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
+      <c r="CL11" s="52"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="53"/>
+      <c r="CO11" s="53"/>
+      <c r="CP11" s="47"/>
+      <c r="CQ11" s="47"/>
+      <c r="CR11" s="48"/>
+      <c r="CW11" s="16">
+        <v>11</v>
+      </c>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
+      <c r="DA11" s="52"/>
+      <c r="DB11" s="54"/>
+      <c r="DC11" s="52"/>
+      <c r="DD11" s="52"/>
+      <c r="DE11" s="46">
+        <v>6</v>
+      </c>
+      <c r="DF11" s="52"/>
+      <c r="DG11" s="52"/>
+      <c r="DH11" s="52"/>
+      <c r="DI11" s="52"/>
+      <c r="DJ11" s="52"/>
+      <c r="DK11" s="52"/>
+      <c r="DL11" s="52"/>
+      <c r="DM11" s="53"/>
+      <c r="DN11" s="53"/>
+      <c r="DO11" s="47"/>
+      <c r="DP11" s="47"/>
+      <c r="DQ11" s="48"/>
+    </row>
+    <row r="12" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="Z12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="48"/>
+      <c r="AY12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="53"/>
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="47"/>
+      <c r="BR12" s="47"/>
+      <c r="BS12" s="48"/>
+      <c r="BX12" s="16">
+        <v>10</v>
+      </c>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
+      <c r="CL12" s="52"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="53"/>
+      <c r="CO12" s="53"/>
+      <c r="CP12" s="47"/>
+      <c r="CQ12" s="47"/>
+      <c r="CR12" s="48"/>
+      <c r="CW12" s="16">
+        <v>10</v>
+      </c>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
+      <c r="DA12" s="52"/>
+      <c r="DB12" s="52"/>
+      <c r="DC12" s="52"/>
+      <c r="DD12" s="52"/>
+      <c r="DE12" s="52"/>
+      <c r="DF12" s="52"/>
+      <c r="DG12" s="52"/>
+      <c r="DH12" s="52"/>
+      <c r="DI12" s="52"/>
+      <c r="DJ12" s="52"/>
+      <c r="DK12" s="52"/>
+      <c r="DL12" s="52"/>
+      <c r="DM12" s="53"/>
+      <c r="DN12" s="53"/>
+      <c r="DO12" s="47"/>
+      <c r="DP12" s="47"/>
+      <c r="DQ12" s="48"/>
+    </row>
+    <row r="13" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46">
+        <v>15</v>
+      </c>
+      <c r="V13" s="48"/>
+      <c r="Z13" s="16">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="46">
+        <v>15</v>
+      </c>
+      <c r="AT13" s="48"/>
+      <c r="AY13" s="16">
+        <v>9</v>
+      </c>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
+      <c r="BG13" s="52"/>
+      <c r="BH13" s="52"/>
+      <c r="BI13" s="52"/>
+      <c r="BJ13" s="52"/>
+      <c r="BK13" s="52"/>
+      <c r="BL13" s="52"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="53"/>
+      <c r="BQ13" s="47"/>
+      <c r="BR13" s="46">
+        <v>15</v>
+      </c>
+      <c r="BS13" s="48"/>
+      <c r="BX13" s="16">
+        <v>9</v>
+      </c>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="52"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="52"/>
+      <c r="CG13" s="52"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
+      <c r="CL13" s="52"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="53"/>
+      <c r="CO13" s="53"/>
+      <c r="CP13" s="47"/>
+      <c r="CQ13" s="46">
+        <v>15</v>
+      </c>
+      <c r="CR13" s="48"/>
+      <c r="CW13" s="16">
+        <v>9</v>
+      </c>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="54"/>
+      <c r="CZ13" s="52"/>
+      <c r="DA13" s="52"/>
+      <c r="DB13" s="52"/>
+      <c r="DC13" s="52"/>
+      <c r="DD13" s="52"/>
+      <c r="DE13" s="52"/>
+      <c r="DF13" s="52"/>
+      <c r="DG13" s="52"/>
+      <c r="DH13" s="52"/>
+      <c r="DI13" s="52"/>
+      <c r="DJ13" s="52"/>
+      <c r="DK13" s="52"/>
+      <c r="DL13" s="52"/>
+      <c r="DM13" s="53"/>
+      <c r="DN13" s="53"/>
+      <c r="DO13" s="47"/>
+      <c r="DP13" s="46">
+        <v>15</v>
+      </c>
+      <c r="DQ13" s="48"/>
+    </row>
+    <row r="14" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
+        <v>8</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="46">
+        <v>7</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="48"/>
+      <c r="Z14" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="46">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="48"/>
+      <c r="AY14" s="16">
+        <v>8</v>
+      </c>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="52"/>
+      <c r="BH14" s="52"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="46">
+        <v>7</v>
+      </c>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="52"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="52"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="53"/>
+      <c r="BQ14" s="47"/>
+      <c r="BR14" s="47"/>
+      <c r="BS14" s="48"/>
+      <c r="BX14" s="16">
+        <v>8</v>
+      </c>
+      <c r="BY14" s="52"/>
+      <c r="BZ14" s="52"/>
+      <c r="CA14" s="52"/>
+      <c r="CB14" s="52"/>
+      <c r="CC14" s="52"/>
+      <c r="CD14" s="55"/>
+      <c r="CE14" s="54"/>
+      <c r="CF14" s="52"/>
+      <c r="CG14" s="52"/>
+      <c r="CH14" s="52"/>
+      <c r="CI14" s="46">
+        <v>7</v>
+      </c>
+      <c r="CJ14" s="52"/>
+      <c r="CK14" s="52"/>
+      <c r="CL14" s="52"/>
+      <c r="CM14" s="52"/>
+      <c r="CN14" s="53"/>
+      <c r="CO14" s="53"/>
+      <c r="CP14" s="47"/>
+      <c r="CQ14" s="47"/>
+      <c r="CR14" s="48"/>
+      <c r="CW14" s="16">
+        <v>8</v>
+      </c>
+      <c r="CX14" s="52"/>
+      <c r="CY14" s="52"/>
+      <c r="CZ14" s="52"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="55"/>
+      <c r="DD14" s="54"/>
+      <c r="DE14" s="52"/>
+      <c r="DF14" s="52"/>
+      <c r="DG14" s="52"/>
+      <c r="DH14" s="46">
+        <v>7</v>
+      </c>
+      <c r="DI14" s="52"/>
+      <c r="DJ14" s="52"/>
+      <c r="DK14" s="52"/>
+      <c r="DL14" s="52"/>
+      <c r="DM14" s="53"/>
+      <c r="DN14" s="53"/>
+      <c r="DO14" s="47"/>
+      <c r="DP14" s="47"/>
+      <c r="DQ14" s="48"/>
+    </row>
+    <row r="15" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="46">
+        <v>8</v>
+      </c>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="48"/>
+      <c r="Z15" s="16">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="46">
+        <v>8</v>
+      </c>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="48"/>
+      <c r="AY15" s="16">
+        <v>7</v>
+      </c>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="46">
+        <v>8</v>
+      </c>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
+      <c r="BO15" s="53"/>
+      <c r="BP15" s="53"/>
+      <c r="BQ15" s="47"/>
+      <c r="BR15" s="47"/>
+      <c r="BS15" s="48"/>
+      <c r="BX15" s="16">
+        <v>7</v>
+      </c>
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="52"/>
+      <c r="CA15" s="52"/>
+      <c r="CB15" s="52"/>
+      <c r="CC15" s="52"/>
+      <c r="CD15" s="52"/>
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="52"/>
+      <c r="CG15" s="52"/>
+      <c r="CH15" s="52"/>
+      <c r="CI15" s="52"/>
+      <c r="CJ15" s="46">
+        <v>8</v>
+      </c>
+      <c r="CK15" s="52"/>
+      <c r="CL15" s="52"/>
+      <c r="CM15" s="52"/>
+      <c r="CN15" s="53"/>
+      <c r="CO15" s="53"/>
+      <c r="CP15" s="47"/>
+      <c r="CQ15" s="47"/>
+      <c r="CR15" s="48"/>
+      <c r="CW15" s="16">
+        <v>7</v>
+      </c>
+      <c r="CX15" s="52"/>
+      <c r="CY15" s="52"/>
+      <c r="CZ15" s="52"/>
+      <c r="DA15" s="52"/>
+      <c r="DB15" s="52"/>
+      <c r="DC15" s="52"/>
+      <c r="DD15" s="52"/>
+      <c r="DE15" s="52"/>
+      <c r="DF15" s="52"/>
+      <c r="DG15" s="52"/>
+      <c r="DH15" s="52"/>
+      <c r="DI15" s="46">
+        <v>8</v>
+      </c>
+      <c r="DJ15" s="52"/>
+      <c r="DK15" s="52"/>
+      <c r="DL15" s="52"/>
+      <c r="DM15" s="53"/>
+      <c r="DN15" s="53"/>
+      <c r="DO15" s="47"/>
+      <c r="DP15" s="47"/>
+      <c r="DQ15" s="48"/>
+    </row>
+    <row r="16" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="46">
+        <v>12</v>
+      </c>
+      <c r="S16" s="53"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="Z16" s="16">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="46">
+        <v>12</v>
+      </c>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="48"/>
+      <c r="AY16" s="16">
+        <v>6</v>
+      </c>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="46">
+        <v>12</v>
+      </c>
+      <c r="BP16" s="53"/>
+      <c r="BQ16" s="47"/>
+      <c r="BR16" s="47"/>
+      <c r="BS16" s="48"/>
+      <c r="BX16" s="16">
+        <v>6</v>
+      </c>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="52"/>
+      <c r="CA16" s="52"/>
+      <c r="CB16" s="54"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="52"/>
+      <c r="CG16" s="52"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
+      <c r="CL16" s="52"/>
+      <c r="CM16" s="52"/>
+      <c r="CN16" s="46">
+        <v>12</v>
+      </c>
+      <c r="CO16" s="53"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="48"/>
+      <c r="CW16" s="16">
+        <v>6</v>
+      </c>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
+      <c r="DA16" s="54"/>
+      <c r="DB16" s="52"/>
+      <c r="DC16" s="52"/>
+      <c r="DD16" s="52"/>
+      <c r="DE16" s="52"/>
+      <c r="DF16" s="52"/>
+      <c r="DG16" s="52"/>
+      <c r="DH16" s="52"/>
+      <c r="DI16" s="52"/>
+      <c r="DJ16" s="52"/>
+      <c r="DK16" s="52"/>
+      <c r="DL16" s="52"/>
+      <c r="DM16" s="46">
+        <v>12</v>
+      </c>
+      <c r="DN16" s="53"/>
+      <c r="DO16" s="47"/>
+      <c r="DP16" s="47"/>
+      <c r="DQ16" s="48"/>
+    </row>
+    <row r="17" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16">
+        <v>5</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="46">
+        <v>11</v>
+      </c>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="Z17" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="46">
+        <v>11</v>
+      </c>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="48"/>
+      <c r="AY17" s="16">
+        <v>5</v>
+      </c>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="52"/>
+      <c r="BI17" s="52"/>
+      <c r="BJ17" s="52"/>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="46">
+        <v>11</v>
+      </c>
+      <c r="BO17" s="47"/>
+      <c r="BP17" s="47"/>
+      <c r="BQ17" s="47"/>
+      <c r="BR17" s="47"/>
+      <c r="BS17" s="48"/>
+      <c r="BX17" s="16">
+        <v>5</v>
+      </c>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="52"/>
+      <c r="CA17" s="52"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="52"/>
+      <c r="CG17" s="52"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
+      <c r="CL17" s="52"/>
+      <c r="CM17" s="46">
+        <v>11</v>
+      </c>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="48"/>
+      <c r="CW17" s="16">
+        <v>5</v>
+      </c>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
+      <c r="DA17" s="52"/>
+      <c r="DB17" s="52"/>
+      <c r="DC17" s="52"/>
+      <c r="DD17" s="52"/>
+      <c r="DE17" s="52"/>
+      <c r="DF17" s="52"/>
+      <c r="DG17" s="52"/>
+      <c r="DH17" s="52"/>
+      <c r="DI17" s="52"/>
+      <c r="DJ17" s="52"/>
+      <c r="DK17" s="52"/>
+      <c r="DL17" s="46">
+        <v>11</v>
+      </c>
+      <c r="DM17" s="47"/>
+      <c r="DN17" s="47"/>
+      <c r="DO17" s="47"/>
+      <c r="DP17" s="47"/>
+      <c r="DQ17" s="48"/>
+    </row>
+    <row r="18" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="46">
+        <v>14</v>
+      </c>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="Z18" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="46">
+        <v>14</v>
+      </c>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="48"/>
+      <c r="AY18" s="16">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="47"/>
+      <c r="BP18" s="47"/>
+      <c r="BQ18" s="46">
+        <v>14</v>
+      </c>
+      <c r="BR18" s="47"/>
+      <c r="BS18" s="48"/>
+      <c r="BX18" s="16">
+        <v>4</v>
+      </c>
+      <c r="BY18" s="56"/>
+      <c r="BZ18" s="56"/>
+      <c r="CA18" s="56"/>
+      <c r="CB18" s="56"/>
+      <c r="CC18" s="56"/>
+      <c r="CD18" s="56"/>
+      <c r="CE18" s="56"/>
+      <c r="CF18" s="56"/>
+      <c r="CG18" s="56"/>
+      <c r="CH18" s="56"/>
+      <c r="CI18" s="56"/>
+      <c r="CJ18" s="56"/>
+      <c r="CK18" s="56"/>
+      <c r="CL18" s="56"/>
+      <c r="CM18" s="56"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="46">
+        <v>14</v>
+      </c>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="48"/>
+      <c r="CW18" s="16">
+        <v>4</v>
+      </c>
+      <c r="CX18" s="48"/>
+      <c r="CY18" s="48"/>
+      <c r="CZ18" s="48"/>
+      <c r="DA18" s="48"/>
+      <c r="DB18" s="48"/>
+      <c r="DC18" s="48"/>
+      <c r="DD18" s="48"/>
+      <c r="DE18" s="48"/>
+      <c r="DF18" s="48"/>
+      <c r="DG18" s="48"/>
+      <c r="DH18" s="48"/>
+      <c r="DI18" s="48"/>
+      <c r="DJ18" s="48"/>
+      <c r="DK18" s="48"/>
+      <c r="DL18" s="48"/>
+      <c r="DM18" s="47"/>
+      <c r="DN18" s="47"/>
+      <c r="DO18" s="46">
+        <v>14</v>
+      </c>
+      <c r="DP18" s="47"/>
+      <c r="DQ18" s="48"/>
+    </row>
+    <row r="19" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16">
+        <v>3</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="Z19" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="48"/>
+      <c r="AY19" s="16">
+        <v>3</v>
+      </c>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="47"/>
+      <c r="BP19" s="47"/>
+      <c r="BQ19" s="47"/>
+      <c r="BR19" s="47"/>
+      <c r="BS19" s="48"/>
+      <c r="BX19" s="16">
+        <v>3</v>
+      </c>
+      <c r="BY19" s="48"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="48"/>
+      <c r="CD19" s="48"/>
+      <c r="CE19" s="48"/>
+      <c r="CF19" s="48"/>
+      <c r="CG19" s="48"/>
+      <c r="CH19" s="48"/>
+      <c r="CI19" s="48"/>
+      <c r="CJ19" s="48"/>
+      <c r="CK19" s="48"/>
+      <c r="CL19" s="48"/>
+      <c r="CM19" s="48"/>
+      <c r="CN19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="48"/>
+      <c r="CW19" s="16">
+        <v>3</v>
+      </c>
+      <c r="CX19" s="48"/>
+      <c r="CY19" s="48"/>
+      <c r="CZ19" s="48"/>
+      <c r="DA19" s="48"/>
+      <c r="DB19" s="48"/>
+      <c r="DC19" s="48"/>
+      <c r="DD19" s="48"/>
+      <c r="DE19" s="48"/>
+      <c r="DF19" s="48"/>
+      <c r="DG19" s="48"/>
+      <c r="DH19" s="48"/>
+      <c r="DI19" s="48"/>
+      <c r="DJ19" s="48"/>
+      <c r="DK19" s="48"/>
+      <c r="DL19" s="48"/>
+      <c r="DM19" s="47"/>
+      <c r="DN19" s="47"/>
+      <c r="DO19" s="47"/>
+      <c r="DP19" s="47"/>
+      <c r="DQ19" s="48"/>
+    </row>
+    <row r="20" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="Z20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="46">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="48"/>
+      <c r="AY20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="48"/>
+      <c r="BM20" s="46">
+        <v>10</v>
+      </c>
+      <c r="BN20" s="48"/>
+      <c r="BO20" s="47"/>
+      <c r="BP20" s="47"/>
+      <c r="BQ20" s="47"/>
+      <c r="BR20" s="47"/>
+      <c r="BS20" s="48"/>
+      <c r="BX20" s="16">
+        <v>2</v>
+      </c>
+      <c r="BY20" s="48"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="48"/>
+      <c r="CC20" s="48"/>
+      <c r="CD20" s="48"/>
+      <c r="CE20" s="48"/>
+      <c r="CF20" s="48"/>
+      <c r="CG20" s="48"/>
+      <c r="CH20" s="48"/>
+      <c r="CI20" s="48"/>
+      <c r="CJ20" s="48"/>
+      <c r="CK20" s="48"/>
+      <c r="CL20" s="46">
+        <v>10</v>
+      </c>
+      <c r="CM20" s="48"/>
+      <c r="CN20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="48"/>
+      <c r="CW20" s="16">
+        <v>2</v>
+      </c>
+      <c r="CX20" s="48"/>
+      <c r="CY20" s="48"/>
+      <c r="CZ20" s="48"/>
+      <c r="DA20" s="48"/>
+      <c r="DB20" s="48"/>
+      <c r="DC20" s="48"/>
+      <c r="DD20" s="48"/>
+      <c r="DE20" s="48"/>
+      <c r="DF20" s="48"/>
+      <c r="DG20" s="48"/>
+      <c r="DH20" s="48"/>
+      <c r="DI20" s="48"/>
+      <c r="DJ20" s="48"/>
+      <c r="DK20" s="46">
+        <v>10</v>
+      </c>
+      <c r="DL20" s="48"/>
+      <c r="DM20" s="47"/>
+      <c r="DN20" s="47"/>
+      <c r="DO20" s="47"/>
+      <c r="DP20" s="47"/>
+      <c r="DQ20" s="48"/>
+    </row>
+    <row r="21" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="46">
+        <v>2</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="Z21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="46">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="48"/>
+      <c r="AY21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="46">
+        <v>2</v>
+      </c>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="48"/>
+      <c r="BL21" s="48"/>
+      <c r="BM21" s="48"/>
+      <c r="BN21" s="48"/>
+      <c r="BO21" s="47"/>
+      <c r="BP21" s="47"/>
+      <c r="BQ21" s="47"/>
+      <c r="BR21" s="47"/>
+      <c r="BS21" s="48"/>
+      <c r="BX21" s="16">
+        <v>1</v>
+      </c>
+      <c r="BY21" s="48"/>
+      <c r="BZ21" s="48"/>
+      <c r="CA21" s="46">
+        <v>2</v>
+      </c>
+      <c r="CB21" s="48"/>
+      <c r="CC21" s="48"/>
+      <c r="CD21" s="48"/>
+      <c r="CE21" s="48"/>
+      <c r="CF21" s="48"/>
+      <c r="CG21" s="48"/>
+      <c r="CH21" s="48"/>
+      <c r="CI21" s="48"/>
+      <c r="CJ21" s="48"/>
+      <c r="CK21" s="48"/>
+      <c r="CL21" s="48"/>
+      <c r="CM21" s="48"/>
+      <c r="CN21" s="47"/>
+      <c r="CO21" s="47"/>
+      <c r="CP21" s="47"/>
+      <c r="CQ21" s="47"/>
+      <c r="CR21" s="48"/>
+      <c r="CW21" s="16">
+        <v>1</v>
+      </c>
+      <c r="CX21" s="48"/>
+      <c r="CY21" s="48"/>
+      <c r="CZ21" s="46">
+        <v>2</v>
+      </c>
+      <c r="DA21" s="48"/>
+      <c r="DB21" s="48"/>
+      <c r="DC21" s="48"/>
+      <c r="DD21" s="48"/>
+      <c r="DE21" s="48"/>
+      <c r="DF21" s="48"/>
+      <c r="DG21" s="48"/>
+      <c r="DH21" s="48"/>
+      <c r="DI21" s="48"/>
+      <c r="DJ21" s="48"/>
+      <c r="DK21" s="48"/>
+      <c r="DL21" s="48"/>
+      <c r="DM21" s="47"/>
+      <c r="DN21" s="47"/>
+      <c r="DO21" s="47"/>
+      <c r="DP21" s="47"/>
+      <c r="DQ21" s="48"/>
+    </row>
+    <row r="22" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61">
+        <v>9</v>
+      </c>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="61">
+        <v>9</v>
+      </c>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AY22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+      <c r="BB22" s="60"/>
+      <c r="BC22" s="60"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="60"/>
+      <c r="BG22" s="60"/>
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="60"/>
+      <c r="BK22" s="60"/>
+      <c r="BL22" s="61">
+        <v>9</v>
+      </c>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="60"/>
+      <c r="BO22" s="60"/>
+      <c r="BP22" s="60"/>
+      <c r="BQ22" s="60"/>
+      <c r="BR22" s="60"/>
+      <c r="BS22" s="60"/>
+      <c r="BX22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="60"/>
+      <c r="BZ22" s="60"/>
+      <c r="CA22" s="60"/>
+      <c r="CB22" s="60"/>
+      <c r="CC22" s="60"/>
+      <c r="CD22" s="60"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
+      <c r="CI22" s="60"/>
+      <c r="CJ22" s="60"/>
+      <c r="CK22" s="61">
+        <v>9</v>
+      </c>
+      <c r="CL22" s="60"/>
+      <c r="CM22" s="60"/>
+      <c r="CN22" s="60"/>
+      <c r="CO22" s="60"/>
+      <c r="CP22" s="60"/>
+      <c r="CQ22" s="60"/>
+      <c r="CR22" s="60"/>
+      <c r="CW22" s="16">
+        <v>0</v>
+      </c>
+      <c r="CX22" s="60"/>
+      <c r="CY22" s="60"/>
+      <c r="CZ22" s="60"/>
+      <c r="DA22" s="60"/>
+      <c r="DB22" s="60"/>
+      <c r="DC22" s="60"/>
+      <c r="DD22" s="60"/>
+      <c r="DE22" s="60"/>
+      <c r="DF22" s="60"/>
+      <c r="DG22" s="60"/>
+      <c r="DH22" s="60"/>
+      <c r="DI22" s="60"/>
+      <c r="DJ22" s="61">
+        <v>9</v>
+      </c>
+      <c r="DK22" s="60"/>
+      <c r="DL22" s="60"/>
+      <c r="DM22" s="60"/>
+      <c r="DN22" s="60"/>
+      <c r="DO22" s="60"/>
+      <c r="DP22" s="60"/>
+      <c r="DQ22" s="60"/>
+    </row>
+    <row r="23" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="59">
+        <v>0</v>
+      </c>
+      <c r="D23" s="59">
+        <v>1</v>
+      </c>
+      <c r="E23" s="59">
+        <v>2</v>
+      </c>
+      <c r="F23" s="59">
+        <v>3</v>
+      </c>
+      <c r="G23" s="59">
+        <v>4</v>
+      </c>
+      <c r="H23" s="59">
+        <v>5</v>
+      </c>
+      <c r="I23" s="59">
+        <v>6</v>
+      </c>
+      <c r="J23" s="59">
+        <v>7</v>
+      </c>
+      <c r="K23" s="59">
+        <v>8</v>
+      </c>
+      <c r="L23" s="59">
+        <v>9</v>
+      </c>
+      <c r="M23" s="59">
+        <v>10</v>
+      </c>
+      <c r="N23" s="59">
+        <v>11</v>
+      </c>
+      <c r="O23" s="59">
+        <v>12</v>
+      </c>
+      <c r="P23" s="59">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="59">
+        <v>14</v>
+      </c>
+      <c r="R23" s="59">
+        <v>15</v>
+      </c>
+      <c r="S23" s="59">
+        <v>16</v>
+      </c>
+      <c r="T23" s="59">
+        <v>17</v>
+      </c>
+      <c r="U23" s="59">
+        <v>18</v>
+      </c>
+      <c r="V23" s="59">
+        <v>19</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="59">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="59">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="59">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="59">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="59">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="59">
+        <v>7</v>
+      </c>
+      <c r="AI23" s="59">
+        <v>8</v>
+      </c>
+      <c r="AJ23" s="59">
+        <v>9</v>
+      </c>
+      <c r="AK23" s="59">
+        <v>10</v>
+      </c>
+      <c r="AL23" s="59">
+        <v>11</v>
+      </c>
+      <c r="AM23" s="59">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="59">
+        <v>13</v>
+      </c>
+      <c r="AO23" s="59">
+        <v>14</v>
+      </c>
+      <c r="AP23" s="59">
+        <v>15</v>
+      </c>
+      <c r="AQ23" s="59">
+        <v>16</v>
+      </c>
+      <c r="AR23" s="59">
+        <v>17</v>
+      </c>
+      <c r="AS23" s="59">
+        <v>18</v>
+      </c>
+      <c r="AT23" s="59">
+        <v>19</v>
+      </c>
+      <c r="AY23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AZ23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="59">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="59">
+        <v>2</v>
+      </c>
+      <c r="BC23" s="59">
+        <v>3</v>
+      </c>
+      <c r="BD23" s="59">
+        <v>4</v>
+      </c>
+      <c r="BE23" s="59">
+        <v>5</v>
+      </c>
+      <c r="BF23" s="59">
+        <v>6</v>
+      </c>
+      <c r="BG23" s="59">
+        <v>7</v>
+      </c>
+      <c r="BH23" s="59">
+        <v>8</v>
+      </c>
+      <c r="BI23" s="59">
+        <v>9</v>
+      </c>
+      <c r="BJ23" s="59">
+        <v>10</v>
+      </c>
+      <c r="BK23" s="59">
+        <v>11</v>
+      </c>
+      <c r="BL23" s="59">
+        <v>12</v>
+      </c>
+      <c r="BM23" s="59">
+        <v>13</v>
+      </c>
+      <c r="BN23" s="59">
+        <v>14</v>
+      </c>
+      <c r="BO23" s="59">
+        <v>15</v>
+      </c>
+      <c r="BP23" s="59">
+        <v>16</v>
+      </c>
+      <c r="BQ23" s="59">
+        <v>17</v>
+      </c>
+      <c r="BR23" s="59">
+        <v>18</v>
+      </c>
+      <c r="BS23" s="59">
+        <v>19</v>
+      </c>
+      <c r="BX23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="BY23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="59">
+        <v>1</v>
+      </c>
+      <c r="CA23" s="59">
+        <v>2</v>
+      </c>
+      <c r="CB23" s="59">
+        <v>3</v>
+      </c>
+      <c r="CC23" s="59">
+        <v>4</v>
+      </c>
+      <c r="CD23" s="59">
+        <v>5</v>
+      </c>
+      <c r="CE23" s="59">
+        <v>6</v>
+      </c>
+      <c r="CF23" s="59">
+        <v>7</v>
+      </c>
+      <c r="CG23" s="59">
+        <v>8</v>
+      </c>
+      <c r="CH23" s="59">
+        <v>9</v>
+      </c>
+      <c r="CI23" s="59">
+        <v>10</v>
+      </c>
+      <c r="CJ23" s="59">
+        <v>11</v>
+      </c>
+      <c r="CK23" s="59">
+        <v>12</v>
+      </c>
+      <c r="CL23" s="59">
+        <v>13</v>
+      </c>
+      <c r="CM23" s="59">
+        <v>14</v>
+      </c>
+      <c r="CN23" s="59">
+        <v>15</v>
+      </c>
+      <c r="CO23" s="59">
+        <v>16</v>
+      </c>
+      <c r="CP23" s="59">
+        <v>17</v>
+      </c>
+      <c r="CQ23" s="59">
+        <v>18</v>
+      </c>
+      <c r="CR23" s="59">
+        <v>19</v>
+      </c>
+      <c r="CW23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="CX23" s="59">
+        <v>0</v>
+      </c>
+      <c r="CY23" s="59">
+        <v>1</v>
+      </c>
+      <c r="CZ23" s="59">
+        <v>2</v>
+      </c>
+      <c r="DA23" s="59">
+        <v>3</v>
+      </c>
+      <c r="DB23" s="59">
+        <v>4</v>
+      </c>
+      <c r="DC23" s="59">
+        <v>5</v>
+      </c>
+      <c r="DD23" s="59">
+        <v>6</v>
+      </c>
+      <c r="DE23" s="59">
+        <v>7</v>
+      </c>
+      <c r="DF23" s="59">
+        <v>8</v>
+      </c>
+      <c r="DG23" s="59">
+        <v>9</v>
+      </c>
+      <c r="DH23" s="59">
+        <v>10</v>
+      </c>
+      <c r="DI23" s="59">
+        <v>11</v>
+      </c>
+      <c r="DJ23" s="59">
+        <v>12</v>
+      </c>
+      <c r="DK23" s="59">
+        <v>13</v>
+      </c>
+      <c r="DL23" s="59">
+        <v>14</v>
+      </c>
+      <c r="DM23" s="59">
+        <v>15</v>
+      </c>
+      <c r="DN23" s="59">
+        <v>16</v>
+      </c>
+      <c r="DO23" s="59">
+        <v>17</v>
+      </c>
+      <c r="DP23" s="59">
+        <v>18</v>
+      </c>
+      <c r="DQ23" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="40">
+        <v>-2</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="Z24" s="40">
+        <v>-2</v>
+      </c>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AY24" s="40">
+        <v>-2</v>
+      </c>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="49"/>
+      <c r="BK24" s="49"/>
+      <c r="BL24" s="49"/>
+      <c r="BM24" s="49"/>
+      <c r="BN24" s="49"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="49"/>
+      <c r="BR24" s="49"/>
+      <c r="BS24" s="49"/>
+      <c r="BX24" s="40">
+        <v>-2</v>
+      </c>
+      <c r="BY24" s="49"/>
+      <c r="BZ24" s="49"/>
+      <c r="CA24" s="49"/>
+      <c r="CB24" s="49"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="49"/>
+      <c r="CG24" s="49"/>
+      <c r="CH24" s="49"/>
+      <c r="CI24" s="49"/>
+      <c r="CJ24" s="49"/>
+      <c r="CK24" s="49"/>
+      <c r="CL24" s="49"/>
+      <c r="CM24" s="49"/>
+      <c r="CN24" s="49"/>
+      <c r="CO24" s="49"/>
+      <c r="CP24" s="49"/>
+      <c r="CQ24" s="49"/>
+      <c r="CR24" s="49"/>
+      <c r="CW24" s="40">
+        <v>-2</v>
+      </c>
+      <c r="CX24" s="49"/>
+      <c r="CY24" s="49"/>
+      <c r="CZ24" s="49"/>
+      <c r="DA24" s="49"/>
+      <c r="DB24" s="49"/>
+      <c r="DC24" s="49"/>
+      <c r="DD24" s="49"/>
+      <c r="DE24" s="49"/>
+      <c r="DF24" s="49"/>
+      <c r="DG24" s="49"/>
+      <c r="DH24" s="49"/>
+      <c r="DI24" s="49"/>
+      <c r="DJ24" s="49"/>
+      <c r="DK24" s="49"/>
+      <c r="DL24" s="49"/>
+      <c r="DM24" s="49"/>
+      <c r="DN24" s="49"/>
+      <c r="DO24" s="49"/>
+      <c r="DP24" s="49"/>
+      <c r="DQ24" s="49"/>
+    </row>
+    <row r="25" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16">
+        <v>-3</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="Z25" s="16">
+        <v>-3</v>
+      </c>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AY25" s="16">
+        <v>-3</v>
+      </c>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="49"/>
+      <c r="BR25" s="49"/>
+      <c r="BS25" s="49"/>
+      <c r="BX25" s="16">
+        <v>-3</v>
+      </c>
+      <c r="BY25" s="49"/>
+      <c r="BZ25" s="49"/>
+      <c r="CA25" s="49"/>
+      <c r="CB25" s="49"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="49"/>
+      <c r="CE25" s="49"/>
+      <c r="CF25" s="49"/>
+      <c r="CG25" s="49"/>
+      <c r="CH25" s="49"/>
+      <c r="CI25" s="49"/>
+      <c r="CJ25" s="49"/>
+      <c r="CK25" s="49"/>
+      <c r="CL25" s="49"/>
+      <c r="CM25" s="49"/>
+      <c r="CN25" s="49"/>
+      <c r="CO25" s="49"/>
+      <c r="CP25" s="49"/>
+      <c r="CQ25" s="49"/>
+      <c r="CR25" s="49"/>
+      <c r="CW25" s="16">
+        <v>-3</v>
+      </c>
+      <c r="CX25" s="49"/>
+      <c r="CY25" s="49"/>
+      <c r="CZ25" s="49"/>
+      <c r="DA25" s="49"/>
+      <c r="DB25" s="49"/>
+      <c r="DC25" s="49"/>
+      <c r="DD25" s="49"/>
+      <c r="DE25" s="49"/>
+      <c r="DF25" s="49"/>
+      <c r="DG25" s="49"/>
+      <c r="DH25" s="49"/>
+      <c r="DI25" s="49"/>
+      <c r="DJ25" s="49"/>
+      <c r="DK25" s="49"/>
+      <c r="DL25" s="49"/>
+      <c r="DM25" s="49"/>
+      <c r="DN25" s="49"/>
+      <c r="DO25" s="49"/>
+      <c r="DP25" s="49"/>
+      <c r="DQ25" s="49"/>
+    </row>
+    <row r="26" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="40">
+        <v>-4</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="Z26" s="40">
+        <v>-4</v>
+      </c>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AY26" s="40">
+        <v>-4</v>
+      </c>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="49"/>
+      <c r="BQ26" s="49"/>
+      <c r="BR26" s="49"/>
+      <c r="BS26" s="49"/>
+      <c r="BX26" s="40">
+        <v>-4</v>
+      </c>
+      <c r="BY26" s="49"/>
+      <c r="BZ26" s="49"/>
+      <c r="CA26" s="49"/>
+      <c r="CB26" s="49"/>
+      <c r="CC26" s="49"/>
+      <c r="CD26" s="49"/>
+      <c r="CE26" s="49"/>
+      <c r="CF26" s="49"/>
+      <c r="CG26" s="49"/>
+      <c r="CH26" s="49"/>
+      <c r="CI26" s="49"/>
+      <c r="CJ26" s="49"/>
+      <c r="CK26" s="49"/>
+      <c r="CL26" s="49"/>
+      <c r="CM26" s="49"/>
+      <c r="CN26" s="49"/>
+      <c r="CO26" s="49"/>
+      <c r="CP26" s="49"/>
+      <c r="CQ26" s="49"/>
+      <c r="CR26" s="49"/>
+      <c r="CW26" s="40">
+        <v>-4</v>
+      </c>
+      <c r="CX26" s="49"/>
+      <c r="CY26" s="49"/>
+      <c r="CZ26" s="49"/>
+      <c r="DA26" s="49"/>
+      <c r="DB26" s="49"/>
+      <c r="DC26" s="49"/>
+      <c r="DD26" s="49"/>
+      <c r="DE26" s="49"/>
+      <c r="DF26" s="49"/>
+      <c r="DG26" s="49"/>
+      <c r="DH26" s="49"/>
+      <c r="DI26" s="49"/>
+      <c r="DJ26" s="49"/>
+      <c r="DK26" s="49"/>
+      <c r="DL26" s="49"/>
+      <c r="DM26" s="49"/>
+      <c r="DN26" s="49"/>
+      <c r="DO26" s="49"/>
+      <c r="DP26" s="49"/>
+      <c r="DQ26" s="49"/>
+    </row>
+    <row r="27" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
+        <v>-5</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="Z27" s="16">
+        <v>-5</v>
+      </c>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AY27" s="16">
+        <v>-5</v>
+      </c>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="49"/>
+      <c r="BR27" s="49"/>
+      <c r="BS27" s="49"/>
+      <c r="BX27" s="16">
+        <v>-5</v>
+      </c>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+      <c r="CA27" s="49"/>
+      <c r="CB27" s="49"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
+      <c r="CJ27" s="49"/>
+      <c r="CK27" s="49"/>
+      <c r="CL27" s="49"/>
+      <c r="CM27" s="49"/>
+      <c r="CN27" s="49"/>
+      <c r="CO27" s="49"/>
+      <c r="CP27" s="49"/>
+      <c r="CQ27" s="49"/>
+      <c r="CR27" s="49"/>
+      <c r="CW27" s="16">
+        <v>-5</v>
+      </c>
+      <c r="CX27" s="49"/>
+      <c r="CY27" s="49"/>
+      <c r="CZ27" s="49"/>
+      <c r="DA27" s="49"/>
+      <c r="DB27" s="49"/>
+      <c r="DC27" s="49"/>
+      <c r="DD27" s="49"/>
+      <c r="DE27" s="49"/>
+      <c r="DF27" s="49"/>
+      <c r="DG27" s="49"/>
+      <c r="DH27" s="49"/>
+      <c r="DI27" s="49"/>
+      <c r="DJ27" s="49"/>
+      <c r="DK27" s="49"/>
+      <c r="DL27" s="49"/>
+      <c r="DM27" s="49"/>
+      <c r="DN27" s="49"/>
+      <c r="DO27" s="49"/>
+      <c r="DP27" s="49"/>
+      <c r="DQ27" s="49"/>
+    </row>
+    <row r="28" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="40">
+        <v>-6</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="Z28" s="40">
+        <v>-6</v>
+      </c>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AY28" s="40">
+        <v>-6</v>
+      </c>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="49"/>
+      <c r="BR28" s="49"/>
+      <c r="BS28" s="49"/>
+      <c r="BX28" s="40">
+        <v>-6</v>
+      </c>
+      <c r="BY28" s="49"/>
+      <c r="BZ28" s="49"/>
+      <c r="CA28" s="49"/>
+      <c r="CB28" s="49"/>
+      <c r="CC28" s="49"/>
+      <c r="CD28" s="49"/>
+      <c r="CE28" s="49"/>
+      <c r="CF28" s="49"/>
+      <c r="CG28" s="49"/>
+      <c r="CH28" s="49"/>
+      <c r="CI28" s="49"/>
+      <c r="CJ28" s="49"/>
+      <c r="CK28" s="49"/>
+      <c r="CL28" s="49"/>
+      <c r="CM28" s="49"/>
+      <c r="CN28" s="49"/>
+      <c r="CO28" s="49"/>
+      <c r="CP28" s="49"/>
+      <c r="CQ28" s="49"/>
+      <c r="CR28" s="49"/>
+      <c r="CW28" s="40">
+        <v>-6</v>
+      </c>
+      <c r="CX28" s="49"/>
+      <c r="CY28" s="49"/>
+      <c r="CZ28" s="49"/>
+      <c r="DA28" s="49"/>
+      <c r="DB28" s="49"/>
+      <c r="DC28" s="49"/>
+      <c r="DD28" s="49"/>
+      <c r="DE28" s="49"/>
+      <c r="DF28" s="49"/>
+      <c r="DG28" s="49"/>
+      <c r="DH28" s="49"/>
+      <c r="DI28" s="49"/>
+      <c r="DJ28" s="49"/>
+      <c r="DK28" s="49"/>
+      <c r="DL28" s="49"/>
+      <c r="DM28" s="49"/>
+      <c r="DN28" s="49"/>
+      <c r="DO28" s="49"/>
+      <c r="DP28" s="49"/>
+      <c r="DQ28" s="49"/>
+    </row>
+    <row r="29" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16">
+        <v>-7</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="Z29" s="16">
+        <v>-7</v>
+      </c>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AY29" s="16">
+        <v>-7</v>
+      </c>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
+      <c r="BP29" s="49"/>
+      <c r="BQ29" s="49"/>
+      <c r="BR29" s="49"/>
+      <c r="BS29" s="49"/>
+      <c r="BX29" s="16">
+        <v>-7</v>
+      </c>
+      <c r="BY29" s="49"/>
+      <c r="BZ29" s="49"/>
+      <c r="CA29" s="49"/>
+      <c r="CB29" s="49"/>
+      <c r="CC29" s="49"/>
+      <c r="CD29" s="49"/>
+      <c r="CE29" s="49"/>
+      <c r="CF29" s="49"/>
+      <c r="CG29" s="49"/>
+      <c r="CH29" s="49"/>
+      <c r="CI29" s="49"/>
+      <c r="CJ29" s="49"/>
+      <c r="CK29" s="49"/>
+      <c r="CL29" s="49"/>
+      <c r="CM29" s="49"/>
+      <c r="CN29" s="49"/>
+      <c r="CO29" s="49"/>
+      <c r="CP29" s="49"/>
+      <c r="CQ29" s="49"/>
+      <c r="CR29" s="49"/>
+      <c r="CW29" s="16">
+        <v>-7</v>
+      </c>
+      <c r="CX29" s="49"/>
+      <c r="CY29" s="49"/>
+      <c r="CZ29" s="49"/>
+      <c r="DA29" s="49"/>
+      <c r="DB29" s="49"/>
+      <c r="DC29" s="49"/>
+      <c r="DD29" s="49"/>
+      <c r="DE29" s="49"/>
+      <c r="DF29" s="49"/>
+      <c r="DG29" s="49"/>
+      <c r="DH29" s="49"/>
+      <c r="DI29" s="49"/>
+      <c r="DJ29" s="49"/>
+      <c r="DK29" s="49"/>
+      <c r="DL29" s="49"/>
+      <c r="DM29" s="49"/>
+      <c r="DN29" s="49"/>
+      <c r="DO29" s="49"/>
+      <c r="DP29" s="49"/>
+      <c r="DQ29" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C738A-9A90-4460-9276-C47D764054C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A5414-3AB8-401C-9C97-4816786A02A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="1" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="12610" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>起</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -545,18 +545,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,6 +594,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6477,13 +6477,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>198783</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>115303</xdr:rowOff>
+      <xdr:rowOff>112417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>185486</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>115955</xdr:rowOff>
+      <xdr:rowOff>113069</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6498,13 +6498,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1662625" y="1940092"/>
-          <a:ext cx="2001993" cy="652"/>
+          <a:off x="1540942" y="1734553"/>
+          <a:ext cx="2240953" cy="652"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -6558,7 +6558,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -6612,7 +6612,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -6666,7 +6666,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -6720,7 +6720,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -6774,7 +6774,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7068,7 +7068,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7122,7 +7122,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7176,7 +7176,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7230,7 +7230,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7284,7 +7284,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7338,7 +7338,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7632,7 +7632,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7806,7 +7806,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -7833,13 +7833,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>75198</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:rowOff>89476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>135356</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150393</xdr:rowOff>
+      <xdr:rowOff>144621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7854,7 +7854,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2732172" y="1794709"/>
+          <a:off x="3013516" y="1711612"/>
           <a:ext cx="60158" cy="55145"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -11621,19 +11621,19 @@
     <row r="32" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="41" t="s">
+      <c r="P32" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
@@ -12009,19 +12009,19 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O47" s="12"/>
-      <c r="P47" s="41" t="s">
+      <c r="P47" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O48" s="1">
@@ -12263,19 +12263,19 @@
     </row>
     <row r="62" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O62" s="12"/>
-      <c r="P62" s="41" t="s">
+      <c r="P62" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
     </row>
     <row r="63" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O63" s="1">
@@ -12517,19 +12517,19 @@
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O77" s="12"/>
-      <c r="P77" s="41" t="s">
+      <c r="P77" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
-      <c r="Z77" s="42"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O78" s="1">
@@ -12787,7 +12787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE08187-13D3-4A00-8554-61C8A3F85608}">
   <dimension ref="A2:EL33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
@@ -16093,44 +16093,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.4609375" style="1"/>
-    <col min="2" max="2" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="2.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.765625" style="16" customWidth="1"/>
+    <col min="3" max="15" width="2.765625" style="1" customWidth="1"/>
     <col min="16" max="18" width="2.4609375" style="1"/>
     <col min="19" max="19" width="2.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
-    <row r="3" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="16">
         <v>10</v>
       </c>
@@ -16149,7 +16149,7 @@
       <c r="O4" s="33"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="16">
         <v>9</v>
       </c>
@@ -16168,7 +16168,7 @@
       <c r="O5" s="33"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="16">
         <v>8</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="O6" s="33"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16">
         <v>7</v>
       </c>
@@ -16206,7 +16206,7 @@
       <c r="O7" s="33"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -16214,8 +16214,8 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="35" t="s">
-        <v>15</v>
+      <c r="G8" s="35">
+        <v>3</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -16227,15 +16227,15 @@
       <c r="O8" s="33"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="16">
         <v>5</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="35" t="s">
-        <v>15</v>
+      <c r="F9" s="35">
+        <v>1</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -16248,7 +16248,7 @@
       <c r="O9" s="33"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27"/>
       <c r="B10" s="16">
         <v>4</v>
@@ -16263,14 +16263,14 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="35" t="s">
-        <v>15</v>
+      <c r="M10" s="35">
+        <v>4</v>
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="16">
         <v>3</v>
       </c>
@@ -16279,8 +16279,8 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="35" t="s">
-        <v>14</v>
+      <c r="H11" s="35">
+        <v>2</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -16291,7 +16291,7 @@
       <c r="O11" s="33"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -16304,15 +16304,15 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
-      <c r="L12" s="35" t="s">
-        <v>15</v>
+      <c r="L12" s="35">
+        <v>6</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16">
         <v>1</v>
       </c>
@@ -16327,13 +16327,13 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="35" t="s">
-        <v>14</v>
+      <c r="N13" s="35">
+        <v>5</v>
       </c>
       <c r="O13" s="33"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -16352,7 +16352,7 @@
       <c r="O14" s="33"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="32">
         <v>0</v>
       </c>
@@ -16393,7 +16393,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -16401,7 +16402,7 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="16">
         <v>10</v>
       </c>
@@ -16427,7 +16428,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -16451,7 +16452,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="16">
         <v>8</v>
       </c>
@@ -16471,7 +16472,7 @@
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16">
         <v>7</v>
       </c>
@@ -16489,7 +16490,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="16">
         <v>6</v>
       </c>
@@ -16509,7 +16510,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="16">
         <v>5</v>
       </c>
@@ -16529,7 +16530,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="16">
         <v>4</v>
       </c>
@@ -16549,7 +16550,7 @@
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="16">
         <v>3</v>
       </c>
@@ -16569,7 +16570,7 @@
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="16">
         <v>2</v>
       </c>
@@ -16589,7 +16590,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -16609,7 +16610,7 @@
       </c>
       <c r="O27" s="33"/>
     </row>
-    <row r="28" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="16">
         <v>0</v>
       </c>
@@ -16629,7 +16630,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="33"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="32">
         <v>0</v>
       </c>
@@ -16924,2816 +16925,2816 @@
       <c r="B3" s="16">
         <v>19</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42">
         <v>1</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="48"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
       <c r="Z3" s="16">
         <v>19</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46">
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42">
         <v>1</v>
       </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="48"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="44"/>
       <c r="AY3" s="16">
         <v>19</v>
       </c>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="46">
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="42">
         <v>1</v>
       </c>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="48"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="44"/>
       <c r="BX3" s="16">
         <v>19</v>
       </c>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="46">
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="42">
         <v>1</v>
       </c>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
-      <c r="CE3" s="47"/>
-      <c r="CF3" s="47"/>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="47"/>
-      <c r="CI3" s="47"/>
-      <c r="CJ3" s="47"/>
-      <c r="CK3" s="47"/>
-      <c r="CL3" s="47"/>
-      <c r="CM3" s="47"/>
-      <c r="CN3" s="47"/>
-      <c r="CO3" s="47"/>
-      <c r="CP3" s="47"/>
-      <c r="CQ3" s="47"/>
-      <c r="CR3" s="48"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44"/>
       <c r="CW3" s="16">
         <v>19</v>
       </c>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="46">
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="42">
         <v>1</v>
       </c>
-      <c r="CZ3" s="56"/>
-      <c r="DA3" s="56"/>
-      <c r="DB3" s="56"/>
-      <c r="DC3" s="56"/>
-      <c r="DD3" s="56"/>
-      <c r="DE3" s="56"/>
-      <c r="DF3" s="56"/>
-      <c r="DG3" s="56"/>
-      <c r="DH3" s="56"/>
-      <c r="DI3" s="56"/>
-      <c r="DJ3" s="56"/>
-      <c r="DK3" s="56"/>
-      <c r="DL3" s="56"/>
-      <c r="DM3" s="47"/>
-      <c r="DN3" s="47"/>
-      <c r="DO3" s="47"/>
-      <c r="DP3" s="47"/>
-      <c r="DQ3" s="48"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="52"/>
+      <c r="DB3" s="52"/>
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="52"/>
+      <c r="DJ3" s="52"/>
+      <c r="DK3" s="52"/>
+      <c r="DL3" s="52"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="44"/>
     </row>
     <row r="4" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16">
         <v>18</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="C4" s="41"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="44"/>
       <c r="Z4" s="16">
         <v>18</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="46">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="42">
         <v>4</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="48"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="44"/>
       <c r="AY4" s="16">
         <v>18</v>
       </c>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="46">
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="42">
         <v>4</v>
       </c>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="47"/>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="47"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="48"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="44"/>
       <c r="BX4" s="16">
         <v>18</v>
       </c>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="56"/>
-      <c r="CB4" s="56"/>
-      <c r="CC4" s="56"/>
-      <c r="CD4" s="46">
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="52"/>
+      <c r="CD4" s="42">
         <v>4</v>
       </c>
-      <c r="CE4" s="56"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="56"/>
-      <c r="CH4" s="56"/>
-      <c r="CI4" s="56"/>
-      <c r="CJ4" s="56"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="56"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="47"/>
-      <c r="CO4" s="47"/>
-      <c r="CP4" s="47"/>
-      <c r="CQ4" s="47"/>
-      <c r="CR4" s="48"/>
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="52"/>
+      <c r="CI4" s="52"/>
+      <c r="CJ4" s="52"/>
+      <c r="CK4" s="52"/>
+      <c r="CL4" s="52"/>
+      <c r="CM4" s="52"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="44"/>
       <c r="CW4" s="16">
         <v>18</v>
       </c>
-      <c r="CX4" s="56"/>
-      <c r="CY4" s="56"/>
-      <c r="CZ4" s="56"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="56"/>
-      <c r="DC4" s="46">
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="52"/>
+      <c r="DB4" s="52"/>
+      <c r="DC4" s="42">
         <v>4</v>
       </c>
-      <c r="DD4" s="56"/>
-      <c r="DE4" s="56"/>
-      <c r="DF4" s="56"/>
-      <c r="DG4" s="56"/>
-      <c r="DH4" s="56"/>
-      <c r="DI4" s="56"/>
-      <c r="DJ4" s="56"/>
-      <c r="DK4" s="56"/>
-      <c r="DL4" s="56"/>
-      <c r="DM4" s="47"/>
-      <c r="DN4" s="47"/>
-      <c r="DO4" s="47"/>
-      <c r="DP4" s="47"/>
-      <c r="DQ4" s="48"/>
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="43"/>
+      <c r="DN4" s="43"/>
+      <c r="DO4" s="43"/>
+      <c r="DP4" s="43"/>
+      <c r="DQ4" s="44"/>
     </row>
     <row r="5" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16">
         <v>17</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46">
+      <c r="C5" s="41"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="42">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
       <c r="Z5" s="16">
         <v>17</v>
       </c>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="46">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="42">
         <v>3</v>
       </c>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="48"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="44"/>
       <c r="AY5" s="16">
         <v>17</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="46">
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="42">
         <v>3</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="48"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="44"/>
       <c r="BX5" s="16">
         <v>17</v>
       </c>
-      <c r="BY5" s="56"/>
-      <c r="BZ5" s="56"/>
-      <c r="CA5" s="56"/>
-      <c r="CB5" s="46">
+      <c r="BY5" s="52"/>
+      <c r="BZ5" s="52"/>
+      <c r="CA5" s="52"/>
+      <c r="CB5" s="42">
         <v>3</v>
       </c>
-      <c r="CC5" s="56"/>
-      <c r="CD5" s="56"/>
-      <c r="CE5" s="56"/>
-      <c r="CF5" s="56"/>
-      <c r="CG5" s="56"/>
-      <c r="CH5" s="56"/>
-      <c r="CI5" s="56"/>
-      <c r="CJ5" s="56"/>
-      <c r="CK5" s="56"/>
-      <c r="CL5" s="56"/>
-      <c r="CM5" s="56"/>
-      <c r="CN5" s="47"/>
-      <c r="CO5" s="47"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="48"/>
+      <c r="CC5" s="52"/>
+      <c r="CD5" s="52"/>
+      <c r="CE5" s="52"/>
+      <c r="CF5" s="52"/>
+      <c r="CG5" s="52"/>
+      <c r="CH5" s="52"/>
+      <c r="CI5" s="52"/>
+      <c r="CJ5" s="52"/>
+      <c r="CK5" s="52"/>
+      <c r="CL5" s="52"/>
+      <c r="CM5" s="52"/>
+      <c r="CN5" s="43"/>
+      <c r="CO5" s="43"/>
+      <c r="CP5" s="43"/>
+      <c r="CQ5" s="43"/>
+      <c r="CR5" s="44"/>
       <c r="CW5" s="16">
         <v>17</v>
       </c>
-      <c r="CX5" s="56"/>
-      <c r="CY5" s="56"/>
-      <c r="CZ5" s="56"/>
-      <c r="DA5" s="46">
+      <c r="CX5" s="52"/>
+      <c r="CY5" s="52"/>
+      <c r="CZ5" s="52"/>
+      <c r="DA5" s="42">
         <v>3</v>
       </c>
-      <c r="DB5" s="56"/>
-      <c r="DC5" s="56"/>
-      <c r="DD5" s="56"/>
-      <c r="DE5" s="56"/>
-      <c r="DF5" s="56"/>
-      <c r="DG5" s="56"/>
-      <c r="DH5" s="56"/>
-      <c r="DI5" s="56"/>
-      <c r="DJ5" s="56"/>
-      <c r="DK5" s="56"/>
-      <c r="DL5" s="56"/>
-      <c r="DM5" s="47"/>
-      <c r="DN5" s="47"/>
-      <c r="DO5" s="47"/>
-      <c r="DP5" s="47"/>
-      <c r="DQ5" s="48"/>
+      <c r="DB5" s="52"/>
+      <c r="DC5" s="52"/>
+      <c r="DD5" s="52"/>
+      <c r="DE5" s="52"/>
+      <c r="DF5" s="52"/>
+      <c r="DG5" s="52"/>
+      <c r="DH5" s="52"/>
+      <c r="DI5" s="52"/>
+      <c r="DJ5" s="52"/>
+      <c r="DK5" s="52"/>
+      <c r="DL5" s="52"/>
+      <c r="DM5" s="43"/>
+      <c r="DN5" s="43"/>
+      <c r="DO5" s="43"/>
+      <c r="DP5" s="43"/>
+      <c r="DQ5" s="44"/>
     </row>
     <row r="6" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16">
         <v>16</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46">
+      <c r="C6" s="41"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="42">
         <v>5</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="48"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44"/>
       <c r="Z6" s="16">
         <v>16</v>
       </c>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="46">
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="42">
         <v>5</v>
       </c>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="48"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="44"/>
       <c r="AY6" s="16">
         <v>16</v>
       </c>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="46">
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="42">
         <v>5</v>
       </c>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="58"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="47"/>
-      <c r="BQ6" s="47"/>
-      <c r="BR6" s="47"/>
-      <c r="BS6" s="48"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="43"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="44"/>
       <c r="BX6" s="16">
         <v>16</v>
       </c>
-      <c r="BY6" s="56"/>
-      <c r="BZ6" s="57"/>
-      <c r="CA6" s="56"/>
-      <c r="CB6" s="56"/>
-      <c r="CC6" s="56"/>
-      <c r="CD6" s="56"/>
-      <c r="CE6" s="46">
+      <c r="BY6" s="52"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="52"/>
+      <c r="CB6" s="52"/>
+      <c r="CC6" s="52"/>
+      <c r="CD6" s="52"/>
+      <c r="CE6" s="42">
         <v>5</v>
       </c>
-      <c r="CF6" s="56"/>
-      <c r="CG6" s="56"/>
-      <c r="CH6" s="56"/>
-      <c r="CI6" s="56"/>
-      <c r="CJ6" s="56"/>
-      <c r="CK6" s="56"/>
-      <c r="CL6" s="58"/>
-      <c r="CM6" s="56"/>
-      <c r="CN6" s="47"/>
-      <c r="CO6" s="47"/>
-      <c r="CP6" s="47"/>
-      <c r="CQ6" s="47"/>
-      <c r="CR6" s="48"/>
+      <c r="CF6" s="52"/>
+      <c r="CG6" s="52"/>
+      <c r="CH6" s="52"/>
+      <c r="CI6" s="52"/>
+      <c r="CJ6" s="52"/>
+      <c r="CK6" s="52"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="52"/>
+      <c r="CN6" s="43"/>
+      <c r="CO6" s="43"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="43"/>
+      <c r="CR6" s="44"/>
       <c r="CW6" s="16">
         <v>16</v>
       </c>
-      <c r="CX6" s="56"/>
-      <c r="CY6" s="57"/>
-      <c r="CZ6" s="56"/>
-      <c r="DA6" s="56"/>
-      <c r="DB6" s="56"/>
-      <c r="DC6" s="56"/>
-      <c r="DD6" s="46">
+      <c r="CX6" s="52"/>
+      <c r="CY6" s="53"/>
+      <c r="CZ6" s="52"/>
+      <c r="DA6" s="52"/>
+      <c r="DB6" s="52"/>
+      <c r="DC6" s="52"/>
+      <c r="DD6" s="42">
         <v>5</v>
       </c>
-      <c r="DE6" s="56"/>
-      <c r="DF6" s="56"/>
-      <c r="DG6" s="56"/>
-      <c r="DH6" s="56"/>
-      <c r="DI6" s="56"/>
-      <c r="DJ6" s="56"/>
-      <c r="DK6" s="58"/>
-      <c r="DL6" s="56"/>
-      <c r="DM6" s="47"/>
-      <c r="DN6" s="47"/>
-      <c r="DO6" s="47"/>
-      <c r="DP6" s="47"/>
-      <c r="DQ6" s="48"/>
+      <c r="DE6" s="52"/>
+      <c r="DF6" s="52"/>
+      <c r="DG6" s="52"/>
+      <c r="DH6" s="52"/>
+      <c r="DI6" s="52"/>
+      <c r="DJ6" s="52"/>
+      <c r="DK6" s="54"/>
+      <c r="DL6" s="52"/>
+      <c r="DM6" s="43"/>
+      <c r="DN6" s="43"/>
+      <c r="DO6" s="43"/>
+      <c r="DP6" s="43"/>
+      <c r="DQ6" s="44"/>
     </row>
     <row r="7" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16">
         <v>15</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="47">
         <v>0</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="44"/>
       <c r="Z7" s="16">
         <v>15</v>
       </c>
-      <c r="AA7" s="51">
+      <c r="AA7" s="47">
         <v>0</v>
       </c>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="44"/>
       <c r="AY7" s="16">
         <v>15</v>
       </c>
-      <c r="AZ7" s="51">
+      <c r="AZ7" s="47">
         <v>0</v>
       </c>
-      <c r="BA7" s="52"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="52"/>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="47"/>
-      <c r="BQ7" s="47"/>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="48"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="48"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="48"/>
+      <c r="BL7" s="48"/>
+      <c r="BM7" s="48"/>
+      <c r="BN7" s="48"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="44"/>
       <c r="BX7" s="16">
         <v>15</v>
       </c>
-      <c r="BY7" s="51">
+      <c r="BY7" s="47">
         <v>0</v>
       </c>
-      <c r="BZ7" s="52"/>
-      <c r="CA7" s="52"/>
-      <c r="CB7" s="52"/>
-      <c r="CC7" s="52"/>
-      <c r="CD7" s="52"/>
-      <c r="CE7" s="52"/>
-      <c r="CF7" s="52"/>
-      <c r="CG7" s="52"/>
-      <c r="CH7" s="52"/>
-      <c r="CI7" s="52"/>
-      <c r="CJ7" s="52"/>
-      <c r="CK7" s="52"/>
-      <c r="CL7" s="52"/>
-      <c r="CM7" s="52"/>
-      <c r="CN7" s="47"/>
-      <c r="CO7" s="47"/>
-      <c r="CP7" s="47"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="48"/>
+      <c r="BZ7" s="48"/>
+      <c r="CA7" s="48"/>
+      <c r="CB7" s="48"/>
+      <c r="CC7" s="48"/>
+      <c r="CD7" s="48"/>
+      <c r="CE7" s="48"/>
+      <c r="CF7" s="48"/>
+      <c r="CG7" s="48"/>
+      <c r="CH7" s="48"/>
+      <c r="CI7" s="48"/>
+      <c r="CJ7" s="48"/>
+      <c r="CK7" s="48"/>
+      <c r="CL7" s="48"/>
+      <c r="CM7" s="48"/>
+      <c r="CN7" s="43"/>
+      <c r="CO7" s="43"/>
+      <c r="CP7" s="43"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="44"/>
       <c r="CW7" s="16">
         <v>15</v>
       </c>
-      <c r="CX7" s="51">
+      <c r="CX7" s="47">
         <v>0</v>
       </c>
-      <c r="CY7" s="52"/>
-      <c r="CZ7" s="52"/>
-      <c r="DA7" s="52"/>
-      <c r="DB7" s="52"/>
-      <c r="DC7" s="52"/>
-      <c r="DD7" s="52"/>
-      <c r="DE7" s="52"/>
-      <c r="DF7" s="52"/>
-      <c r="DG7" s="52"/>
-      <c r="DH7" s="52"/>
-      <c r="DI7" s="52"/>
-      <c r="DJ7" s="52"/>
-      <c r="DK7" s="52"/>
-      <c r="DL7" s="52"/>
-      <c r="DM7" s="47"/>
-      <c r="DN7" s="47"/>
-      <c r="DO7" s="47"/>
-      <c r="DP7" s="47"/>
-      <c r="DQ7" s="48"/>
+      <c r="CY7" s="48"/>
+      <c r="CZ7" s="48"/>
+      <c r="DA7" s="48"/>
+      <c r="DB7" s="48"/>
+      <c r="DC7" s="48"/>
+      <c r="DD7" s="48"/>
+      <c r="DE7" s="48"/>
+      <c r="DF7" s="48"/>
+      <c r="DG7" s="48"/>
+      <c r="DH7" s="48"/>
+      <c r="DI7" s="48"/>
+      <c r="DJ7" s="48"/>
+      <c r="DK7" s="48"/>
+      <c r="DL7" s="48"/>
+      <c r="DM7" s="43"/>
+      <c r="DN7" s="43"/>
+      <c r="DO7" s="43"/>
+      <c r="DP7" s="43"/>
+      <c r="DQ7" s="44"/>
     </row>
     <row r="8" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16">
         <v>14</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
       <c r="Z8" s="16">
         <v>14</v>
       </c>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="44"/>
       <c r="AY8" s="16">
         <v>14</v>
       </c>
-      <c r="AZ8" s="52"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="47"/>
-      <c r="BP8" s="47"/>
-      <c r="BQ8" s="47"/>
-      <c r="BR8" s="47"/>
-      <c r="BS8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="48"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="48"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="43"/>
+      <c r="BP8" s="43"/>
+      <c r="BQ8" s="43"/>
+      <c r="BR8" s="43"/>
+      <c r="BS8" s="44"/>
       <c r="BX8" s="16">
         <v>14</v>
       </c>
-      <c r="BY8" s="52"/>
-      <c r="BZ8" s="52"/>
-      <c r="CA8" s="52"/>
-      <c r="CB8" s="52"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="52"/>
-      <c r="CF8" s="52"/>
-      <c r="CG8" s="52"/>
-      <c r="CH8" s="52"/>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="52"/>
-      <c r="CK8" s="52"/>
-      <c r="CL8" s="52"/>
-      <c r="CM8" s="52"/>
-      <c r="CN8" s="47"/>
-      <c r="CO8" s="47"/>
-      <c r="CP8" s="47"/>
-      <c r="CQ8" s="47"/>
-      <c r="CR8" s="48"/>
+      <c r="BY8" s="48"/>
+      <c r="BZ8" s="48"/>
+      <c r="CA8" s="48"/>
+      <c r="CB8" s="48"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="48"/>
+      <c r="CE8" s="48"/>
+      <c r="CF8" s="48"/>
+      <c r="CG8" s="48"/>
+      <c r="CH8" s="48"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="48"/>
+      <c r="CK8" s="48"/>
+      <c r="CL8" s="48"/>
+      <c r="CM8" s="48"/>
+      <c r="CN8" s="43"/>
+      <c r="CO8" s="43"/>
+      <c r="CP8" s="43"/>
+      <c r="CQ8" s="43"/>
+      <c r="CR8" s="44"/>
       <c r="CW8" s="16">
         <v>14</v>
       </c>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="52"/>
-      <c r="DA8" s="52"/>
-      <c r="DB8" s="52"/>
-      <c r="DC8" s="52"/>
-      <c r="DD8" s="52"/>
-      <c r="DE8" s="52"/>
-      <c r="DF8" s="52"/>
-      <c r="DG8" s="52"/>
-      <c r="DH8" s="52"/>
-      <c r="DI8" s="52"/>
-      <c r="DJ8" s="52"/>
-      <c r="DK8" s="52"/>
-      <c r="DL8" s="52"/>
-      <c r="DM8" s="47"/>
-      <c r="DN8" s="47"/>
-      <c r="DO8" s="47"/>
-      <c r="DP8" s="47"/>
-      <c r="DQ8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
+      <c r="CZ8" s="48"/>
+      <c r="DA8" s="48"/>
+      <c r="DB8" s="48"/>
+      <c r="DC8" s="48"/>
+      <c r="DD8" s="48"/>
+      <c r="DE8" s="48"/>
+      <c r="DF8" s="48"/>
+      <c r="DG8" s="48"/>
+      <c r="DH8" s="48"/>
+      <c r="DI8" s="48"/>
+      <c r="DJ8" s="48"/>
+      <c r="DK8" s="48"/>
+      <c r="DL8" s="48"/>
+      <c r="DM8" s="43"/>
+      <c r="DN8" s="43"/>
+      <c r="DO8" s="43"/>
+      <c r="DP8" s="43"/>
+      <c r="DQ8" s="44"/>
     </row>
     <row r="9" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16">
         <v>13</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="46">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="42">
         <v>13</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="44"/>
       <c r="Z9" s="16">
         <v>13</v>
       </c>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="46">
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="42">
         <v>13</v>
       </c>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="48"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="44"/>
       <c r="AY9" s="16">
         <v>13</v>
       </c>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="52"/>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="52"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="52"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="46">
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="48"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="48"/>
+      <c r="BI9" s="48"/>
+      <c r="BJ9" s="48"/>
+      <c r="BK9" s="48"/>
+      <c r="BL9" s="48"/>
+      <c r="BM9" s="48"/>
+      <c r="BN9" s="48"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="42">
         <v>13</v>
       </c>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="47"/>
-      <c r="BS9" s="48"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="43"/>
+      <c r="BS9" s="44"/>
       <c r="BX9" s="16">
         <v>13</v>
       </c>
-      <c r="BY9" s="52"/>
-      <c r="BZ9" s="52"/>
-      <c r="CA9" s="52"/>
-      <c r="CB9" s="52"/>
-      <c r="CC9" s="52"/>
-      <c r="CD9" s="52"/>
-      <c r="CE9" s="52"/>
-      <c r="CF9" s="52"/>
-      <c r="CG9" s="52"/>
-      <c r="CH9" s="52"/>
-      <c r="CI9" s="52"/>
-      <c r="CJ9" s="52"/>
-      <c r="CK9" s="52"/>
-      <c r="CL9" s="52"/>
-      <c r="CM9" s="52"/>
-      <c r="CN9" s="53"/>
-      <c r="CO9" s="46">
+      <c r="BY9" s="48"/>
+      <c r="BZ9" s="48"/>
+      <c r="CA9" s="48"/>
+      <c r="CB9" s="48"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="48"/>
+      <c r="CE9" s="48"/>
+      <c r="CF9" s="48"/>
+      <c r="CG9" s="48"/>
+      <c r="CH9" s="48"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="48"/>
+      <c r="CK9" s="48"/>
+      <c r="CL9" s="48"/>
+      <c r="CM9" s="48"/>
+      <c r="CN9" s="49"/>
+      <c r="CO9" s="42">
         <v>13</v>
       </c>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="48"/>
+      <c r="CP9" s="43"/>
+      <c r="CQ9" s="43"/>
+      <c r="CR9" s="44"/>
       <c r="CW9" s="16">
         <v>13</v>
       </c>
-      <c r="CX9" s="52"/>
-      <c r="CY9" s="52"/>
-      <c r="CZ9" s="52"/>
-      <c r="DA9" s="52"/>
-      <c r="DB9" s="52"/>
-      <c r="DC9" s="52"/>
-      <c r="DD9" s="52"/>
-      <c r="DE9" s="52"/>
-      <c r="DF9" s="52"/>
-      <c r="DG9" s="52"/>
-      <c r="DH9" s="52"/>
-      <c r="DI9" s="52"/>
-      <c r="DJ9" s="52"/>
-      <c r="DK9" s="52"/>
-      <c r="DL9" s="52"/>
-      <c r="DM9" s="53"/>
-      <c r="DN9" s="46">
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
+      <c r="CZ9" s="48"/>
+      <c r="DA9" s="48"/>
+      <c r="DB9" s="48"/>
+      <c r="DC9" s="48"/>
+      <c r="DD9" s="48"/>
+      <c r="DE9" s="48"/>
+      <c r="DF9" s="48"/>
+      <c r="DG9" s="48"/>
+      <c r="DH9" s="48"/>
+      <c r="DI9" s="48"/>
+      <c r="DJ9" s="48"/>
+      <c r="DK9" s="48"/>
+      <c r="DL9" s="48"/>
+      <c r="DM9" s="49"/>
+      <c r="DN9" s="42">
         <v>13</v>
       </c>
-      <c r="DO9" s="47"/>
-      <c r="DP9" s="47"/>
-      <c r="DQ9" s="48"/>
+      <c r="DO9" s="43"/>
+      <c r="DP9" s="43"/>
+      <c r="DQ9" s="44"/>
     </row>
     <row r="10" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="44"/>
       <c r="Z10" s="16">
         <v>12</v>
       </c>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="44"/>
       <c r="AY10" s="16">
         <v>12</v>
       </c>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="53"/>
-      <c r="BP10" s="53"/>
-      <c r="BQ10" s="47"/>
-      <c r="BR10" s="47"/>
-      <c r="BS10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="48"/>
+      <c r="BI10" s="48"/>
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="48"/>
+      <c r="BM10" s="48"/>
+      <c r="BN10" s="48"/>
+      <c r="BO10" s="49"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="43"/>
+      <c r="BS10" s="44"/>
       <c r="BX10" s="16">
         <v>12</v>
       </c>
-      <c r="BY10" s="52"/>
-      <c r="BZ10" s="52"/>
-      <c r="CA10" s="52"/>
-      <c r="CB10" s="52"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="52"/>
-      <c r="CE10" s="52"/>
-      <c r="CF10" s="52"/>
-      <c r="CG10" s="52"/>
-      <c r="CH10" s="52"/>
-      <c r="CI10" s="52"/>
-      <c r="CJ10" s="52"/>
-      <c r="CK10" s="52"/>
-      <c r="CL10" s="52"/>
-      <c r="CM10" s="52"/>
-      <c r="CN10" s="53"/>
-      <c r="CO10" s="53"/>
-      <c r="CP10" s="47"/>
-      <c r="CQ10" s="47"/>
-      <c r="CR10" s="48"/>
+      <c r="BY10" s="48"/>
+      <c r="BZ10" s="48"/>
+      <c r="CA10" s="48"/>
+      <c r="CB10" s="48"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="48"/>
+      <c r="CE10" s="48"/>
+      <c r="CF10" s="48"/>
+      <c r="CG10" s="48"/>
+      <c r="CH10" s="48"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="48"/>
+      <c r="CK10" s="48"/>
+      <c r="CL10" s="48"/>
+      <c r="CM10" s="48"/>
+      <c r="CN10" s="49"/>
+      <c r="CO10" s="49"/>
+      <c r="CP10" s="43"/>
+      <c r="CQ10" s="43"/>
+      <c r="CR10" s="44"/>
       <c r="CW10" s="16">
         <v>12</v>
       </c>
-      <c r="CX10" s="52"/>
-      <c r="CY10" s="52"/>
-      <c r="CZ10" s="52"/>
-      <c r="DA10" s="52"/>
-      <c r="DB10" s="52"/>
-      <c r="DC10" s="52"/>
-      <c r="DD10" s="52"/>
-      <c r="DE10" s="52"/>
-      <c r="DF10" s="52"/>
-      <c r="DG10" s="52"/>
-      <c r="DH10" s="52"/>
-      <c r="DI10" s="52"/>
-      <c r="DJ10" s="52"/>
-      <c r="DK10" s="52"/>
-      <c r="DL10" s="52"/>
-      <c r="DM10" s="53"/>
-      <c r="DN10" s="53"/>
-      <c r="DO10" s="47"/>
-      <c r="DP10" s="47"/>
-      <c r="DQ10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
+      <c r="CZ10" s="48"/>
+      <c r="DA10" s="48"/>
+      <c r="DB10" s="48"/>
+      <c r="DC10" s="48"/>
+      <c r="DD10" s="48"/>
+      <c r="DE10" s="48"/>
+      <c r="DF10" s="48"/>
+      <c r="DG10" s="48"/>
+      <c r="DH10" s="48"/>
+      <c r="DI10" s="48"/>
+      <c r="DJ10" s="48"/>
+      <c r="DK10" s="48"/>
+      <c r="DL10" s="48"/>
+      <c r="DM10" s="49"/>
+      <c r="DN10" s="49"/>
+      <c r="DO10" s="43"/>
+      <c r="DP10" s="43"/>
+      <c r="DQ10" s="44"/>
     </row>
     <row r="11" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16">
         <v>11</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="46">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="42">
         <v>6</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="44"/>
       <c r="Z11" s="16">
         <v>11</v>
       </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="46">
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="42">
         <v>6</v>
       </c>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="44"/>
       <c r="AY11" s="16">
         <v>11</v>
       </c>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="46">
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="42">
         <v>6</v>
       </c>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="53"/>
-      <c r="BP11" s="53"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="43"/>
+      <c r="BR11" s="43"/>
+      <c r="BS11" s="44"/>
       <c r="BX11" s="16">
         <v>11</v>
       </c>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="54"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="52"/>
-      <c r="CF11" s="46">
+      <c r="BY11" s="48"/>
+      <c r="BZ11" s="48"/>
+      <c r="CA11" s="48"/>
+      <c r="CB11" s="48"/>
+      <c r="CC11" s="50"/>
+      <c r="CD11" s="48"/>
+      <c r="CE11" s="48"/>
+      <c r="CF11" s="42">
         <v>6</v>
       </c>
-      <c r="CG11" s="52"/>
-      <c r="CH11" s="52"/>
-      <c r="CI11" s="52"/>
-      <c r="CJ11" s="52"/>
-      <c r="CK11" s="52"/>
-      <c r="CL11" s="52"/>
-      <c r="CM11" s="52"/>
-      <c r="CN11" s="53"/>
-      <c r="CO11" s="53"/>
-      <c r="CP11" s="47"/>
-      <c r="CQ11" s="47"/>
-      <c r="CR11" s="48"/>
+      <c r="CG11" s="48"/>
+      <c r="CH11" s="48"/>
+      <c r="CI11" s="48"/>
+      <c r="CJ11" s="48"/>
+      <c r="CK11" s="48"/>
+      <c r="CL11" s="48"/>
+      <c r="CM11" s="48"/>
+      <c r="CN11" s="49"/>
+      <c r="CO11" s="49"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="43"/>
+      <c r="CR11" s="44"/>
       <c r="CW11" s="16">
         <v>11</v>
       </c>
-      <c r="CX11" s="52"/>
-      <c r="CY11" s="52"/>
-      <c r="CZ11" s="52"/>
-      <c r="DA11" s="52"/>
-      <c r="DB11" s="54"/>
-      <c r="DC11" s="52"/>
-      <c r="DD11" s="52"/>
-      <c r="DE11" s="46">
+      <c r="CX11" s="48"/>
+      <c r="CY11" s="48"/>
+      <c r="CZ11" s="48"/>
+      <c r="DA11" s="48"/>
+      <c r="DB11" s="50"/>
+      <c r="DC11" s="48"/>
+      <c r="DD11" s="48"/>
+      <c r="DE11" s="42">
         <v>6</v>
       </c>
-      <c r="DF11" s="52"/>
-      <c r="DG11" s="52"/>
-      <c r="DH11" s="52"/>
-      <c r="DI11" s="52"/>
-      <c r="DJ11" s="52"/>
-      <c r="DK11" s="52"/>
-      <c r="DL11" s="52"/>
-      <c r="DM11" s="53"/>
-      <c r="DN11" s="53"/>
-      <c r="DO11" s="47"/>
-      <c r="DP11" s="47"/>
-      <c r="DQ11" s="48"/>
+      <c r="DF11" s="48"/>
+      <c r="DG11" s="48"/>
+      <c r="DH11" s="48"/>
+      <c r="DI11" s="48"/>
+      <c r="DJ11" s="48"/>
+      <c r="DK11" s="48"/>
+      <c r="DL11" s="48"/>
+      <c r="DM11" s="49"/>
+      <c r="DN11" s="49"/>
+      <c r="DO11" s="43"/>
+      <c r="DP11" s="43"/>
+      <c r="DQ11" s="44"/>
     </row>
     <row r="12" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44"/>
       <c r="Z12" s="16">
         <v>10</v>
       </c>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="44"/>
       <c r="AY12" s="16">
         <v>10</v>
       </c>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="53"/>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
-      <c r="BS12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="48"/>
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="43"/>
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="44"/>
       <c r="BX12" s="16">
         <v>10</v>
       </c>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="52"/>
-      <c r="CG12" s="52"/>
-      <c r="CH12" s="52"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="52"/>
-      <c r="CK12" s="52"/>
-      <c r="CL12" s="52"/>
-      <c r="CM12" s="52"/>
-      <c r="CN12" s="53"/>
-      <c r="CO12" s="53"/>
-      <c r="CP12" s="47"/>
-      <c r="CQ12" s="47"/>
-      <c r="CR12" s="48"/>
+      <c r="BY12" s="48"/>
+      <c r="BZ12" s="48"/>
+      <c r="CA12" s="48"/>
+      <c r="CB12" s="48"/>
+      <c r="CC12" s="48"/>
+      <c r="CD12" s="48"/>
+      <c r="CE12" s="48"/>
+      <c r="CF12" s="48"/>
+      <c r="CG12" s="48"/>
+      <c r="CH12" s="48"/>
+      <c r="CI12" s="48"/>
+      <c r="CJ12" s="48"/>
+      <c r="CK12" s="48"/>
+      <c r="CL12" s="48"/>
+      <c r="CM12" s="48"/>
+      <c r="CN12" s="49"/>
+      <c r="CO12" s="49"/>
+      <c r="CP12" s="43"/>
+      <c r="CQ12" s="43"/>
+      <c r="CR12" s="44"/>
       <c r="CW12" s="16">
         <v>10</v>
       </c>
-      <c r="CX12" s="52"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="52"/>
-      <c r="DA12" s="52"/>
-      <c r="DB12" s="52"/>
-      <c r="DC12" s="52"/>
-      <c r="DD12" s="52"/>
-      <c r="DE12" s="52"/>
-      <c r="DF12" s="52"/>
-      <c r="DG12" s="52"/>
-      <c r="DH12" s="52"/>
-      <c r="DI12" s="52"/>
-      <c r="DJ12" s="52"/>
-      <c r="DK12" s="52"/>
-      <c r="DL12" s="52"/>
-      <c r="DM12" s="53"/>
-      <c r="DN12" s="53"/>
-      <c r="DO12" s="47"/>
-      <c r="DP12" s="47"/>
-      <c r="DQ12" s="48"/>
+      <c r="CX12" s="48"/>
+      <c r="CY12" s="48"/>
+      <c r="CZ12" s="48"/>
+      <c r="DA12" s="48"/>
+      <c r="DB12" s="48"/>
+      <c r="DC12" s="48"/>
+      <c r="DD12" s="48"/>
+      <c r="DE12" s="48"/>
+      <c r="DF12" s="48"/>
+      <c r="DG12" s="48"/>
+      <c r="DH12" s="48"/>
+      <c r="DI12" s="48"/>
+      <c r="DJ12" s="48"/>
+      <c r="DK12" s="48"/>
+      <c r="DL12" s="48"/>
+      <c r="DM12" s="49"/>
+      <c r="DN12" s="49"/>
+      <c r="DO12" s="43"/>
+      <c r="DP12" s="43"/>
+      <c r="DQ12" s="44"/>
     </row>
     <row r="13" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="46">
+      <c r="C13" s="48"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="42">
         <v>15</v>
       </c>
-      <c r="V13" s="48"/>
+      <c r="V13" s="44"/>
       <c r="Z13" s="16">
         <v>9</v>
       </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="46">
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="42">
         <v>15</v>
       </c>
-      <c r="AT13" s="48"/>
+      <c r="AT13" s="44"/>
       <c r="AY13" s="16">
         <v>9</v>
       </c>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
-      <c r="BM13" s="52"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="53"/>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="46">
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="48"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="42">
         <v>15</v>
       </c>
-      <c r="BS13" s="48"/>
+      <c r="BS13" s="44"/>
       <c r="BX13" s="16">
         <v>9</v>
       </c>
-      <c r="BY13" s="52"/>
-      <c r="BZ13" s="54"/>
-      <c r="CA13" s="52"/>
-      <c r="CB13" s="52"/>
-      <c r="CC13" s="52"/>
-      <c r="CD13" s="52"/>
-      <c r="CE13" s="52"/>
-      <c r="CF13" s="52"/>
-      <c r="CG13" s="52"/>
-      <c r="CH13" s="52"/>
-      <c r="CI13" s="52"/>
-      <c r="CJ13" s="52"/>
-      <c r="CK13" s="52"/>
-      <c r="CL13" s="52"/>
-      <c r="CM13" s="52"/>
-      <c r="CN13" s="53"/>
-      <c r="CO13" s="53"/>
-      <c r="CP13" s="47"/>
-      <c r="CQ13" s="46">
+      <c r="BY13" s="48"/>
+      <c r="BZ13" s="50"/>
+      <c r="CA13" s="48"/>
+      <c r="CB13" s="48"/>
+      <c r="CC13" s="48"/>
+      <c r="CD13" s="48"/>
+      <c r="CE13" s="48"/>
+      <c r="CF13" s="48"/>
+      <c r="CG13" s="48"/>
+      <c r="CH13" s="48"/>
+      <c r="CI13" s="48"/>
+      <c r="CJ13" s="48"/>
+      <c r="CK13" s="48"/>
+      <c r="CL13" s="48"/>
+      <c r="CM13" s="48"/>
+      <c r="CN13" s="49"/>
+      <c r="CO13" s="49"/>
+      <c r="CP13" s="43"/>
+      <c r="CQ13" s="42">
         <v>15</v>
       </c>
-      <c r="CR13" s="48"/>
+      <c r="CR13" s="44"/>
       <c r="CW13" s="16">
         <v>9</v>
       </c>
-      <c r="CX13" s="52"/>
-      <c r="CY13" s="54"/>
-      <c r="CZ13" s="52"/>
-      <c r="DA13" s="52"/>
-      <c r="DB13" s="52"/>
-      <c r="DC13" s="52"/>
-      <c r="DD13" s="52"/>
-      <c r="DE13" s="52"/>
-      <c r="DF13" s="52"/>
-      <c r="DG13" s="52"/>
-      <c r="DH13" s="52"/>
-      <c r="DI13" s="52"/>
-      <c r="DJ13" s="52"/>
-      <c r="DK13" s="52"/>
-      <c r="DL13" s="52"/>
-      <c r="DM13" s="53"/>
-      <c r="DN13" s="53"/>
-      <c r="DO13" s="47"/>
-      <c r="DP13" s="46">
+      <c r="CX13" s="48"/>
+      <c r="CY13" s="50"/>
+      <c r="CZ13" s="48"/>
+      <c r="DA13" s="48"/>
+      <c r="DB13" s="48"/>
+      <c r="DC13" s="48"/>
+      <c r="DD13" s="48"/>
+      <c r="DE13" s="48"/>
+      <c r="DF13" s="48"/>
+      <c r="DG13" s="48"/>
+      <c r="DH13" s="48"/>
+      <c r="DI13" s="48"/>
+      <c r="DJ13" s="48"/>
+      <c r="DK13" s="48"/>
+      <c r="DL13" s="48"/>
+      <c r="DM13" s="49"/>
+      <c r="DN13" s="49"/>
+      <c r="DO13" s="43"/>
+      <c r="DP13" s="42">
         <v>15</v>
       </c>
-      <c r="DQ13" s="48"/>
+      <c r="DQ13" s="44"/>
     </row>
     <row r="14" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="46">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="42">
         <v>7</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44"/>
       <c r="Z14" s="16">
         <v>8</v>
       </c>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="46">
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="42">
         <v>7</v>
       </c>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="44"/>
       <c r="AY14" s="16">
         <v>8</v>
       </c>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="52"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="46">
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="42">
         <v>7</v>
       </c>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="53"/>
-      <c r="BQ14" s="47"/>
-      <c r="BR14" s="47"/>
-      <c r="BS14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="49"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="43"/>
+      <c r="BS14" s="44"/>
       <c r="BX14" s="16">
         <v>8</v>
       </c>
-      <c r="BY14" s="52"/>
-      <c r="BZ14" s="52"/>
-      <c r="CA14" s="52"/>
-      <c r="CB14" s="52"/>
-      <c r="CC14" s="52"/>
-      <c r="CD14" s="55"/>
-      <c r="CE14" s="54"/>
-      <c r="CF14" s="52"/>
-      <c r="CG14" s="52"/>
-      <c r="CH14" s="52"/>
-      <c r="CI14" s="46">
+      <c r="BY14" s="48"/>
+      <c r="BZ14" s="48"/>
+      <c r="CA14" s="48"/>
+      <c r="CB14" s="48"/>
+      <c r="CC14" s="48"/>
+      <c r="CD14" s="51"/>
+      <c r="CE14" s="50"/>
+      <c r="CF14" s="48"/>
+      <c r="CG14" s="48"/>
+      <c r="CH14" s="48"/>
+      <c r="CI14" s="42">
         <v>7</v>
       </c>
-      <c r="CJ14" s="52"/>
-      <c r="CK14" s="52"/>
-      <c r="CL14" s="52"/>
-      <c r="CM14" s="52"/>
-      <c r="CN14" s="53"/>
-      <c r="CO14" s="53"/>
-      <c r="CP14" s="47"/>
-      <c r="CQ14" s="47"/>
-      <c r="CR14" s="48"/>
+      <c r="CJ14" s="48"/>
+      <c r="CK14" s="48"/>
+      <c r="CL14" s="48"/>
+      <c r="CM14" s="48"/>
+      <c r="CN14" s="49"/>
+      <c r="CO14" s="49"/>
+      <c r="CP14" s="43"/>
+      <c r="CQ14" s="43"/>
+      <c r="CR14" s="44"/>
       <c r="CW14" s="16">
         <v>8</v>
       </c>
-      <c r="CX14" s="52"/>
-      <c r="CY14" s="52"/>
-      <c r="CZ14" s="52"/>
-      <c r="DA14" s="52"/>
-      <c r="DB14" s="52"/>
-      <c r="DC14" s="55"/>
-      <c r="DD14" s="54"/>
-      <c r="DE14" s="52"/>
-      <c r="DF14" s="52"/>
-      <c r="DG14" s="52"/>
-      <c r="DH14" s="46">
+      <c r="CX14" s="48"/>
+      <c r="CY14" s="48"/>
+      <c r="CZ14" s="48"/>
+      <c r="DA14" s="48"/>
+      <c r="DB14" s="48"/>
+      <c r="DC14" s="51"/>
+      <c r="DD14" s="50"/>
+      <c r="DE14" s="48"/>
+      <c r="DF14" s="48"/>
+      <c r="DG14" s="48"/>
+      <c r="DH14" s="42">
         <v>7</v>
       </c>
-      <c r="DI14" s="52"/>
-      <c r="DJ14" s="52"/>
-      <c r="DK14" s="52"/>
-      <c r="DL14" s="52"/>
-      <c r="DM14" s="53"/>
-      <c r="DN14" s="53"/>
-      <c r="DO14" s="47"/>
-      <c r="DP14" s="47"/>
-      <c r="DQ14" s="48"/>
+      <c r="DI14" s="48"/>
+      <c r="DJ14" s="48"/>
+      <c r="DK14" s="48"/>
+      <c r="DL14" s="48"/>
+      <c r="DM14" s="49"/>
+      <c r="DN14" s="49"/>
+      <c r="DO14" s="43"/>
+      <c r="DP14" s="43"/>
+      <c r="DQ14" s="44"/>
     </row>
     <row r="15" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="46">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="42">
         <v>8</v>
       </c>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44"/>
       <c r="Z15" s="16">
         <v>7</v>
       </c>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="46">
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="42">
         <v>8</v>
       </c>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="44"/>
       <c r="AY15" s="16">
         <v>7</v>
       </c>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="46">
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="42">
         <v>8</v>
       </c>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="53"/>
-      <c r="BP15" s="53"/>
-      <c r="BQ15" s="47"/>
-      <c r="BR15" s="47"/>
-      <c r="BS15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="43"/>
+      <c r="BR15" s="43"/>
+      <c r="BS15" s="44"/>
       <c r="BX15" s="16">
         <v>7</v>
       </c>
-      <c r="BY15" s="52"/>
-      <c r="BZ15" s="52"/>
-      <c r="CA15" s="52"/>
-      <c r="CB15" s="52"/>
-      <c r="CC15" s="52"/>
-      <c r="CD15" s="52"/>
-      <c r="CE15" s="52"/>
-      <c r="CF15" s="52"/>
-      <c r="CG15" s="52"/>
-      <c r="CH15" s="52"/>
-      <c r="CI15" s="52"/>
-      <c r="CJ15" s="46">
+      <c r="BY15" s="48"/>
+      <c r="BZ15" s="48"/>
+      <c r="CA15" s="48"/>
+      <c r="CB15" s="48"/>
+      <c r="CC15" s="48"/>
+      <c r="CD15" s="48"/>
+      <c r="CE15" s="48"/>
+      <c r="CF15" s="48"/>
+      <c r="CG15" s="48"/>
+      <c r="CH15" s="48"/>
+      <c r="CI15" s="48"/>
+      <c r="CJ15" s="42">
         <v>8</v>
       </c>
-      <c r="CK15" s="52"/>
-      <c r="CL15" s="52"/>
-      <c r="CM15" s="52"/>
-      <c r="CN15" s="53"/>
-      <c r="CO15" s="53"/>
-      <c r="CP15" s="47"/>
-      <c r="CQ15" s="47"/>
-      <c r="CR15" s="48"/>
+      <c r="CK15" s="48"/>
+      <c r="CL15" s="48"/>
+      <c r="CM15" s="48"/>
+      <c r="CN15" s="49"/>
+      <c r="CO15" s="49"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="44"/>
       <c r="CW15" s="16">
         <v>7</v>
       </c>
-      <c r="CX15" s="52"/>
-      <c r="CY15" s="52"/>
-      <c r="CZ15" s="52"/>
-      <c r="DA15" s="52"/>
-      <c r="DB15" s="52"/>
-      <c r="DC15" s="52"/>
-      <c r="DD15" s="52"/>
-      <c r="DE15" s="52"/>
-      <c r="DF15" s="52"/>
-      <c r="DG15" s="52"/>
-      <c r="DH15" s="52"/>
-      <c r="DI15" s="46">
+      <c r="CX15" s="48"/>
+      <c r="CY15" s="48"/>
+      <c r="CZ15" s="48"/>
+      <c r="DA15" s="48"/>
+      <c r="DB15" s="48"/>
+      <c r="DC15" s="48"/>
+      <c r="DD15" s="48"/>
+      <c r="DE15" s="48"/>
+      <c r="DF15" s="48"/>
+      <c r="DG15" s="48"/>
+      <c r="DH15" s="48"/>
+      <c r="DI15" s="42">
         <v>8</v>
       </c>
-      <c r="DJ15" s="52"/>
-      <c r="DK15" s="52"/>
-      <c r="DL15" s="52"/>
-      <c r="DM15" s="53"/>
-      <c r="DN15" s="53"/>
-      <c r="DO15" s="47"/>
-      <c r="DP15" s="47"/>
-      <c r="DQ15" s="48"/>
+      <c r="DJ15" s="48"/>
+      <c r="DK15" s="48"/>
+      <c r="DL15" s="48"/>
+      <c r="DM15" s="49"/>
+      <c r="DN15" s="49"/>
+      <c r="DO15" s="43"/>
+      <c r="DP15" s="43"/>
+      <c r="DQ15" s="44"/>
     </row>
     <row r="16" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="46">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="42">
         <v>12</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="44"/>
       <c r="Z16" s="16">
         <v>6</v>
       </c>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="46">
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="42">
         <v>12</v>
       </c>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="48"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="44"/>
       <c r="AY16" s="16">
         <v>6</v>
       </c>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="46">
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="48"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="48"/>
+      <c r="BO16" s="42">
         <v>12</v>
       </c>
-      <c r="BP16" s="53"/>
-      <c r="BQ16" s="47"/>
-      <c r="BR16" s="47"/>
-      <c r="BS16" s="48"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="43"/>
+      <c r="BR16" s="43"/>
+      <c r="BS16" s="44"/>
       <c r="BX16" s="16">
         <v>6</v>
       </c>
-      <c r="BY16" s="52"/>
-      <c r="BZ16" s="52"/>
-      <c r="CA16" s="52"/>
-      <c r="CB16" s="54"/>
-      <c r="CC16" s="52"/>
-      <c r="CD16" s="52"/>
-      <c r="CE16" s="52"/>
-      <c r="CF16" s="52"/>
-      <c r="CG16" s="52"/>
-      <c r="CH16" s="52"/>
-      <c r="CI16" s="52"/>
-      <c r="CJ16" s="52"/>
-      <c r="CK16" s="52"/>
-      <c r="CL16" s="52"/>
-      <c r="CM16" s="52"/>
-      <c r="CN16" s="46">
+      <c r="BY16" s="48"/>
+      <c r="BZ16" s="48"/>
+      <c r="CA16" s="48"/>
+      <c r="CB16" s="50"/>
+      <c r="CC16" s="48"/>
+      <c r="CD16" s="48"/>
+      <c r="CE16" s="48"/>
+      <c r="CF16" s="48"/>
+      <c r="CG16" s="48"/>
+      <c r="CH16" s="48"/>
+      <c r="CI16" s="48"/>
+      <c r="CJ16" s="48"/>
+      <c r="CK16" s="48"/>
+      <c r="CL16" s="48"/>
+      <c r="CM16" s="48"/>
+      <c r="CN16" s="42">
         <v>12</v>
       </c>
-      <c r="CO16" s="53"/>
-      <c r="CP16" s="47"/>
-      <c r="CQ16" s="47"/>
-      <c r="CR16" s="48"/>
+      <c r="CO16" s="49"/>
+      <c r="CP16" s="43"/>
+      <c r="CQ16" s="43"/>
+      <c r="CR16" s="44"/>
       <c r="CW16" s="16">
         <v>6</v>
       </c>
-      <c r="CX16" s="52"/>
-      <c r="CY16" s="52"/>
-      <c r="CZ16" s="52"/>
-      <c r="DA16" s="54"/>
-      <c r="DB16" s="52"/>
-      <c r="DC16" s="52"/>
-      <c r="DD16" s="52"/>
-      <c r="DE16" s="52"/>
-      <c r="DF16" s="52"/>
-      <c r="DG16" s="52"/>
-      <c r="DH16" s="52"/>
-      <c r="DI16" s="52"/>
-      <c r="DJ16" s="52"/>
-      <c r="DK16" s="52"/>
-      <c r="DL16" s="52"/>
-      <c r="DM16" s="46">
+      <c r="CX16" s="48"/>
+      <c r="CY16" s="48"/>
+      <c r="CZ16" s="48"/>
+      <c r="DA16" s="50"/>
+      <c r="DB16" s="48"/>
+      <c r="DC16" s="48"/>
+      <c r="DD16" s="48"/>
+      <c r="DE16" s="48"/>
+      <c r="DF16" s="48"/>
+      <c r="DG16" s="48"/>
+      <c r="DH16" s="48"/>
+      <c r="DI16" s="48"/>
+      <c r="DJ16" s="48"/>
+      <c r="DK16" s="48"/>
+      <c r="DL16" s="48"/>
+      <c r="DM16" s="42">
         <v>12</v>
       </c>
-      <c r="DN16" s="53"/>
-      <c r="DO16" s="47"/>
-      <c r="DP16" s="47"/>
-      <c r="DQ16" s="48"/>
+      <c r="DN16" s="49"/>
+      <c r="DO16" s="43"/>
+      <c r="DP16" s="43"/>
+      <c r="DQ16" s="44"/>
     </row>
     <row r="17" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="46">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="42">
         <v>11</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="48"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="44"/>
       <c r="Z17" s="16">
         <v>5</v>
       </c>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="46">
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="42">
         <v>11</v>
       </c>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="48"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="44"/>
       <c r="AY17" s="16">
         <v>5</v>
       </c>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="46">
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="48"/>
+      <c r="BB17" s="48"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="48"/>
+      <c r="BI17" s="48"/>
+      <c r="BJ17" s="48"/>
+      <c r="BK17" s="48"/>
+      <c r="BL17" s="48"/>
+      <c r="BM17" s="48"/>
+      <c r="BN17" s="42">
         <v>11</v>
       </c>
-      <c r="BO17" s="47"/>
-      <c r="BP17" s="47"/>
-      <c r="BQ17" s="47"/>
-      <c r="BR17" s="47"/>
-      <c r="BS17" s="48"/>
+      <c r="BO17" s="43"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="43"/>
+      <c r="BR17" s="43"/>
+      <c r="BS17" s="44"/>
       <c r="BX17" s="16">
         <v>5</v>
       </c>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="52"/>
-      <c r="CA17" s="52"/>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="52"/>
-      <c r="CE17" s="52"/>
-      <c r="CF17" s="52"/>
-      <c r="CG17" s="52"/>
-      <c r="CH17" s="52"/>
-      <c r="CI17" s="52"/>
-      <c r="CJ17" s="52"/>
-      <c r="CK17" s="52"/>
-      <c r="CL17" s="52"/>
-      <c r="CM17" s="46">
+      <c r="BY17" s="48"/>
+      <c r="BZ17" s="48"/>
+      <c r="CA17" s="48"/>
+      <c r="CB17" s="48"/>
+      <c r="CC17" s="48"/>
+      <c r="CD17" s="48"/>
+      <c r="CE17" s="48"/>
+      <c r="CF17" s="48"/>
+      <c r="CG17" s="48"/>
+      <c r="CH17" s="48"/>
+      <c r="CI17" s="48"/>
+      <c r="CJ17" s="48"/>
+      <c r="CK17" s="48"/>
+      <c r="CL17" s="48"/>
+      <c r="CM17" s="42">
         <v>11</v>
       </c>
-      <c r="CN17" s="47"/>
-      <c r="CO17" s="47"/>
-      <c r="CP17" s="47"/>
-      <c r="CQ17" s="47"/>
-      <c r="CR17" s="48"/>
+      <c r="CN17" s="43"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="44"/>
       <c r="CW17" s="16">
         <v>5</v>
       </c>
-      <c r="CX17" s="52"/>
-      <c r="CY17" s="52"/>
-      <c r="CZ17" s="52"/>
-      <c r="DA17" s="52"/>
-      <c r="DB17" s="52"/>
-      <c r="DC17" s="52"/>
-      <c r="DD17" s="52"/>
-      <c r="DE17" s="52"/>
-      <c r="DF17" s="52"/>
-      <c r="DG17" s="52"/>
-      <c r="DH17" s="52"/>
-      <c r="DI17" s="52"/>
-      <c r="DJ17" s="52"/>
-      <c r="DK17" s="52"/>
-      <c r="DL17" s="46">
+      <c r="CX17" s="48"/>
+      <c r="CY17" s="48"/>
+      <c r="CZ17" s="48"/>
+      <c r="DA17" s="48"/>
+      <c r="DB17" s="48"/>
+      <c r="DC17" s="48"/>
+      <c r="DD17" s="48"/>
+      <c r="DE17" s="48"/>
+      <c r="DF17" s="48"/>
+      <c r="DG17" s="48"/>
+      <c r="DH17" s="48"/>
+      <c r="DI17" s="48"/>
+      <c r="DJ17" s="48"/>
+      <c r="DK17" s="48"/>
+      <c r="DL17" s="42">
         <v>11</v>
       </c>
-      <c r="DM17" s="47"/>
-      <c r="DN17" s="47"/>
-      <c r="DO17" s="47"/>
-      <c r="DP17" s="47"/>
-      <c r="DQ17" s="48"/>
+      <c r="DM17" s="43"/>
+      <c r="DN17" s="43"/>
+      <c r="DO17" s="43"/>
+      <c r="DP17" s="43"/>
+      <c r="DQ17" s="44"/>
     </row>
     <row r="18" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="46">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="42">
         <v>14</v>
       </c>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44"/>
       <c r="Z18" s="16">
         <v>4</v>
       </c>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="46">
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="42">
         <v>14</v>
       </c>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="48"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="44"/>
       <c r="AY18" s="16">
         <v>4</v>
       </c>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="47"/>
-      <c r="BP18" s="47"/>
-      <c r="BQ18" s="46">
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
+      <c r="BO18" s="43"/>
+      <c r="BP18" s="43"/>
+      <c r="BQ18" s="42">
         <v>14</v>
       </c>
-      <c r="BR18" s="47"/>
-      <c r="BS18" s="48"/>
+      <c r="BR18" s="43"/>
+      <c r="BS18" s="44"/>
       <c r="BX18" s="16">
         <v>4</v>
       </c>
-      <c r="BY18" s="56"/>
-      <c r="BZ18" s="56"/>
-      <c r="CA18" s="56"/>
-      <c r="CB18" s="56"/>
-      <c r="CC18" s="56"/>
-      <c r="CD18" s="56"/>
-      <c r="CE18" s="56"/>
-      <c r="CF18" s="56"/>
-      <c r="CG18" s="56"/>
-      <c r="CH18" s="56"/>
-      <c r="CI18" s="56"/>
-      <c r="CJ18" s="56"/>
-      <c r="CK18" s="56"/>
-      <c r="CL18" s="56"/>
-      <c r="CM18" s="56"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="46">
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="52"/>
+      <c r="CA18" s="52"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="52"/>
+      <c r="CG18" s="52"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="52"/>
+      <c r="CK18" s="52"/>
+      <c r="CL18" s="52"/>
+      <c r="CM18" s="52"/>
+      <c r="CN18" s="43"/>
+      <c r="CO18" s="43"/>
+      <c r="CP18" s="42">
         <v>14</v>
       </c>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="48"/>
+      <c r="CQ18" s="43"/>
+      <c r="CR18" s="44"/>
       <c r="CW18" s="16">
         <v>4</v>
       </c>
-      <c r="CX18" s="48"/>
-      <c r="CY18" s="48"/>
-      <c r="CZ18" s="48"/>
-      <c r="DA18" s="48"/>
-      <c r="DB18" s="48"/>
-      <c r="DC18" s="48"/>
-      <c r="DD18" s="48"/>
-      <c r="DE18" s="48"/>
-      <c r="DF18" s="48"/>
-      <c r="DG18" s="48"/>
-      <c r="DH18" s="48"/>
-      <c r="DI18" s="48"/>
-      <c r="DJ18" s="48"/>
-      <c r="DK18" s="48"/>
-      <c r="DL18" s="48"/>
-      <c r="DM18" s="47"/>
-      <c r="DN18" s="47"/>
-      <c r="DO18" s="46">
+      <c r="CX18" s="44"/>
+      <c r="CY18" s="44"/>
+      <c r="CZ18" s="44"/>
+      <c r="DA18" s="44"/>
+      <c r="DB18" s="44"/>
+      <c r="DC18" s="44"/>
+      <c r="DD18" s="44"/>
+      <c r="DE18" s="44"/>
+      <c r="DF18" s="44"/>
+      <c r="DG18" s="44"/>
+      <c r="DH18" s="44"/>
+      <c r="DI18" s="44"/>
+      <c r="DJ18" s="44"/>
+      <c r="DK18" s="44"/>
+      <c r="DL18" s="44"/>
+      <c r="DM18" s="43"/>
+      <c r="DN18" s="43"/>
+      <c r="DO18" s="42">
         <v>14</v>
       </c>
-      <c r="DP18" s="47"/>
-      <c r="DQ18" s="48"/>
+      <c r="DP18" s="43"/>
+      <c r="DQ18" s="44"/>
     </row>
     <row r="19" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="44"/>
       <c r="Z19" s="16">
         <v>3</v>
       </c>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="48"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="44"/>
       <c r="AY19" s="16">
         <v>3</v>
       </c>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="47"/>
-      <c r="BP19" s="47"/>
-      <c r="BQ19" s="47"/>
-      <c r="BR19" s="47"/>
-      <c r="BS19" s="48"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+      <c r="BO19" s="43"/>
+      <c r="BP19" s="43"/>
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="43"/>
+      <c r="BS19" s="44"/>
       <c r="BX19" s="16">
         <v>3</v>
       </c>
-      <c r="BY19" s="48"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="48"/>
-      <c r="CC19" s="48"/>
-      <c r="CD19" s="48"/>
-      <c r="CE19" s="48"/>
-      <c r="CF19" s="48"/>
-      <c r="CG19" s="48"/>
-      <c r="CH19" s="48"/>
-      <c r="CI19" s="48"/>
-      <c r="CJ19" s="48"/>
-      <c r="CK19" s="48"/>
-      <c r="CL19" s="48"/>
-      <c r="CM19" s="48"/>
-      <c r="CN19" s="47"/>
-      <c r="CO19" s="47"/>
-      <c r="CP19" s="47"/>
-      <c r="CQ19" s="47"/>
-      <c r="CR19" s="48"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="44"/>
+      <c r="CM19" s="44"/>
+      <c r="CN19" s="43"/>
+      <c r="CO19" s="43"/>
+      <c r="CP19" s="43"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="44"/>
       <c r="CW19" s="16">
         <v>3</v>
       </c>
-      <c r="CX19" s="48"/>
-      <c r="CY19" s="48"/>
-      <c r="CZ19" s="48"/>
-      <c r="DA19" s="48"/>
-      <c r="DB19" s="48"/>
-      <c r="DC19" s="48"/>
-      <c r="DD19" s="48"/>
-      <c r="DE19" s="48"/>
-      <c r="DF19" s="48"/>
-      <c r="DG19" s="48"/>
-      <c r="DH19" s="48"/>
-      <c r="DI19" s="48"/>
-      <c r="DJ19" s="48"/>
-      <c r="DK19" s="48"/>
-      <c r="DL19" s="48"/>
-      <c r="DM19" s="47"/>
-      <c r="DN19" s="47"/>
-      <c r="DO19" s="47"/>
-      <c r="DP19" s="47"/>
-      <c r="DQ19" s="48"/>
+      <c r="CX19" s="44"/>
+      <c r="CY19" s="44"/>
+      <c r="CZ19" s="44"/>
+      <c r="DA19" s="44"/>
+      <c r="DB19" s="44"/>
+      <c r="DC19" s="44"/>
+      <c r="DD19" s="44"/>
+      <c r="DE19" s="44"/>
+      <c r="DF19" s="44"/>
+      <c r="DG19" s="44"/>
+      <c r="DH19" s="44"/>
+      <c r="DI19" s="44"/>
+      <c r="DJ19" s="44"/>
+      <c r="DK19" s="44"/>
+      <c r="DL19" s="44"/>
+      <c r="DM19" s="43"/>
+      <c r="DN19" s="43"/>
+      <c r="DO19" s="43"/>
+      <c r="DP19" s="43"/>
+      <c r="DQ19" s="44"/>
     </row>
     <row r="20" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="46">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="42">
         <v>10</v>
       </c>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="44"/>
       <c r="Z20" s="16">
         <v>2</v>
       </c>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="46">
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="42">
         <v>10</v>
       </c>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="48"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="44"/>
       <c r="AY20" s="16">
         <v>2</v>
       </c>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
-      <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="48"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-      <c r="BM20" s="46">
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="44"/>
+      <c r="BH20" s="44"/>
+      <c r="BI20" s="44"/>
+      <c r="BJ20" s="44"/>
+      <c r="BK20" s="44"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="42">
         <v>10</v>
       </c>
-      <c r="BN20" s="48"/>
-      <c r="BO20" s="47"/>
-      <c r="BP20" s="47"/>
-      <c r="BQ20" s="47"/>
-      <c r="BR20" s="47"/>
-      <c r="BS20" s="48"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="43"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="43"/>
+      <c r="BR20" s="43"/>
+      <c r="BS20" s="44"/>
       <c r="BX20" s="16">
         <v>2</v>
       </c>
-      <c r="BY20" s="48"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="48"/>
-      <c r="CC20" s="48"/>
-      <c r="CD20" s="48"/>
-      <c r="CE20" s="48"/>
-      <c r="CF20" s="48"/>
-      <c r="CG20" s="48"/>
-      <c r="CH20" s="48"/>
-      <c r="CI20" s="48"/>
-      <c r="CJ20" s="48"/>
-      <c r="CK20" s="48"/>
-      <c r="CL20" s="46">
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
+      <c r="CG20" s="44"/>
+      <c r="CH20" s="44"/>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="44"/>
+      <c r="CK20" s="44"/>
+      <c r="CL20" s="42">
         <v>10</v>
       </c>
-      <c r="CM20" s="48"/>
-      <c r="CN20" s="47"/>
-      <c r="CO20" s="47"/>
-      <c r="CP20" s="47"/>
-      <c r="CQ20" s="47"/>
-      <c r="CR20" s="48"/>
+      <c r="CM20" s="44"/>
+      <c r="CN20" s="43"/>
+      <c r="CO20" s="43"/>
+      <c r="CP20" s="43"/>
+      <c r="CQ20" s="43"/>
+      <c r="CR20" s="44"/>
       <c r="CW20" s="16">
         <v>2</v>
       </c>
-      <c r="CX20" s="48"/>
-      <c r="CY20" s="48"/>
-      <c r="CZ20" s="48"/>
-      <c r="DA20" s="48"/>
-      <c r="DB20" s="48"/>
-      <c r="DC20" s="48"/>
-      <c r="DD20" s="48"/>
-      <c r="DE20" s="48"/>
-      <c r="DF20" s="48"/>
-      <c r="DG20" s="48"/>
-      <c r="DH20" s="48"/>
-      <c r="DI20" s="48"/>
-      <c r="DJ20" s="48"/>
-      <c r="DK20" s="46">
+      <c r="CX20" s="44"/>
+      <c r="CY20" s="44"/>
+      <c r="CZ20" s="44"/>
+      <c r="DA20" s="44"/>
+      <c r="DB20" s="44"/>
+      <c r="DC20" s="44"/>
+      <c r="DD20" s="44"/>
+      <c r="DE20" s="44"/>
+      <c r="DF20" s="44"/>
+      <c r="DG20" s="44"/>
+      <c r="DH20" s="44"/>
+      <c r="DI20" s="44"/>
+      <c r="DJ20" s="44"/>
+      <c r="DK20" s="42">
         <v>10</v>
       </c>
-      <c r="DL20" s="48"/>
-      <c r="DM20" s="47"/>
-      <c r="DN20" s="47"/>
-      <c r="DO20" s="47"/>
-      <c r="DP20" s="47"/>
-      <c r="DQ20" s="48"/>
+      <c r="DL20" s="44"/>
+      <c r="DM20" s="43"/>
+      <c r="DN20" s="43"/>
+      <c r="DO20" s="43"/>
+      <c r="DP20" s="43"/>
+      <c r="DQ20" s="44"/>
     </row>
     <row r="21" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16">
         <v>1</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="46">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="42">
         <v>2</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="44"/>
       <c r="Z21" s="16">
         <v>1</v>
       </c>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="46">
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="42">
         <v>2</v>
       </c>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="48"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="44"/>
       <c r="AY21" s="16">
         <v>1</v>
       </c>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="46">
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="42">
         <v>2</v>
       </c>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="48"/>
-      <c r="BE21" s="48"/>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="48"/>
-      <c r="BJ21" s="48"/>
-      <c r="BK21" s="48"/>
-      <c r="BL21" s="48"/>
-      <c r="BM21" s="48"/>
-      <c r="BN21" s="48"/>
-      <c r="BO21" s="47"/>
-      <c r="BP21" s="47"/>
-      <c r="BQ21" s="47"/>
-      <c r="BR21" s="47"/>
-      <c r="BS21" s="48"/>
+      <c r="BC21" s="44"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="44"/>
+      <c r="BF21" s="44"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="44"/>
+      <c r="BI21" s="44"/>
+      <c r="BJ21" s="44"/>
+      <c r="BK21" s="44"/>
+      <c r="BL21" s="44"/>
+      <c r="BM21" s="44"/>
+      <c r="BN21" s="44"/>
+      <c r="BO21" s="43"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="43"/>
+      <c r="BR21" s="43"/>
+      <c r="BS21" s="44"/>
       <c r="BX21" s="16">
         <v>1</v>
       </c>
-      <c r="BY21" s="48"/>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="46">
+      <c r="BY21" s="44"/>
+      <c r="BZ21" s="44"/>
+      <c r="CA21" s="42">
         <v>2</v>
       </c>
-      <c r="CB21" s="48"/>
-      <c r="CC21" s="48"/>
-      <c r="CD21" s="48"/>
-      <c r="CE21" s="48"/>
-      <c r="CF21" s="48"/>
-      <c r="CG21" s="48"/>
-      <c r="CH21" s="48"/>
-      <c r="CI21" s="48"/>
-      <c r="CJ21" s="48"/>
-      <c r="CK21" s="48"/>
-      <c r="CL21" s="48"/>
-      <c r="CM21" s="48"/>
-      <c r="CN21" s="47"/>
-      <c r="CO21" s="47"/>
-      <c r="CP21" s="47"/>
-      <c r="CQ21" s="47"/>
-      <c r="CR21" s="48"/>
+      <c r="CB21" s="44"/>
+      <c r="CC21" s="44"/>
+      <c r="CD21" s="44"/>
+      <c r="CE21" s="44"/>
+      <c r="CF21" s="44"/>
+      <c r="CG21" s="44"/>
+      <c r="CH21" s="44"/>
+      <c r="CI21" s="44"/>
+      <c r="CJ21" s="44"/>
+      <c r="CK21" s="44"/>
+      <c r="CL21" s="44"/>
+      <c r="CM21" s="44"/>
+      <c r="CN21" s="43"/>
+      <c r="CO21" s="43"/>
+      <c r="CP21" s="43"/>
+      <c r="CQ21" s="43"/>
+      <c r="CR21" s="44"/>
       <c r="CW21" s="16">
         <v>1</v>
       </c>
-      <c r="CX21" s="48"/>
-      <c r="CY21" s="48"/>
-      <c r="CZ21" s="46">
+      <c r="CX21" s="44"/>
+      <c r="CY21" s="44"/>
+      <c r="CZ21" s="42">
         <v>2</v>
       </c>
-      <c r="DA21" s="48"/>
-      <c r="DB21" s="48"/>
-      <c r="DC21" s="48"/>
-      <c r="DD21" s="48"/>
-      <c r="DE21" s="48"/>
-      <c r="DF21" s="48"/>
-      <c r="DG21" s="48"/>
-      <c r="DH21" s="48"/>
-      <c r="DI21" s="48"/>
-      <c r="DJ21" s="48"/>
-      <c r="DK21" s="48"/>
-      <c r="DL21" s="48"/>
-      <c r="DM21" s="47"/>
-      <c r="DN21" s="47"/>
-      <c r="DO21" s="47"/>
-      <c r="DP21" s="47"/>
-      <c r="DQ21" s="48"/>
+      <c r="DA21" s="44"/>
+      <c r="DB21" s="44"/>
+      <c r="DC21" s="44"/>
+      <c r="DD21" s="44"/>
+      <c r="DE21" s="44"/>
+      <c r="DF21" s="44"/>
+      <c r="DG21" s="44"/>
+      <c r="DH21" s="44"/>
+      <c r="DI21" s="44"/>
+      <c r="DJ21" s="44"/>
+      <c r="DK21" s="44"/>
+      <c r="DL21" s="44"/>
+      <c r="DM21" s="43"/>
+      <c r="DN21" s="43"/>
+      <c r="DO21" s="43"/>
+      <c r="DP21" s="43"/>
+      <c r="DQ21" s="44"/>
     </row>
     <row r="22" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57">
         <v>9</v>
       </c>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
       <c r="Z22" s="16">
         <v>0</v>
       </c>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="61">
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="57">
         <v>9</v>
       </c>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
-      <c r="AP22" s="60"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="60"/>
-      <c r="AS22" s="60"/>
-      <c r="AT22" s="60"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
       <c r="AY22" s="16">
         <v>0</v>
       </c>
-      <c r="AZ22" s="60"/>
-      <c r="BA22" s="60"/>
-      <c r="BB22" s="60"/>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="60"/>
-      <c r="BG22" s="60"/>
-      <c r="BH22" s="60"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="60"/>
-      <c r="BK22" s="60"/>
-      <c r="BL22" s="61">
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
+      <c r="BD22" s="56"/>
+      <c r="BE22" s="56"/>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="56"/>
+      <c r="BK22" s="56"/>
+      <c r="BL22" s="57">
         <v>9</v>
       </c>
-      <c r="BM22" s="60"/>
-      <c r="BN22" s="60"/>
-      <c r="BO22" s="60"/>
-      <c r="BP22" s="60"/>
-      <c r="BQ22" s="60"/>
-      <c r="BR22" s="60"/>
-      <c r="BS22" s="60"/>
+      <c r="BM22" s="56"/>
+      <c r="BN22" s="56"/>
+      <c r="BO22" s="56"/>
+      <c r="BP22" s="56"/>
+      <c r="BQ22" s="56"/>
+      <c r="BR22" s="56"/>
+      <c r="BS22" s="56"/>
       <c r="BX22" s="16">
         <v>0</v>
       </c>
-      <c r="BY22" s="60"/>
-      <c r="BZ22" s="60"/>
-      <c r="CA22" s="60"/>
-      <c r="CB22" s="60"/>
-      <c r="CC22" s="60"/>
-      <c r="CD22" s="60"/>
-      <c r="CE22" s="60"/>
-      <c r="CF22" s="60"/>
-      <c r="CG22" s="60"/>
-      <c r="CH22" s="60"/>
-      <c r="CI22" s="60"/>
-      <c r="CJ22" s="60"/>
-      <c r="CK22" s="61">
+      <c r="BY22" s="56"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="56"/>
+      <c r="CD22" s="56"/>
+      <c r="CE22" s="56"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="56"/>
+      <c r="CH22" s="56"/>
+      <c r="CI22" s="56"/>
+      <c r="CJ22" s="56"/>
+      <c r="CK22" s="57">
         <v>9</v>
       </c>
-      <c r="CL22" s="60"/>
-      <c r="CM22" s="60"/>
-      <c r="CN22" s="60"/>
-      <c r="CO22" s="60"/>
-      <c r="CP22" s="60"/>
-      <c r="CQ22" s="60"/>
-      <c r="CR22" s="60"/>
+      <c r="CL22" s="56"/>
+      <c r="CM22" s="56"/>
+      <c r="CN22" s="56"/>
+      <c r="CO22" s="56"/>
+      <c r="CP22" s="56"/>
+      <c r="CQ22" s="56"/>
+      <c r="CR22" s="56"/>
       <c r="CW22" s="16">
         <v>0</v>
       </c>
-      <c r="CX22" s="60"/>
-      <c r="CY22" s="60"/>
-      <c r="CZ22" s="60"/>
-      <c r="DA22" s="60"/>
-      <c r="DB22" s="60"/>
-      <c r="DC22" s="60"/>
-      <c r="DD22" s="60"/>
-      <c r="DE22" s="60"/>
-      <c r="DF22" s="60"/>
-      <c r="DG22" s="60"/>
-      <c r="DH22" s="60"/>
-      <c r="DI22" s="60"/>
-      <c r="DJ22" s="61">
+      <c r="CX22" s="56"/>
+      <c r="CY22" s="56"/>
+      <c r="CZ22" s="56"/>
+      <c r="DA22" s="56"/>
+      <c r="DB22" s="56"/>
+      <c r="DC22" s="56"/>
+      <c r="DD22" s="56"/>
+      <c r="DE22" s="56"/>
+      <c r="DF22" s="56"/>
+      <c r="DG22" s="56"/>
+      <c r="DH22" s="56"/>
+      <c r="DI22" s="56"/>
+      <c r="DJ22" s="57">
         <v>9</v>
       </c>
-      <c r="DK22" s="60"/>
-      <c r="DL22" s="60"/>
-      <c r="DM22" s="60"/>
-      <c r="DN22" s="60"/>
-      <c r="DO22" s="60"/>
-      <c r="DP22" s="60"/>
-      <c r="DQ22" s="60"/>
+      <c r="DK22" s="56"/>
+      <c r="DL22" s="56"/>
+      <c r="DM22" s="56"/>
+      <c r="DN22" s="56"/>
+      <c r="DO22" s="56"/>
+      <c r="DP22" s="56"/>
+      <c r="DQ22" s="56"/>
     </row>
     <row r="23" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16">
         <v>-1</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="55">
         <v>0</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="55">
         <v>1</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="55">
         <v>2</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="55">
         <v>3</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="55">
         <v>4</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="55">
         <v>5</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="55">
         <v>6</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="55">
         <v>7</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="55">
         <v>8</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="55">
         <v>9</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="55">
         <v>10</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="55">
         <v>11</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="55">
         <v>12</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="55">
         <v>13</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="55">
         <v>14</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="55">
         <v>15</v>
       </c>
-      <c r="S23" s="59">
+      <c r="S23" s="55">
         <v>16</v>
       </c>
-      <c r="T23" s="59">
+      <c r="T23" s="55">
         <v>17</v>
       </c>
-      <c r="U23" s="59">
+      <c r="U23" s="55">
         <v>18</v>
       </c>
-      <c r="V23" s="59">
+      <c r="V23" s="55">
         <v>19</v>
       </c>
       <c r="Z23" s="16">
         <v>-1</v>
       </c>
-      <c r="AA23" s="59">
+      <c r="AA23" s="55">
         <v>0</v>
       </c>
-      <c r="AB23" s="59">
+      <c r="AB23" s="55">
         <v>1</v>
       </c>
-      <c r="AC23" s="59">
+      <c r="AC23" s="55">
         <v>2</v>
       </c>
-      <c r="AD23" s="59">
+      <c r="AD23" s="55">
         <v>3</v>
       </c>
-      <c r="AE23" s="59">
+      <c r="AE23" s="55">
         <v>4</v>
       </c>
-      <c r="AF23" s="59">
+      <c r="AF23" s="55">
         <v>5</v>
       </c>
-      <c r="AG23" s="59">
+      <c r="AG23" s="55">
         <v>6</v>
       </c>
-      <c r="AH23" s="59">
+      <c r="AH23" s="55">
         <v>7</v>
       </c>
-      <c r="AI23" s="59">
+      <c r="AI23" s="55">
         <v>8</v>
       </c>
-      <c r="AJ23" s="59">
+      <c r="AJ23" s="55">
         <v>9</v>
       </c>
-      <c r="AK23" s="59">
+      <c r="AK23" s="55">
         <v>10</v>
       </c>
-      <c r="AL23" s="59">
+      <c r="AL23" s="55">
         <v>11</v>
       </c>
-      <c r="AM23" s="59">
+      <c r="AM23" s="55">
         <v>12</v>
       </c>
-      <c r="AN23" s="59">
+      <c r="AN23" s="55">
         <v>13</v>
       </c>
-      <c r="AO23" s="59">
+      <c r="AO23" s="55">
         <v>14</v>
       </c>
-      <c r="AP23" s="59">
+      <c r="AP23" s="55">
         <v>15</v>
       </c>
-      <c r="AQ23" s="59">
+      <c r="AQ23" s="55">
         <v>16</v>
       </c>
-      <c r="AR23" s="59">
+      <c r="AR23" s="55">
         <v>17</v>
       </c>
-      <c r="AS23" s="59">
+      <c r="AS23" s="55">
         <v>18</v>
       </c>
-      <c r="AT23" s="59">
+      <c r="AT23" s="55">
         <v>19</v>
       </c>
       <c r="AY23" s="16">
         <v>-1</v>
       </c>
-      <c r="AZ23" s="59">
+      <c r="AZ23" s="55">
         <v>0</v>
       </c>
-      <c r="BA23" s="59">
+      <c r="BA23" s="55">
         <v>1</v>
       </c>
-      <c r="BB23" s="59">
+      <c r="BB23" s="55">
         <v>2</v>
       </c>
-      <c r="BC23" s="59">
+      <c r="BC23" s="55">
         <v>3</v>
       </c>
-      <c r="BD23" s="59">
+      <c r="BD23" s="55">
         <v>4</v>
       </c>
-      <c r="BE23" s="59">
+      <c r="BE23" s="55">
         <v>5</v>
       </c>
-      <c r="BF23" s="59">
+      <c r="BF23" s="55">
         <v>6</v>
       </c>
-      <c r="BG23" s="59">
+      <c r="BG23" s="55">
         <v>7</v>
       </c>
-      <c r="BH23" s="59">
+      <c r="BH23" s="55">
         <v>8</v>
       </c>
-      <c r="BI23" s="59">
+      <c r="BI23" s="55">
         <v>9</v>
       </c>
-      <c r="BJ23" s="59">
+      <c r="BJ23" s="55">
         <v>10</v>
       </c>
-      <c r="BK23" s="59">
+      <c r="BK23" s="55">
         <v>11</v>
       </c>
-      <c r="BL23" s="59">
+      <c r="BL23" s="55">
         <v>12</v>
       </c>
-      <c r="BM23" s="59">
+      <c r="BM23" s="55">
         <v>13</v>
       </c>
-      <c r="BN23" s="59">
+      <c r="BN23" s="55">
         <v>14</v>
       </c>
-      <c r="BO23" s="59">
+      <c r="BO23" s="55">
         <v>15</v>
       </c>
-      <c r="BP23" s="59">
+      <c r="BP23" s="55">
         <v>16</v>
       </c>
-      <c r="BQ23" s="59">
+      <c r="BQ23" s="55">
         <v>17</v>
       </c>
-      <c r="BR23" s="59">
+      <c r="BR23" s="55">
         <v>18</v>
       </c>
-      <c r="BS23" s="59">
+      <c r="BS23" s="55">
         <v>19</v>
       </c>
       <c r="BX23" s="16">
         <v>-1</v>
       </c>
-      <c r="BY23" s="59">
+      <c r="BY23" s="55">
         <v>0</v>
       </c>
-      <c r="BZ23" s="59">
+      <c r="BZ23" s="55">
         <v>1</v>
       </c>
-      <c r="CA23" s="59">
+      <c r="CA23" s="55">
         <v>2</v>
       </c>
-      <c r="CB23" s="59">
+      <c r="CB23" s="55">
         <v>3</v>
       </c>
-      <c r="CC23" s="59">
+      <c r="CC23" s="55">
         <v>4</v>
       </c>
-      <c r="CD23" s="59">
+      <c r="CD23" s="55">
         <v>5</v>
       </c>
-      <c r="CE23" s="59">
+      <c r="CE23" s="55">
         <v>6</v>
       </c>
-      <c r="CF23" s="59">
+      <c r="CF23" s="55">
         <v>7</v>
       </c>
-      <c r="CG23" s="59">
+      <c r="CG23" s="55">
         <v>8</v>
       </c>
-      <c r="CH23" s="59">
+      <c r="CH23" s="55">
         <v>9</v>
       </c>
-      <c r="CI23" s="59">
+      <c r="CI23" s="55">
         <v>10</v>
       </c>
-      <c r="CJ23" s="59">
+      <c r="CJ23" s="55">
         <v>11</v>
       </c>
-      <c r="CK23" s="59">
+      <c r="CK23" s="55">
         <v>12</v>
       </c>
-      <c r="CL23" s="59">
+      <c r="CL23" s="55">
         <v>13</v>
       </c>
-      <c r="CM23" s="59">
+      <c r="CM23" s="55">
         <v>14</v>
       </c>
-      <c r="CN23" s="59">
+      <c r="CN23" s="55">
         <v>15</v>
       </c>
-      <c r="CO23" s="59">
+      <c r="CO23" s="55">
         <v>16</v>
       </c>
-      <c r="CP23" s="59">
+      <c r="CP23" s="55">
         <v>17</v>
       </c>
-      <c r="CQ23" s="59">
+      <c r="CQ23" s="55">
         <v>18</v>
       </c>
-      <c r="CR23" s="59">
+      <c r="CR23" s="55">
         <v>19</v>
       </c>
       <c r="CW23" s="16">
         <v>-1</v>
       </c>
-      <c r="CX23" s="59">
+      <c r="CX23" s="55">
         <v>0</v>
       </c>
-      <c r="CY23" s="59">
+      <c r="CY23" s="55">
         <v>1</v>
       </c>
-      <c r="CZ23" s="59">
+      <c r="CZ23" s="55">
         <v>2</v>
       </c>
-      <c r="DA23" s="59">
+      <c r="DA23" s="55">
         <v>3</v>
       </c>
-      <c r="DB23" s="59">
+      <c r="DB23" s="55">
         <v>4</v>
       </c>
-      <c r="DC23" s="59">
+      <c r="DC23" s="55">
         <v>5</v>
       </c>
-      <c r="DD23" s="59">
+      <c r="DD23" s="55">
         <v>6</v>
       </c>
-      <c r="DE23" s="59">
+      <c r="DE23" s="55">
         <v>7</v>
       </c>
-      <c r="DF23" s="59">
+      <c r="DF23" s="55">
         <v>8</v>
       </c>
-      <c r="DG23" s="59">
+      <c r="DG23" s="55">
         <v>9</v>
       </c>
-      <c r="DH23" s="59">
+      <c r="DH23" s="55">
         <v>10</v>
       </c>
-      <c r="DI23" s="59">
+      <c r="DI23" s="55">
         <v>11</v>
       </c>
-      <c r="DJ23" s="59">
+      <c r="DJ23" s="55">
         <v>12</v>
       </c>
-      <c r="DK23" s="59">
+      <c r="DK23" s="55">
         <v>13</v>
       </c>
-      <c r="DL23" s="59">
+      <c r="DL23" s="55">
         <v>14</v>
       </c>
-      <c r="DM23" s="59">
+      <c r="DM23" s="55">
         <v>15</v>
       </c>
-      <c r="DN23" s="59">
+      <c r="DN23" s="55">
         <v>16</v>
       </c>
-      <c r="DO23" s="59">
+      <c r="DO23" s="55">
         <v>17</v>
       </c>
-      <c r="DP23" s="59">
+      <c r="DP23" s="55">
         <v>18</v>
       </c>
-      <c r="DQ23" s="59">
+      <c r="DQ23" s="55">
         <v>19</v>
       </c>
     </row>
@@ -19741,703 +19742,703 @@
       <c r="B24" s="40">
         <v>-2</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
       <c r="Z24" s="40">
         <v>-2</v>
       </c>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
       <c r="AY24" s="40">
         <v>-2</v>
       </c>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="49"/>
-      <c r="BJ24" s="49"/>
-      <c r="BK24" s="49"/>
-      <c r="BL24" s="49"/>
-      <c r="BM24" s="49"/>
-      <c r="BN24" s="49"/>
-      <c r="BO24" s="49"/>
-      <c r="BP24" s="49"/>
-      <c r="BQ24" s="49"/>
-      <c r="BR24" s="49"/>
-      <c r="BS24" s="49"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="45"/>
+      <c r="BL24" s="45"/>
+      <c r="BM24" s="45"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="45"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="45"/>
       <c r="BX24" s="40">
         <v>-2</v>
       </c>
-      <c r="BY24" s="49"/>
-      <c r="BZ24" s="49"/>
-      <c r="CA24" s="49"/>
-      <c r="CB24" s="49"/>
-      <c r="CC24" s="49"/>
-      <c r="CD24" s="49"/>
-      <c r="CE24" s="49"/>
-      <c r="CF24" s="49"/>
-      <c r="CG24" s="49"/>
-      <c r="CH24" s="49"/>
-      <c r="CI24" s="49"/>
-      <c r="CJ24" s="49"/>
-      <c r="CK24" s="49"/>
-      <c r="CL24" s="49"/>
-      <c r="CM24" s="49"/>
-      <c r="CN24" s="49"/>
-      <c r="CO24" s="49"/>
-      <c r="CP24" s="49"/>
-      <c r="CQ24" s="49"/>
-      <c r="CR24" s="49"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="45"/>
+      <c r="CE24" s="45"/>
+      <c r="CF24" s="45"/>
+      <c r="CG24" s="45"/>
+      <c r="CH24" s="45"/>
+      <c r="CI24" s="45"/>
+      <c r="CJ24" s="45"/>
+      <c r="CK24" s="45"/>
+      <c r="CL24" s="45"/>
+      <c r="CM24" s="45"/>
+      <c r="CN24" s="45"/>
+      <c r="CO24" s="45"/>
+      <c r="CP24" s="45"/>
+      <c r="CQ24" s="45"/>
+      <c r="CR24" s="45"/>
       <c r="CW24" s="40">
         <v>-2</v>
       </c>
-      <c r="CX24" s="49"/>
-      <c r="CY24" s="49"/>
-      <c r="CZ24" s="49"/>
-      <c r="DA24" s="49"/>
-      <c r="DB24" s="49"/>
-      <c r="DC24" s="49"/>
-      <c r="DD24" s="49"/>
-      <c r="DE24" s="49"/>
-      <c r="DF24" s="49"/>
-      <c r="DG24" s="49"/>
-      <c r="DH24" s="49"/>
-      <c r="DI24" s="49"/>
-      <c r="DJ24" s="49"/>
-      <c r="DK24" s="49"/>
-      <c r="DL24" s="49"/>
-      <c r="DM24" s="49"/>
-      <c r="DN24" s="49"/>
-      <c r="DO24" s="49"/>
-      <c r="DP24" s="49"/>
-      <c r="DQ24" s="49"/>
+      <c r="CX24" s="45"/>
+      <c r="CY24" s="45"/>
+      <c r="CZ24" s="45"/>
+      <c r="DA24" s="45"/>
+      <c r="DB24" s="45"/>
+      <c r="DC24" s="45"/>
+      <c r="DD24" s="45"/>
+      <c r="DE24" s="45"/>
+      <c r="DF24" s="45"/>
+      <c r="DG24" s="45"/>
+      <c r="DH24" s="45"/>
+      <c r="DI24" s="45"/>
+      <c r="DJ24" s="45"/>
+      <c r="DK24" s="45"/>
+      <c r="DL24" s="45"/>
+      <c r="DM24" s="45"/>
+      <c r="DN24" s="45"/>
+      <c r="DO24" s="45"/>
+      <c r="DP24" s="45"/>
+      <c r="DQ24" s="45"/>
     </row>
     <row r="25" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16">
         <v>-3</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
       <c r="Z25" s="16">
         <v>-3</v>
       </c>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
       <c r="AY25" s="16">
         <v>-3</v>
       </c>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49"/>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
-      <c r="BP25" s="49"/>
-      <c r="BQ25" s="49"/>
-      <c r="BR25" s="49"/>
-      <c r="BS25" s="49"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="45"/>
+      <c r="BL25" s="45"/>
+      <c r="BM25" s="45"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
       <c r="BX25" s="16">
         <v>-3</v>
       </c>
-      <c r="BY25" s="49"/>
-      <c r="BZ25" s="49"/>
-      <c r="CA25" s="49"/>
-      <c r="CB25" s="49"/>
-      <c r="CC25" s="49"/>
-      <c r="CD25" s="49"/>
-      <c r="CE25" s="49"/>
-      <c r="CF25" s="49"/>
-      <c r="CG25" s="49"/>
-      <c r="CH25" s="49"/>
-      <c r="CI25" s="49"/>
-      <c r="CJ25" s="49"/>
-      <c r="CK25" s="49"/>
-      <c r="CL25" s="49"/>
-      <c r="CM25" s="49"/>
-      <c r="CN25" s="49"/>
-      <c r="CO25" s="49"/>
-      <c r="CP25" s="49"/>
-      <c r="CQ25" s="49"/>
-      <c r="CR25" s="49"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="45"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="45"/>
+      <c r="CE25" s="45"/>
+      <c r="CF25" s="45"/>
+      <c r="CG25" s="45"/>
+      <c r="CH25" s="45"/>
+      <c r="CI25" s="45"/>
+      <c r="CJ25" s="45"/>
+      <c r="CK25" s="45"/>
+      <c r="CL25" s="45"/>
+      <c r="CM25" s="45"/>
+      <c r="CN25" s="45"/>
+      <c r="CO25" s="45"/>
+      <c r="CP25" s="45"/>
+      <c r="CQ25" s="45"/>
+      <c r="CR25" s="45"/>
       <c r="CW25" s="16">
         <v>-3</v>
       </c>
-      <c r="CX25" s="49"/>
-      <c r="CY25" s="49"/>
-      <c r="CZ25" s="49"/>
-      <c r="DA25" s="49"/>
-      <c r="DB25" s="49"/>
-      <c r="DC25" s="49"/>
-      <c r="DD25" s="49"/>
-      <c r="DE25" s="49"/>
-      <c r="DF25" s="49"/>
-      <c r="DG25" s="49"/>
-      <c r="DH25" s="49"/>
-      <c r="DI25" s="49"/>
-      <c r="DJ25" s="49"/>
-      <c r="DK25" s="49"/>
-      <c r="DL25" s="49"/>
-      <c r="DM25" s="49"/>
-      <c r="DN25" s="49"/>
-      <c r="DO25" s="49"/>
-      <c r="DP25" s="49"/>
-      <c r="DQ25" s="49"/>
+      <c r="CX25" s="45"/>
+      <c r="CY25" s="45"/>
+      <c r="CZ25" s="45"/>
+      <c r="DA25" s="45"/>
+      <c r="DB25" s="45"/>
+      <c r="DC25" s="45"/>
+      <c r="DD25" s="45"/>
+      <c r="DE25" s="45"/>
+      <c r="DF25" s="45"/>
+      <c r="DG25" s="45"/>
+      <c r="DH25" s="45"/>
+      <c r="DI25" s="45"/>
+      <c r="DJ25" s="45"/>
+      <c r="DK25" s="45"/>
+      <c r="DL25" s="45"/>
+      <c r="DM25" s="45"/>
+      <c r="DN25" s="45"/>
+      <c r="DO25" s="45"/>
+      <c r="DP25" s="45"/>
+      <c r="DQ25" s="45"/>
     </row>
     <row r="26" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="40">
         <v>-4</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
       <c r="Z26" s="40">
         <v>-4</v>
       </c>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
       <c r="AY26" s="40">
         <v>-4</v>
       </c>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49"/>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
-      <c r="BP26" s="49"/>
-      <c r="BQ26" s="49"/>
-      <c r="BR26" s="49"/>
-      <c r="BS26" s="49"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="45"/>
+      <c r="BL26" s="45"/>
+      <c r="BM26" s="45"/>
+      <c r="BN26" s="45"/>
+      <c r="BO26" s="45"/>
+      <c r="BP26" s="45"/>
+      <c r="BQ26" s="45"/>
+      <c r="BR26" s="45"/>
+      <c r="BS26" s="45"/>
       <c r="BX26" s="40">
         <v>-4</v>
       </c>
-      <c r="BY26" s="49"/>
-      <c r="BZ26" s="49"/>
-      <c r="CA26" s="49"/>
-      <c r="CB26" s="49"/>
-      <c r="CC26" s="49"/>
-      <c r="CD26" s="49"/>
-      <c r="CE26" s="49"/>
-      <c r="CF26" s="49"/>
-      <c r="CG26" s="49"/>
-      <c r="CH26" s="49"/>
-      <c r="CI26" s="49"/>
-      <c r="CJ26" s="49"/>
-      <c r="CK26" s="49"/>
-      <c r="CL26" s="49"/>
-      <c r="CM26" s="49"/>
-      <c r="CN26" s="49"/>
-      <c r="CO26" s="49"/>
-      <c r="CP26" s="49"/>
-      <c r="CQ26" s="49"/>
-      <c r="CR26" s="49"/>
+      <c r="BY26" s="45"/>
+      <c r="BZ26" s="45"/>
+      <c r="CA26" s="45"/>
+      <c r="CB26" s="45"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="45"/>
+      <c r="CE26" s="45"/>
+      <c r="CF26" s="45"/>
+      <c r="CG26" s="45"/>
+      <c r="CH26" s="45"/>
+      <c r="CI26" s="45"/>
+      <c r="CJ26" s="45"/>
+      <c r="CK26" s="45"/>
+      <c r="CL26" s="45"/>
+      <c r="CM26" s="45"/>
+      <c r="CN26" s="45"/>
+      <c r="CO26" s="45"/>
+      <c r="CP26" s="45"/>
+      <c r="CQ26" s="45"/>
+      <c r="CR26" s="45"/>
       <c r="CW26" s="40">
         <v>-4</v>
       </c>
-      <c r="CX26" s="49"/>
-      <c r="CY26" s="49"/>
-      <c r="CZ26" s="49"/>
-      <c r="DA26" s="49"/>
-      <c r="DB26" s="49"/>
-      <c r="DC26" s="49"/>
-      <c r="DD26" s="49"/>
-      <c r="DE26" s="49"/>
-      <c r="DF26" s="49"/>
-      <c r="DG26" s="49"/>
-      <c r="DH26" s="49"/>
-      <c r="DI26" s="49"/>
-      <c r="DJ26" s="49"/>
-      <c r="DK26" s="49"/>
-      <c r="DL26" s="49"/>
-      <c r="DM26" s="49"/>
-      <c r="DN26" s="49"/>
-      <c r="DO26" s="49"/>
-      <c r="DP26" s="49"/>
-      <c r="DQ26" s="49"/>
+      <c r="CX26" s="45"/>
+      <c r="CY26" s="45"/>
+      <c r="CZ26" s="45"/>
+      <c r="DA26" s="45"/>
+      <c r="DB26" s="45"/>
+      <c r="DC26" s="45"/>
+      <c r="DD26" s="45"/>
+      <c r="DE26" s="45"/>
+      <c r="DF26" s="45"/>
+      <c r="DG26" s="45"/>
+      <c r="DH26" s="45"/>
+      <c r="DI26" s="45"/>
+      <c r="DJ26" s="45"/>
+      <c r="DK26" s="45"/>
+      <c r="DL26" s="45"/>
+      <c r="DM26" s="45"/>
+      <c r="DN26" s="45"/>
+      <c r="DO26" s="45"/>
+      <c r="DP26" s="45"/>
+      <c r="DQ26" s="45"/>
     </row>
     <row r="27" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16">
         <v>-5</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
       <c r="Z27" s="16">
         <v>-5</v>
       </c>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
       <c r="AY27" s="16">
         <v>-5</v>
       </c>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="49"/>
-      <c r="BP27" s="49"/>
-      <c r="BQ27" s="49"/>
-      <c r="BR27" s="49"/>
-      <c r="BS27" s="49"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="45"/>
+      <c r="BL27" s="45"/>
+      <c r="BM27" s="45"/>
+      <c r="BN27" s="45"/>
+      <c r="BO27" s="45"/>
+      <c r="BP27" s="45"/>
+      <c r="BQ27" s="45"/>
+      <c r="BR27" s="45"/>
+      <c r="BS27" s="45"/>
       <c r="BX27" s="16">
         <v>-5</v>
       </c>
-      <c r="BY27" s="49"/>
-      <c r="BZ27" s="49"/>
-      <c r="CA27" s="49"/>
-      <c r="CB27" s="49"/>
-      <c r="CC27" s="49"/>
-      <c r="CD27" s="49"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
-      <c r="CJ27" s="49"/>
-      <c r="CK27" s="49"/>
-      <c r="CL27" s="49"/>
-      <c r="CM27" s="49"/>
-      <c r="CN27" s="49"/>
-      <c r="CO27" s="49"/>
-      <c r="CP27" s="49"/>
-      <c r="CQ27" s="49"/>
-      <c r="CR27" s="49"/>
+      <c r="BY27" s="45"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="45"/>
+      <c r="CB27" s="45"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="45"/>
+      <c r="CE27" s="45"/>
+      <c r="CF27" s="45"/>
+      <c r="CG27" s="45"/>
+      <c r="CH27" s="45"/>
+      <c r="CI27" s="45"/>
+      <c r="CJ27" s="45"/>
+      <c r="CK27" s="45"/>
+      <c r="CL27" s="45"/>
+      <c r="CM27" s="45"/>
+      <c r="CN27" s="45"/>
+      <c r="CO27" s="45"/>
+      <c r="CP27" s="45"/>
+      <c r="CQ27" s="45"/>
+      <c r="CR27" s="45"/>
       <c r="CW27" s="16">
         <v>-5</v>
       </c>
-      <c r="CX27" s="49"/>
-      <c r="CY27" s="49"/>
-      <c r="CZ27" s="49"/>
-      <c r="DA27" s="49"/>
-      <c r="DB27" s="49"/>
-      <c r="DC27" s="49"/>
-      <c r="DD27" s="49"/>
-      <c r="DE27" s="49"/>
-      <c r="DF27" s="49"/>
-      <c r="DG27" s="49"/>
-      <c r="DH27" s="49"/>
-      <c r="DI27" s="49"/>
-      <c r="DJ27" s="49"/>
-      <c r="DK27" s="49"/>
-      <c r="DL27" s="49"/>
-      <c r="DM27" s="49"/>
-      <c r="DN27" s="49"/>
-      <c r="DO27" s="49"/>
-      <c r="DP27" s="49"/>
-      <c r="DQ27" s="49"/>
+      <c r="CX27" s="45"/>
+      <c r="CY27" s="45"/>
+      <c r="CZ27" s="45"/>
+      <c r="DA27" s="45"/>
+      <c r="DB27" s="45"/>
+      <c r="DC27" s="45"/>
+      <c r="DD27" s="45"/>
+      <c r="DE27" s="45"/>
+      <c r="DF27" s="45"/>
+      <c r="DG27" s="45"/>
+      <c r="DH27" s="45"/>
+      <c r="DI27" s="45"/>
+      <c r="DJ27" s="45"/>
+      <c r="DK27" s="45"/>
+      <c r="DL27" s="45"/>
+      <c r="DM27" s="45"/>
+      <c r="DN27" s="45"/>
+      <c r="DO27" s="45"/>
+      <c r="DP27" s="45"/>
+      <c r="DQ27" s="45"/>
     </row>
     <row r="28" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="40">
         <v>-6</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
       <c r="Z28" s="40">
         <v>-6</v>
       </c>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
       <c r="AY28" s="40">
         <v>-6</v>
       </c>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="49"/>
-      <c r="BE28" s="49"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="49"/>
-      <c r="BM28" s="49"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="49"/>
-      <c r="BP28" s="49"/>
-      <c r="BQ28" s="49"/>
-      <c r="BR28" s="49"/>
-      <c r="BS28" s="49"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="45"/>
+      <c r="BE28" s="45"/>
+      <c r="BF28" s="45"/>
+      <c r="BG28" s="45"/>
+      <c r="BH28" s="45"/>
+      <c r="BI28" s="45"/>
+      <c r="BJ28" s="45"/>
+      <c r="BK28" s="45"/>
+      <c r="BL28" s="45"/>
+      <c r="BM28" s="45"/>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="45"/>
+      <c r="BP28" s="45"/>
+      <c r="BQ28" s="45"/>
+      <c r="BR28" s="45"/>
+      <c r="BS28" s="45"/>
       <c r="BX28" s="40">
         <v>-6</v>
       </c>
-      <c r="BY28" s="49"/>
-      <c r="BZ28" s="49"/>
-      <c r="CA28" s="49"/>
-      <c r="CB28" s="49"/>
-      <c r="CC28" s="49"/>
-      <c r="CD28" s="49"/>
-      <c r="CE28" s="49"/>
-      <c r="CF28" s="49"/>
-      <c r="CG28" s="49"/>
-      <c r="CH28" s="49"/>
-      <c r="CI28" s="49"/>
-      <c r="CJ28" s="49"/>
-      <c r="CK28" s="49"/>
-      <c r="CL28" s="49"/>
-      <c r="CM28" s="49"/>
-      <c r="CN28" s="49"/>
-      <c r="CO28" s="49"/>
-      <c r="CP28" s="49"/>
-      <c r="CQ28" s="49"/>
-      <c r="CR28" s="49"/>
+      <c r="BY28" s="45"/>
+      <c r="BZ28" s="45"/>
+      <c r="CA28" s="45"/>
+      <c r="CB28" s="45"/>
+      <c r="CC28" s="45"/>
+      <c r="CD28" s="45"/>
+      <c r="CE28" s="45"/>
+      <c r="CF28" s="45"/>
+      <c r="CG28" s="45"/>
+      <c r="CH28" s="45"/>
+      <c r="CI28" s="45"/>
+      <c r="CJ28" s="45"/>
+      <c r="CK28" s="45"/>
+      <c r="CL28" s="45"/>
+      <c r="CM28" s="45"/>
+      <c r="CN28" s="45"/>
+      <c r="CO28" s="45"/>
+      <c r="CP28" s="45"/>
+      <c r="CQ28" s="45"/>
+      <c r="CR28" s="45"/>
       <c r="CW28" s="40">
         <v>-6</v>
       </c>
-      <c r="CX28" s="49"/>
-      <c r="CY28" s="49"/>
-      <c r="CZ28" s="49"/>
-      <c r="DA28" s="49"/>
-      <c r="DB28" s="49"/>
-      <c r="DC28" s="49"/>
-      <c r="DD28" s="49"/>
-      <c r="DE28" s="49"/>
-      <c r="DF28" s="49"/>
-      <c r="DG28" s="49"/>
-      <c r="DH28" s="49"/>
-      <c r="DI28" s="49"/>
-      <c r="DJ28" s="49"/>
-      <c r="DK28" s="49"/>
-      <c r="DL28" s="49"/>
-      <c r="DM28" s="49"/>
-      <c r="DN28" s="49"/>
-      <c r="DO28" s="49"/>
-      <c r="DP28" s="49"/>
-      <c r="DQ28" s="49"/>
+      <c r="CX28" s="45"/>
+      <c r="CY28" s="45"/>
+      <c r="CZ28" s="45"/>
+      <c r="DA28" s="45"/>
+      <c r="DB28" s="45"/>
+      <c r="DC28" s="45"/>
+      <c r="DD28" s="45"/>
+      <c r="DE28" s="45"/>
+      <c r="DF28" s="45"/>
+      <c r="DG28" s="45"/>
+      <c r="DH28" s="45"/>
+      <c r="DI28" s="45"/>
+      <c r="DJ28" s="45"/>
+      <c r="DK28" s="45"/>
+      <c r="DL28" s="45"/>
+      <c r="DM28" s="45"/>
+      <c r="DN28" s="45"/>
+      <c r="DO28" s="45"/>
+      <c r="DP28" s="45"/>
+      <c r="DQ28" s="45"/>
     </row>
     <row r="29" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16">
         <v>-7</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
       <c r="Z29" s="16">
         <v>-7</v>
       </c>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
       <c r="AY29" s="16">
         <v>-7</v>
       </c>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
-      <c r="BP29" s="49"/>
-      <c r="BQ29" s="49"/>
-      <c r="BR29" s="49"/>
-      <c r="BS29" s="49"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="45"/>
+      <c r="BD29" s="45"/>
+      <c r="BE29" s="45"/>
+      <c r="BF29" s="45"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="45"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="45"/>
+      <c r="BL29" s="45"/>
+      <c r="BM29" s="45"/>
+      <c r="BN29" s="45"/>
+      <c r="BO29" s="45"/>
+      <c r="BP29" s="45"/>
+      <c r="BQ29" s="45"/>
+      <c r="BR29" s="45"/>
+      <c r="BS29" s="45"/>
       <c r="BX29" s="16">
         <v>-7</v>
       </c>
-      <c r="BY29" s="49"/>
-      <c r="BZ29" s="49"/>
-      <c r="CA29" s="49"/>
-      <c r="CB29" s="49"/>
-      <c r="CC29" s="49"/>
-      <c r="CD29" s="49"/>
-      <c r="CE29" s="49"/>
-      <c r="CF29" s="49"/>
-      <c r="CG29" s="49"/>
-      <c r="CH29" s="49"/>
-      <c r="CI29" s="49"/>
-      <c r="CJ29" s="49"/>
-      <c r="CK29" s="49"/>
-      <c r="CL29" s="49"/>
-      <c r="CM29" s="49"/>
-      <c r="CN29" s="49"/>
-      <c r="CO29" s="49"/>
-      <c r="CP29" s="49"/>
-      <c r="CQ29" s="49"/>
-      <c r="CR29" s="49"/>
+      <c r="BY29" s="45"/>
+      <c r="BZ29" s="45"/>
+      <c r="CA29" s="45"/>
+      <c r="CB29" s="45"/>
+      <c r="CC29" s="45"/>
+      <c r="CD29" s="45"/>
+      <c r="CE29" s="45"/>
+      <c r="CF29" s="45"/>
+      <c r="CG29" s="45"/>
+      <c r="CH29" s="45"/>
+      <c r="CI29" s="45"/>
+      <c r="CJ29" s="45"/>
+      <c r="CK29" s="45"/>
+      <c r="CL29" s="45"/>
+      <c r="CM29" s="45"/>
+      <c r="CN29" s="45"/>
+      <c r="CO29" s="45"/>
+      <c r="CP29" s="45"/>
+      <c r="CQ29" s="45"/>
+      <c r="CR29" s="45"/>
       <c r="CW29" s="16">
         <v>-7</v>
       </c>
-      <c r="CX29" s="49"/>
-      <c r="CY29" s="49"/>
-      <c r="CZ29" s="49"/>
-      <c r="DA29" s="49"/>
-      <c r="DB29" s="49"/>
-      <c r="DC29" s="49"/>
-      <c r="DD29" s="49"/>
-      <c r="DE29" s="49"/>
-      <c r="DF29" s="49"/>
-      <c r="DG29" s="49"/>
-      <c r="DH29" s="49"/>
-      <c r="DI29" s="49"/>
-      <c r="DJ29" s="49"/>
-      <c r="DK29" s="49"/>
-      <c r="DL29" s="49"/>
-      <c r="DM29" s="49"/>
-      <c r="DN29" s="49"/>
-      <c r="DO29" s="49"/>
-      <c r="DP29" s="49"/>
-      <c r="DQ29" s="49"/>
+      <c r="CX29" s="45"/>
+      <c r="CY29" s="45"/>
+      <c r="CZ29" s="45"/>
+      <c r="DA29" s="45"/>
+      <c r="DB29" s="45"/>
+      <c r="DC29" s="45"/>
+      <c r="DD29" s="45"/>
+      <c r="DE29" s="45"/>
+      <c r="DF29" s="45"/>
+      <c r="DG29" s="45"/>
+      <c r="DH29" s="45"/>
+      <c r="DI29" s="45"/>
+      <c r="DJ29" s="45"/>
+      <c r="DK29" s="45"/>
+      <c r="DL29" s="45"/>
+      <c r="DM29" s="45"/>
+      <c r="DN29" s="45"/>
+      <c r="DO29" s="45"/>
+      <c r="DP29" s="45"/>
+      <c r="DQ29" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A5414-3AB8-401C-9C97-4816786A02A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6EAFB3-FA30-4406-ACDF-FD2D510FD8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12610" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="14010" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
@@ -16094,17 +16094,14 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.3828125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="1"/>
-    <col min="2" max="2" width="2.765625" style="16" customWidth="1"/>
-    <col min="3" max="15" width="2.765625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="2.4609375" style="1"/>
-    <col min="19" max="19" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.3828125" style="1"/>
+    <col min="2" max="2" width="2.3828125" style="16"/>
+    <col min="3" max="16384" width="2.3828125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6EAFB3-FA30-4406-ACDF-FD2D510FD8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0E2DE-36EB-4C34-9040-E7CB7FDCAE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="0" windowWidth="3770" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="14010" yWindow="0" windowWidth="3765" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,13 +189,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Consolas"/>
       <family val="2"/>
@@ -236,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,22 +517,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,16 +541,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -563,22 +559,22 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -590,10 +586,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,6 +602,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6919,13 +6918,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>79208</xdr:colOff>
+      <xdr:colOff>74878</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>79206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>139366</xdr:colOff>
+      <xdr:colOff>135036</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>134351</xdr:rowOff>
     </xdr:to>
@@ -6942,7 +6941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2736182" y="2199772"/>
+          <a:off x="2663946" y="2057808"/>
           <a:ext cx="60158" cy="55145"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8035,6 +8034,300 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2734177" y="4714374"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86587</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DC870B-AED0-4089-92CB-26C3BAC2C42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2874814" y="705716"/>
+          <a:ext cx="18002" cy="2036802"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131570</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="椭圆 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7765F74E-9433-425C-8D65-F1744BB3A918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2859639" y="2058674"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63618</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="椭圆 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08703FE9-179E-4E9C-853D-717C531E6309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2851845" y="1869040"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124642</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="椭圆 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F38FEB-C993-44CC-AAB2-987942394317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2852711" y="1679405"/>
+          <a:ext cx="60158" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75288</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>135446</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09F2761-6554-4E4B-8023-22F873E87F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2863515" y="2437852"/>
           <a:ext cx="60158" cy="55145"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9771,17 +10064,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.07421875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.69140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.4609375" style="12"/>
-    <col min="8" max="8" width="3.23046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="2.4609375" style="12"/>
-    <col min="14" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="12"/>
+    <col min="8" max="8" width="3.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="2.44140625" style="12"/>
+    <col min="14" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O3" s="1">
         <v>11</v>
       </c>
@@ -9867,7 +10160,7 @@
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
     </row>
-    <row r="4" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O4" s="1">
         <v>10</v>
       </c>
@@ -9953,7 +10246,7 @@
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O5" s="1">
         <v>9</v>
       </c>
@@ -10039,7 +10332,7 @@
       <c r="CN5" s="2"/>
       <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -10136,7 +10429,7 @@
       <c r="CN6" s="2"/>
       <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O7" s="1">
         <v>7</v>
       </c>
@@ -10222,7 +10515,7 @@
       <c r="CN7" s="2"/>
       <c r="CO7" s="2"/>
     </row>
-    <row r="8" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O8" s="1">
         <v>6</v>
       </c>
@@ -10320,7 +10613,7 @@
       <c r="CN8" s="2"/>
       <c r="CO8" s="2"/>
     </row>
-    <row r="9" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -10412,7 +10705,7 @@
       <c r="CN9" s="2"/>
       <c r="CO9" s="2"/>
     </row>
-    <row r="10" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O10" s="1">
         <v>4</v>
       </c>
@@ -10510,7 +10803,7 @@
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
     </row>
-    <row r="11" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O11" s="1">
         <v>3</v>
       </c>
@@ -10608,7 +10901,7 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
     </row>
-    <row r="12" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O12" s="1">
         <v>2</v>
       </c>
@@ -10706,7 +10999,7 @@
       <c r="CN12" s="2"/>
       <c r="CO12" s="2"/>
     </row>
-    <row r="13" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O13" s="1">
         <v>1</v>
       </c>
@@ -10804,7 +11097,7 @@
       <c r="CN13" s="2"/>
       <c r="CO13" s="2"/>
     </row>
-    <row r="14" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -10902,7 +11195,7 @@
       <c r="CN14" s="2"/>
       <c r="CO14" s="2"/>
     </row>
-    <row r="15" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="15:93" x14ac:dyDescent="0.25">
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -11102,7 +11395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O18" s="1">
         <v>9</v>
       </c>
@@ -11145,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O19" s="1">
         <v>8</v>
       </c>
@@ -11185,7 +11478,7 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O20" s="1">
         <v>7</v>
       </c>
@@ -11225,7 +11518,7 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O21" s="1">
         <v>6</v>
       </c>
@@ -11265,7 +11558,7 @@
       <c r="AY21" s="28"/>
       <c r="AZ21" s="28"/>
     </row>
-    <row r="22" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O22" s="1">
         <v>5</v>
       </c>
@@ -11305,7 +11598,7 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="28"/>
     </row>
-    <row r="23" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O23" s="1">
         <v>4</v>
       </c>
@@ -11351,7 +11644,7 @@
       <c r="AY23" s="28"/>
       <c r="AZ23" s="28"/>
     </row>
-    <row r="24" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O24" s="1">
         <v>3</v>
       </c>
@@ -11395,7 +11688,7 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O25" s="1">
         <v>2</v>
       </c>
@@ -11439,7 +11732,7 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O26" s="1">
         <v>1</v>
       </c>
@@ -11485,7 +11778,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="27" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -11549,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:86" x14ac:dyDescent="0.25">
       <c r="P28" s="1">
         <v>0</v>
       </c>
@@ -11584,7 +11877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -11601,7 +11894,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="31" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
@@ -11618,26 +11911,26 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="32" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="58" t="s">
+      <c r="P32" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -11667,7 +11960,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -11703,7 +11996,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -11743,7 +12036,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -11779,7 +12072,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -11813,7 +12106,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -11847,7 +12140,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N39" s="12"/>
       <c r="O39" s="1">
         <v>5</v>
@@ -11866,7 +12159,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N40" s="12"/>
       <c r="O40" s="1">
         <v>4</v>
@@ -11887,7 +12180,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N41" s="12"/>
       <c r="O41" s="1">
         <v>3</v>
@@ -11908,7 +12201,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N42" s="12"/>
       <c r="O42" s="1">
         <v>2</v>
@@ -11929,7 +12222,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M43" s="15"/>
       <c r="N43" s="12"/>
       <c r="O43" s="1">
@@ -11953,7 +12246,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N44" s="12"/>
       <c r="O44" s="1">
         <v>0</v>
@@ -11972,7 +12265,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P45" s="1">
         <v>0</v>
       </c>
@@ -12007,23 +12300,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O47" s="12"/>
-      <c r="P47" s="58" t="s">
+      <c r="P47" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O48" s="1">
         <v>11</v>
       </c>
@@ -12039,7 +12332,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O49" s="1">
         <v>10</v>
       </c>
@@ -12055,7 +12348,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O50" s="1">
         <v>9</v>
       </c>
@@ -12071,7 +12364,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O51" s="1">
         <v>8</v>
       </c>
@@ -12087,7 +12380,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O52" s="1">
         <v>7</v>
       </c>
@@ -12103,7 +12396,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O53" s="1">
         <v>6</v>
       </c>
@@ -12119,7 +12412,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O54" s="1">
         <v>5</v>
       </c>
@@ -12135,7 +12428,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O55" s="1">
         <v>4</v>
       </c>
@@ -12153,7 +12446,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O56" s="1">
         <v>3</v>
       </c>
@@ -12171,7 +12464,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M57" s="15"/>
       <c r="O57" s="1">
         <v>2</v>
@@ -12192,7 +12485,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O58" s="1">
         <v>1</v>
       </c>
@@ -12210,7 +12503,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -12226,7 +12519,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P60" s="1">
         <v>0</v>
       </c>
@@ -12261,23 +12554,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O62" s="12"/>
-      <c r="P62" s="58" t="s">
+      <c r="P62" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="58"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="58"/>
+      <c r="Z62" s="58"/>
     </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O63" s="1">
         <v>11</v>
       </c>
@@ -12293,7 +12586,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O64" s="1">
         <v>10</v>
       </c>
@@ -12309,7 +12602,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O65" s="1">
         <v>9</v>
       </c>
@@ -12325,7 +12618,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O66" s="1">
         <v>8</v>
       </c>
@@ -12341,7 +12634,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O67" s="1">
         <v>7</v>
       </c>
@@ -12357,7 +12650,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O68" s="1">
         <v>6</v>
       </c>
@@ -12373,7 +12666,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O69" s="1">
         <v>5</v>
       </c>
@@ -12389,7 +12682,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O70" s="1">
         <v>4</v>
       </c>
@@ -12407,7 +12700,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O71" s="1">
         <v>3</v>
       </c>
@@ -12425,7 +12718,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="12:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="L72" s="15"/>
       <c r="O72" s="1">
         <v>2</v>
@@ -12446,7 +12739,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O73" s="1">
         <v>1</v>
       </c>
@@ -12464,7 +12757,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O74" s="1">
         <v>0</v>
       </c>
@@ -12480,7 +12773,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.25">
       <c r="P75" s="1">
         <v>0</v>
       </c>
@@ -12515,23 +12808,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O77" s="12"/>
-      <c r="P77" s="58" t="s">
+      <c r="P77" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="58"/>
+      <c r="S77" s="58"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="58"/>
+      <c r="W77" s="58"/>
+      <c r="X77" s="58"/>
+      <c r="Y77" s="58"/>
+      <c r="Z77" s="58"/>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O78" s="1">
         <v>11</v>
       </c>
@@ -12547,7 +12840,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O79" s="1">
         <v>10</v>
       </c>
@@ -12563,7 +12856,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O80" s="1">
         <v>9</v>
       </c>
@@ -12579,7 +12872,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O81" s="1">
         <v>8</v>
       </c>
@@ -12595,7 +12888,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O82" s="1">
         <v>7</v>
       </c>
@@ -12611,7 +12904,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O83" s="1">
         <v>6</v>
       </c>
@@ -12627,7 +12920,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O84" s="1">
         <v>5</v>
       </c>
@@ -12643,7 +12936,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M85" s="15"/>
       <c r="O85" s="1">
         <v>4</v>
@@ -12664,7 +12957,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O86" s="1">
         <v>3</v>
       </c>
@@ -12682,7 +12975,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O87" s="1">
         <v>2</v>
       </c>
@@ -12700,7 +12993,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O88" s="1">
         <v>1</v>
       </c>
@@ -12718,7 +13011,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O89" s="1">
         <v>0</v>
       </c>
@@ -12734,7 +13027,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P90" s="1">
         <v>0</v>
       </c>
@@ -12791,26 +13084,26 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="12"/>
-    <col min="2" max="2" width="2.4609375" style="1"/>
-    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="2.4609375" style="1" customWidth="1"/>
-    <col min="24" max="26" width="2.4609375" style="1"/>
-    <col min="27" max="27" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="2.4609375" style="1"/>
-    <col min="51" max="51" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="74" width="2.4609375" style="1"/>
-    <col min="75" max="75" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="98" width="2.4609375" style="1"/>
-    <col min="99" max="99" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="121" width="2.4609375" style="1"/>
-    <col min="122" max="122" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="12"/>
+    <col min="2" max="2" width="2.44140625" style="1"/>
+    <col min="3" max="3" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="2.44140625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.44140625" style="1"/>
+    <col min="27" max="27" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="2.44140625" style="1"/>
+    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="74" width="2.44140625" style="1"/>
+    <col min="75" max="75" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="98" width="2.44140625" style="1"/>
+    <col min="99" max="99" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="2.44140625" style="1"/>
+    <col min="122" max="122" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="16">
         <v>19</v>
@@ -12956,7 +13249,7 @@
       <c r="EK2" s="5"/>
       <c r="EL2" s="5"/>
     </row>
-    <row r="3" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C3" s="16">
         <v>18</v>
       </c>
@@ -13096,7 +13389,7 @@
       <c r="EK3" s="5"/>
       <c r="EL3" s="5"/>
     </row>
-    <row r="4" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C4" s="16">
         <v>17</v>
       </c>
@@ -13236,7 +13529,7 @@
       <c r="EK4" s="5"/>
       <c r="EL4" s="5"/>
     </row>
-    <row r="5" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
         <v>16</v>
       </c>
@@ -13364,7 +13657,7 @@
       <c r="EK5" s="5"/>
       <c r="EL5" s="5"/>
     </row>
-    <row r="6" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
         <v>15</v>
       </c>
@@ -13504,7 +13797,7 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
     </row>
-    <row r="7" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
@@ -13647,7 +13940,7 @@
       <c r="EK7" s="5"/>
       <c r="EL7" s="5"/>
     </row>
-    <row r="8" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
         <v>13</v>
       </c>
@@ -13799,7 +14092,7 @@
       <c r="EK8" s="5"/>
       <c r="EL8" s="5"/>
     </row>
-    <row r="9" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C9" s="16">
         <v>12</v>
       </c>
@@ -13939,7 +14232,7 @@
       <c r="EK9" s="5"/>
       <c r="EL9" s="5"/>
     </row>
-    <row r="10" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <v>11</v>
       </c>
@@ -14091,7 +14384,7 @@
       <c r="EK10" s="5"/>
       <c r="EL10" s="5"/>
     </row>
-    <row r="11" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <v>10</v>
       </c>
@@ -14231,7 +14524,7 @@
       <c r="EK11" s="5"/>
       <c r="EL11" s="5"/>
     </row>
-    <row r="12" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -14371,7 +14664,7 @@
       <c r="EK12" s="4"/>
       <c r="EL12" s="5"/>
     </row>
-    <row r="13" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <v>8</v>
       </c>
@@ -14511,7 +14804,7 @@
       <c r="EK13" s="5"/>
       <c r="EL13" s="5"/>
     </row>
-    <row r="14" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C14" s="16">
         <v>7</v>
       </c>
@@ -14651,7 +14944,7 @@
       <c r="EK14" s="5"/>
       <c r="EL14" s="5"/>
     </row>
-    <row r="15" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
         <v>6</v>
       </c>
@@ -14791,7 +15084,7 @@
       <c r="EK15" s="5"/>
       <c r="EL15" s="5"/>
     </row>
-    <row r="16" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
         <v>5</v>
       </c>
@@ -14931,7 +15224,7 @@
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
     </row>
-    <row r="17" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:142" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
@@ -15074,7 +15367,7 @@
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
     </row>
-    <row r="18" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>3</v>
       </c>
@@ -15214,7 +15507,7 @@
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
     </row>
-    <row r="19" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -15348,7 +15641,7 @@
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
     </row>
-    <row r="20" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -15488,7 +15781,7 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
     </row>
-    <row r="21" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C21" s="16">
         <v>0</v>
       </c>
@@ -15628,7 +15921,7 @@
       <c r="EK21" s="18"/>
       <c r="EL21" s="18"/>
     </row>
-    <row r="22" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:142" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -15990,7 +16283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C29" s="16">
         <v>3</v>
       </c>
@@ -16006,7 +16299,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C30" s="16">
         <v>2</v>
       </c>
@@ -16022,7 +16315,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C31" s="16">
         <v>1</v>
       </c>
@@ -16037,7 +16330,7 @@
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C32" s="16">
         <v>0</v>
       </c>
@@ -16053,7 +16346,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>0</v>
       </c>
@@ -16093,305 +16386,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.3828125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="1"/>
-    <col min="2" max="2" width="2.3828125" style="16"/>
-    <col min="3" max="16384" width="2.3828125" style="1"/>
+    <col min="1" max="1" width="2.33203125" style="1"/>
+    <col min="2" max="2" width="2.33203125" style="16"/>
+    <col min="3" max="15" width="2.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
-    <row r="3" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>10</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>9</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>8</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>7</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34">
         <v>3</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="35">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="35">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="34">
         <v>4</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34">
         <v>2</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="35">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="34">
         <v>6</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="35">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="34">
         <v>5</v>
       </c>
-      <c r="O13" s="33"/>
+      <c r="O13" s="32"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>0</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="61">
+        <v>7</v>
+      </c>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="32">
+    <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="16">
         <v>0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="16">
         <v>4</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="16">
         <v>5</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="16">
         <v>6</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="16">
         <v>7</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="16">
         <v>8</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="16">
         <v>9</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="16">
         <v>10</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="16">
         <v>11</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -16399,23 +16695,23 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>10</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="37" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="S18" s="12"/>
@@ -16425,23 +16721,23 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -16449,222 +16745,222 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>8</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>7</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>6</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
     </row>
-    <row r="23" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>5</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="35" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
     </row>
-    <row r="24" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>4</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="35" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
     </row>
-    <row r="25" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
     </row>
-    <row r="26" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>2</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="35" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
     </row>
-    <row r="27" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
         <v>1</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="35" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="33"/>
+      <c r="O27" s="32"/>
     </row>
-    <row r="28" spans="2:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>0</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="35" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="33"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="32"/>
     </row>
-    <row r="29" spans="2:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="32">
+    <row r="29" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="16">
         <v>0</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="16">
         <v>1</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="16">
         <v>2</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="16">
         <v>3</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="16">
         <v>4</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="16">
         <v>5</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="16">
         <v>6</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="16">
         <v>7</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="16">
         <v>8</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="16">
         <v>9</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="16">
         <v>10</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="16">
         <v>11</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="16">
         <v>12</v>
       </c>
     </row>
@@ -16688,13 +16984,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="1.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="2.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="16">
         <v>5</v>
       </c>
@@ -16703,9 +16999,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="39"/>
+      <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
         <v>4</v>
       </c>
@@ -16714,9 +17010,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -16727,9 +17023,9 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="16">
         <v>2</v>
       </c>
@@ -16740,9 +17036,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="38"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
         <v>1</v>
       </c>
@@ -16752,9 +17048,9 @@
         <v>3</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="16">
         <v>0</v>
       </c>
@@ -16765,38 +17061,38 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>1</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>2</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>3</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>4</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <v>5</v>
       </c>
@@ -16805,9 +17101,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="16">
         <v>4</v>
       </c>
@@ -16816,9 +17112,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
         <v>3</v>
       </c>
@@ -16826,25 +17122,25 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="39"/>
+      <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4">
         <v>3</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="39"/>
+      <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
         <v>1</v>
       </c>
@@ -16852,42 +17148,42 @@
         <v>0</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>0</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>2</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>3</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>4</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>5</v>
       </c>
     </row>
@@ -16906,3536 +17202,3536 @@
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.07421875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.61328125" style="40" customWidth="1"/>
-    <col min="3" max="22" width="2.23046875" style="40" customWidth="1"/>
-    <col min="23" max="24" width="3.07421875" style="40"/>
-    <col min="25" max="25" width="2.69140625" style="40" customWidth="1"/>
-    <col min="26" max="46" width="2.23046875" style="40" customWidth="1"/>
-    <col min="47" max="48" width="3.07421875" style="40"/>
-    <col min="49" max="123" width="2.23046875" style="40" customWidth="1"/>
-    <col min="124" max="16384" width="3.07421875" style="40"/>
+    <col min="1" max="2" width="2.6640625" style="39" customWidth="1"/>
+    <col min="3" max="22" width="2.21875" style="39" customWidth="1"/>
+    <col min="23" max="24" width="3.109375" style="39"/>
+    <col min="25" max="25" width="2.6640625" style="39" customWidth="1"/>
+    <col min="26" max="46" width="2.21875" style="39" customWidth="1"/>
+    <col min="47" max="48" width="3.109375" style="39"/>
+    <col min="49" max="123" width="2.21875" style="39" customWidth="1"/>
+    <col min="124" max="16384" width="3.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>19</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42">
+      <c r="C3" s="40"/>
+      <c r="D3" s="41">
         <v>1</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
       <c r="Z3" s="16">
         <v>19</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41">
         <v>1</v>
       </c>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="44"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="43"/>
       <c r="AY3" s="16">
         <v>19</v>
       </c>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="42">
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="41">
         <v>1</v>
       </c>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="44"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="43"/>
       <c r="BX3" s="16">
         <v>19</v>
       </c>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="42">
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="41">
         <v>1</v>
       </c>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43"/>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="44"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="43"/>
       <c r="CW3" s="16">
         <v>19</v>
       </c>
-      <c r="CX3" s="52"/>
-      <c r="CY3" s="42">
+      <c r="CX3" s="51"/>
+      <c r="CY3" s="41">
         <v>1</v>
       </c>
-      <c r="CZ3" s="52"/>
-      <c r="DA3" s="52"/>
-      <c r="DB3" s="52"/>
-      <c r="DC3" s="52"/>
-      <c r="DD3" s="52"/>
-      <c r="DE3" s="52"/>
-      <c r="DF3" s="52"/>
-      <c r="DG3" s="52"/>
-      <c r="DH3" s="52"/>
-      <c r="DI3" s="52"/>
-      <c r="DJ3" s="52"/>
-      <c r="DK3" s="52"/>
-      <c r="DL3" s="52"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="44"/>
+      <c r="CZ3" s="51"/>
+      <c r="DA3" s="51"/>
+      <c r="DB3" s="51"/>
+      <c r="DC3" s="51"/>
+      <c r="DD3" s="51"/>
+      <c r="DE3" s="51"/>
+      <c r="DF3" s="51"/>
+      <c r="DG3" s="51"/>
+      <c r="DH3" s="51"/>
+      <c r="DI3" s="51"/>
+      <c r="DJ3" s="51"/>
+      <c r="DK3" s="51"/>
+      <c r="DL3" s="51"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="43"/>
     </row>
-    <row r="4" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>18</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
+      <c r="C4" s="40"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41">
         <v>4</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="44"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="43"/>
       <c r="Z4" s="16">
         <v>18</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="42">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="41">
         <v>4</v>
       </c>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="44"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
       <c r="AY4" s="16">
         <v>18</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="42">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="41">
         <v>4</v>
       </c>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="44"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="43"/>
       <c r="BX4" s="16">
         <v>18</v>
       </c>
-      <c r="BY4" s="52"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="52"/>
-      <c r="CD4" s="42">
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="51"/>
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="41">
         <v>4</v>
       </c>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
-      <c r="CJ4" s="52"/>
-      <c r="CK4" s="52"/>
-      <c r="CL4" s="52"/>
-      <c r="CM4" s="52"/>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="43"/>
-      <c r="CP4" s="43"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="44"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="43"/>
       <c r="CW4" s="16">
         <v>18</v>
       </c>
-      <c r="CX4" s="52"/>
-      <c r="CY4" s="52"/>
-      <c r="CZ4" s="52"/>
-      <c r="DA4" s="52"/>
-      <c r="DB4" s="52"/>
-      <c r="DC4" s="42">
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="51"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="41">
         <v>4</v>
       </c>
-      <c r="DD4" s="52"/>
-      <c r="DE4" s="52"/>
-      <c r="DF4" s="52"/>
-      <c r="DG4" s="52"/>
-      <c r="DH4" s="52"/>
-      <c r="DI4" s="52"/>
-      <c r="DJ4" s="52"/>
-      <c r="DK4" s="52"/>
-      <c r="DL4" s="52"/>
-      <c r="DM4" s="43"/>
-      <c r="DN4" s="43"/>
-      <c r="DO4" s="43"/>
-      <c r="DP4" s="43"/>
-      <c r="DQ4" s="44"/>
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="51"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="51"/>
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="43"/>
     </row>
-    <row r="5" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>17</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42">
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41">
         <v>3</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
       <c r="Z5" s="16">
         <v>17</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="42">
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="41">
         <v>3</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="44"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="43"/>
       <c r="AY5" s="16">
         <v>17</v>
       </c>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="42">
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="41">
         <v>3</v>
       </c>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="44"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="43"/>
       <c r="BX5" s="16">
         <v>17</v>
       </c>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
-      <c r="CA5" s="52"/>
-      <c r="CB5" s="42">
+      <c r="BY5" s="51"/>
+      <c r="BZ5" s="51"/>
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="41">
         <v>3</v>
       </c>
-      <c r="CC5" s="52"/>
-      <c r="CD5" s="52"/>
-      <c r="CE5" s="52"/>
-      <c r="CF5" s="52"/>
-      <c r="CG5" s="52"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="52"/>
-      <c r="CJ5" s="52"/>
-      <c r="CK5" s="52"/>
-      <c r="CL5" s="52"/>
-      <c r="CM5" s="52"/>
-      <c r="CN5" s="43"/>
-      <c r="CO5" s="43"/>
-      <c r="CP5" s="43"/>
-      <c r="CQ5" s="43"/>
-      <c r="CR5" s="44"/>
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="51"/>
+      <c r="CF5" s="51"/>
+      <c r="CG5" s="51"/>
+      <c r="CH5" s="51"/>
+      <c r="CI5" s="51"/>
+      <c r="CJ5" s="51"/>
+      <c r="CK5" s="51"/>
+      <c r="CL5" s="51"/>
+      <c r="CM5" s="51"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="43"/>
       <c r="CW5" s="16">
         <v>17</v>
       </c>
-      <c r="CX5" s="52"/>
-      <c r="CY5" s="52"/>
-      <c r="CZ5" s="52"/>
-      <c r="DA5" s="42">
+      <c r="CX5" s="51"/>
+      <c r="CY5" s="51"/>
+      <c r="CZ5" s="51"/>
+      <c r="DA5" s="41">
         <v>3</v>
       </c>
-      <c r="DB5" s="52"/>
-      <c r="DC5" s="52"/>
-      <c r="DD5" s="52"/>
-      <c r="DE5" s="52"/>
-      <c r="DF5" s="52"/>
-      <c r="DG5" s="52"/>
-      <c r="DH5" s="52"/>
-      <c r="DI5" s="52"/>
-      <c r="DJ5" s="52"/>
-      <c r="DK5" s="52"/>
-      <c r="DL5" s="52"/>
-      <c r="DM5" s="43"/>
-      <c r="DN5" s="43"/>
-      <c r="DO5" s="43"/>
-      <c r="DP5" s="43"/>
-      <c r="DQ5" s="44"/>
+      <c r="DB5" s="51"/>
+      <c r="DC5" s="51"/>
+      <c r="DD5" s="51"/>
+      <c r="DE5" s="51"/>
+      <c r="DF5" s="51"/>
+      <c r="DG5" s="51"/>
+      <c r="DH5" s="51"/>
+      <c r="DI5" s="51"/>
+      <c r="DJ5" s="51"/>
+      <c r="DK5" s="51"/>
+      <c r="DL5" s="51"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="43"/>
     </row>
-    <row r="6" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>16</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42">
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="41">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="43"/>
       <c r="Z6" s="16">
         <v>16</v>
       </c>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="42">
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="41">
         <v>5</v>
       </c>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="43"/>
       <c r="AY6" s="16">
         <v>16</v>
       </c>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="42">
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="41">
         <v>5</v>
       </c>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="44"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
+      <c r="BQ6" s="42"/>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="43"/>
       <c r="BX6" s="16">
         <v>16</v>
       </c>
-      <c r="BY6" s="52"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="52"/>
-      <c r="CB6" s="52"/>
-      <c r="CC6" s="52"/>
-      <c r="CD6" s="52"/>
-      <c r="CE6" s="42">
+      <c r="BY6" s="51"/>
+      <c r="BZ6" s="52"/>
+      <c r="CA6" s="51"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="41">
         <v>5</v>
       </c>
-      <c r="CF6" s="52"/>
-      <c r="CG6" s="52"/>
-      <c r="CH6" s="52"/>
-      <c r="CI6" s="52"/>
-      <c r="CJ6" s="52"/>
-      <c r="CK6" s="52"/>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="52"/>
-      <c r="CN6" s="43"/>
-      <c r="CO6" s="43"/>
-      <c r="CP6" s="43"/>
-      <c r="CQ6" s="43"/>
-      <c r="CR6" s="44"/>
+      <c r="CF6" s="51"/>
+      <c r="CG6" s="51"/>
+      <c r="CH6" s="51"/>
+      <c r="CI6" s="51"/>
+      <c r="CJ6" s="51"/>
+      <c r="CK6" s="51"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="51"/>
+      <c r="CN6" s="42"/>
+      <c r="CO6" s="42"/>
+      <c r="CP6" s="42"/>
+      <c r="CQ6" s="42"/>
+      <c r="CR6" s="43"/>
       <c r="CW6" s="16">
         <v>16</v>
       </c>
-      <c r="CX6" s="52"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="52"/>
-      <c r="DA6" s="52"/>
-      <c r="DB6" s="52"/>
-      <c r="DC6" s="52"/>
-      <c r="DD6" s="42">
+      <c r="CX6" s="51"/>
+      <c r="CY6" s="52"/>
+      <c r="CZ6" s="51"/>
+      <c r="DA6" s="51"/>
+      <c r="DB6" s="51"/>
+      <c r="DC6" s="51"/>
+      <c r="DD6" s="41">
         <v>5</v>
       </c>
-      <c r="DE6" s="52"/>
-      <c r="DF6" s="52"/>
-      <c r="DG6" s="52"/>
-      <c r="DH6" s="52"/>
-      <c r="DI6" s="52"/>
-      <c r="DJ6" s="52"/>
-      <c r="DK6" s="54"/>
-      <c r="DL6" s="52"/>
-      <c r="DM6" s="43"/>
-      <c r="DN6" s="43"/>
-      <c r="DO6" s="43"/>
-      <c r="DP6" s="43"/>
-      <c r="DQ6" s="44"/>
+      <c r="DE6" s="51"/>
+      <c r="DF6" s="51"/>
+      <c r="DG6" s="51"/>
+      <c r="DH6" s="51"/>
+      <c r="DI6" s="51"/>
+      <c r="DJ6" s="51"/>
+      <c r="DK6" s="53"/>
+      <c r="DL6" s="51"/>
+      <c r="DM6" s="42"/>
+      <c r="DN6" s="42"/>
+      <c r="DO6" s="42"/>
+      <c r="DP6" s="42"/>
+      <c r="DQ6" s="43"/>
     </row>
-    <row r="7" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>15</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>0</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
       <c r="Z7" s="16">
         <v>15</v>
       </c>
-      <c r="AA7" s="47">
+      <c r="AA7" s="46">
         <v>0</v>
       </c>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="44"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="43"/>
       <c r="AY7" s="16">
         <v>15</v>
       </c>
-      <c r="AZ7" s="47">
+      <c r="AZ7" s="46">
         <v>0</v>
       </c>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="48"/>
-      <c r="BN7" s="48"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="43"/>
-      <c r="BR7" s="43"/>
-      <c r="BS7" s="44"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="47"/>
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="43"/>
       <c r="BX7" s="16">
         <v>15</v>
       </c>
-      <c r="BY7" s="47">
+      <c r="BY7" s="46">
         <v>0</v>
       </c>
-      <c r="BZ7" s="48"/>
-      <c r="CA7" s="48"/>
-      <c r="CB7" s="48"/>
-      <c r="CC7" s="48"/>
-      <c r="CD7" s="48"/>
-      <c r="CE7" s="48"/>
-      <c r="CF7" s="48"/>
-      <c r="CG7" s="48"/>
-      <c r="CH7" s="48"/>
-      <c r="CI7" s="48"/>
-      <c r="CJ7" s="48"/>
-      <c r="CK7" s="48"/>
-      <c r="CL7" s="48"/>
-      <c r="CM7" s="48"/>
-      <c r="CN7" s="43"/>
-      <c r="CO7" s="43"/>
-      <c r="CP7" s="43"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="44"/>
+      <c r="BZ7" s="47"/>
+      <c r="CA7" s="47"/>
+      <c r="CB7" s="47"/>
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="47"/>
+      <c r="CE7" s="47"/>
+      <c r="CF7" s="47"/>
+      <c r="CG7" s="47"/>
+      <c r="CH7" s="47"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="47"/>
+      <c r="CK7" s="47"/>
+      <c r="CL7" s="47"/>
+      <c r="CM7" s="47"/>
+      <c r="CN7" s="42"/>
+      <c r="CO7" s="42"/>
+      <c r="CP7" s="42"/>
+      <c r="CQ7" s="42"/>
+      <c r="CR7" s="43"/>
       <c r="CW7" s="16">
         <v>15</v>
       </c>
-      <c r="CX7" s="47">
+      <c r="CX7" s="46">
         <v>0</v>
       </c>
-      <c r="CY7" s="48"/>
-      <c r="CZ7" s="48"/>
-      <c r="DA7" s="48"/>
-      <c r="DB7" s="48"/>
-      <c r="DC7" s="48"/>
-      <c r="DD7" s="48"/>
-      <c r="DE7" s="48"/>
-      <c r="DF7" s="48"/>
-      <c r="DG7" s="48"/>
-      <c r="DH7" s="48"/>
-      <c r="DI7" s="48"/>
-      <c r="DJ7" s="48"/>
-      <c r="DK7" s="48"/>
-      <c r="DL7" s="48"/>
-      <c r="DM7" s="43"/>
-      <c r="DN7" s="43"/>
-      <c r="DO7" s="43"/>
-      <c r="DP7" s="43"/>
-      <c r="DQ7" s="44"/>
+      <c r="CY7" s="47"/>
+      <c r="CZ7" s="47"/>
+      <c r="DA7" s="47"/>
+      <c r="DB7" s="47"/>
+      <c r="DC7" s="47"/>
+      <c r="DD7" s="47"/>
+      <c r="DE7" s="47"/>
+      <c r="DF7" s="47"/>
+      <c r="DG7" s="47"/>
+      <c r="DH7" s="47"/>
+      <c r="DI7" s="47"/>
+      <c r="DJ7" s="47"/>
+      <c r="DK7" s="47"/>
+      <c r="DL7" s="47"/>
+      <c r="DM7" s="42"/>
+      <c r="DN7" s="42"/>
+      <c r="DO7" s="42"/>
+      <c r="DP7" s="42"/>
+      <c r="DQ7" s="43"/>
     </row>
-    <row r="8" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>14</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
       <c r="Z8" s="16">
         <v>14</v>
       </c>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="44"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="43"/>
       <c r="AY8" s="16">
         <v>14</v>
       </c>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="48"/>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BS8" s="44"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="47"/>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="47"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="47"/>
+      <c r="BJ8" s="47"/>
+      <c r="BK8" s="47"/>
+      <c r="BL8" s="47"/>
+      <c r="BM8" s="47"/>
+      <c r="BN8" s="47"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="43"/>
       <c r="BX8" s="16">
         <v>14</v>
       </c>
-      <c r="BY8" s="48"/>
-      <c r="BZ8" s="48"/>
-      <c r="CA8" s="48"/>
-      <c r="CB8" s="48"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="48"/>
-      <c r="CE8" s="48"/>
-      <c r="CF8" s="48"/>
-      <c r="CG8" s="48"/>
-      <c r="CH8" s="48"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="48"/>
-      <c r="CK8" s="48"/>
-      <c r="CL8" s="48"/>
-      <c r="CM8" s="48"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="44"/>
+      <c r="BY8" s="47"/>
+      <c r="BZ8" s="47"/>
+      <c r="CA8" s="47"/>
+      <c r="CB8" s="47"/>
+      <c r="CC8" s="47"/>
+      <c r="CD8" s="47"/>
+      <c r="CE8" s="47"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="47"/>
+      <c r="CH8" s="47"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
+      <c r="CL8" s="47"/>
+      <c r="CM8" s="47"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="42"/>
+      <c r="CR8" s="43"/>
       <c r="CW8" s="16">
         <v>14</v>
       </c>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
-      <c r="CZ8" s="48"/>
-      <c r="DA8" s="48"/>
-      <c r="DB8" s="48"/>
-      <c r="DC8" s="48"/>
-      <c r="DD8" s="48"/>
-      <c r="DE8" s="48"/>
-      <c r="DF8" s="48"/>
-      <c r="DG8" s="48"/>
-      <c r="DH8" s="48"/>
-      <c r="DI8" s="48"/>
-      <c r="DJ8" s="48"/>
-      <c r="DK8" s="48"/>
-      <c r="DL8" s="48"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="43"/>
-      <c r="DP8" s="43"/>
-      <c r="DQ8" s="44"/>
+      <c r="CX8" s="47"/>
+      <c r="CY8" s="47"/>
+      <c r="CZ8" s="47"/>
+      <c r="DA8" s="47"/>
+      <c r="DB8" s="47"/>
+      <c r="DC8" s="47"/>
+      <c r="DD8" s="47"/>
+      <c r="DE8" s="47"/>
+      <c r="DF8" s="47"/>
+      <c r="DG8" s="47"/>
+      <c r="DH8" s="47"/>
+      <c r="DI8" s="47"/>
+      <c r="DJ8" s="47"/>
+      <c r="DK8" s="47"/>
+      <c r="DL8" s="47"/>
+      <c r="DM8" s="42"/>
+      <c r="DN8" s="42"/>
+      <c r="DO8" s="42"/>
+      <c r="DP8" s="42"/>
+      <c r="DQ8" s="43"/>
     </row>
-    <row r="9" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>13</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="42">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="41">
         <v>13</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
       <c r="Z9" s="16">
         <v>13</v>
       </c>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="42">
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="41">
         <v>13</v>
       </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="44"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="43"/>
       <c r="AY9" s="16">
         <v>13</v>
       </c>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="48"/>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="49"/>
-      <c r="BP9" s="42">
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47"/>
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="47"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47"/>
+      <c r="BK9" s="47"/>
+      <c r="BL9" s="47"/>
+      <c r="BM9" s="47"/>
+      <c r="BN9" s="47"/>
+      <c r="BO9" s="48"/>
+      <c r="BP9" s="41">
         <v>13</v>
       </c>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="43"/>
-      <c r="BS9" s="44"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="42"/>
+      <c r="BS9" s="43"/>
       <c r="BX9" s="16">
         <v>13</v>
       </c>
-      <c r="BY9" s="48"/>
-      <c r="BZ9" s="48"/>
-      <c r="CA9" s="48"/>
-      <c r="CB9" s="48"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="48"/>
-      <c r="CE9" s="48"/>
-      <c r="CF9" s="48"/>
-      <c r="CG9" s="48"/>
-      <c r="CH9" s="48"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="48"/>
-      <c r="CK9" s="48"/>
-      <c r="CL9" s="48"/>
-      <c r="CM9" s="48"/>
-      <c r="CN9" s="49"/>
-      <c r="CO9" s="42">
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47"/>
+      <c r="CK9" s="47"/>
+      <c r="CL9" s="47"/>
+      <c r="CM9" s="47"/>
+      <c r="CN9" s="48"/>
+      <c r="CO9" s="41">
         <v>13</v>
       </c>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="44"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="42"/>
+      <c r="CR9" s="43"/>
       <c r="CW9" s="16">
         <v>13</v>
       </c>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
-      <c r="CZ9" s="48"/>
-      <c r="DA9" s="48"/>
-      <c r="DB9" s="48"/>
-      <c r="DC9" s="48"/>
-      <c r="DD9" s="48"/>
-      <c r="DE9" s="48"/>
-      <c r="DF9" s="48"/>
-      <c r="DG9" s="48"/>
-      <c r="DH9" s="48"/>
-      <c r="DI9" s="48"/>
-      <c r="DJ9" s="48"/>
-      <c r="DK9" s="48"/>
-      <c r="DL9" s="48"/>
-      <c r="DM9" s="49"/>
-      <c r="DN9" s="42">
+      <c r="CX9" s="47"/>
+      <c r="CY9" s="47"/>
+      <c r="CZ9" s="47"/>
+      <c r="DA9" s="47"/>
+      <c r="DB9" s="47"/>
+      <c r="DC9" s="47"/>
+      <c r="DD9" s="47"/>
+      <c r="DE9" s="47"/>
+      <c r="DF9" s="47"/>
+      <c r="DG9" s="47"/>
+      <c r="DH9" s="47"/>
+      <c r="DI9" s="47"/>
+      <c r="DJ9" s="47"/>
+      <c r="DK9" s="47"/>
+      <c r="DL9" s="47"/>
+      <c r="DM9" s="48"/>
+      <c r="DN9" s="41">
         <v>13</v>
       </c>
-      <c r="DO9" s="43"/>
-      <c r="DP9" s="43"/>
-      <c r="DQ9" s="44"/>
+      <c r="DO9" s="42"/>
+      <c r="DP9" s="42"/>
+      <c r="DQ9" s="43"/>
     </row>
-    <row r="10" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>12</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
       <c r="Z10" s="16">
         <v>12</v>
       </c>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="43"/>
-      <c r="AT10" s="44"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="43"/>
       <c r="AY10" s="16">
         <v>12</v>
       </c>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
-      <c r="BL10" s="48"/>
-      <c r="BM10" s="48"/>
-      <c r="BN10" s="48"/>
-      <c r="BO10" s="49"/>
-      <c r="BP10" s="49"/>
-      <c r="BQ10" s="43"/>
-      <c r="BR10" s="43"/>
-      <c r="BS10" s="44"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="47"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="47"/>
+      <c r="BJ10" s="47"/>
+      <c r="BK10" s="47"/>
+      <c r="BL10" s="47"/>
+      <c r="BM10" s="47"/>
+      <c r="BN10" s="47"/>
+      <c r="BO10" s="48"/>
+      <c r="BP10" s="48"/>
+      <c r="BQ10" s="42"/>
+      <c r="BR10" s="42"/>
+      <c r="BS10" s="43"/>
       <c r="BX10" s="16">
         <v>12</v>
       </c>
-      <c r="BY10" s="48"/>
-      <c r="BZ10" s="48"/>
-      <c r="CA10" s="48"/>
-      <c r="CB10" s="48"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="48"/>
-      <c r="CE10" s="48"/>
-      <c r="CF10" s="48"/>
-      <c r="CG10" s="48"/>
-      <c r="CH10" s="48"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="48"/>
-      <c r="CK10" s="48"/>
-      <c r="CL10" s="48"/>
-      <c r="CM10" s="48"/>
-      <c r="CN10" s="49"/>
-      <c r="CO10" s="49"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="43"/>
-      <c r="CR10" s="44"/>
+      <c r="BY10" s="47"/>
+      <c r="BZ10" s="47"/>
+      <c r="CA10" s="47"/>
+      <c r="CB10" s="47"/>
+      <c r="CC10" s="47"/>
+      <c r="CD10" s="47"/>
+      <c r="CE10" s="47"/>
+      <c r="CF10" s="47"/>
+      <c r="CG10" s="47"/>
+      <c r="CH10" s="47"/>
+      <c r="CI10" s="47"/>
+      <c r="CJ10" s="47"/>
+      <c r="CK10" s="47"/>
+      <c r="CL10" s="47"/>
+      <c r="CM10" s="47"/>
+      <c r="CN10" s="48"/>
+      <c r="CO10" s="48"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="42"/>
+      <c r="CR10" s="43"/>
       <c r="CW10" s="16">
         <v>12</v>
       </c>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
-      <c r="CZ10" s="48"/>
-      <c r="DA10" s="48"/>
-      <c r="DB10" s="48"/>
-      <c r="DC10" s="48"/>
-      <c r="DD10" s="48"/>
-      <c r="DE10" s="48"/>
-      <c r="DF10" s="48"/>
-      <c r="DG10" s="48"/>
-      <c r="DH10" s="48"/>
-      <c r="DI10" s="48"/>
-      <c r="DJ10" s="48"/>
-      <c r="DK10" s="48"/>
-      <c r="DL10" s="48"/>
-      <c r="DM10" s="49"/>
-      <c r="DN10" s="49"/>
-      <c r="DO10" s="43"/>
-      <c r="DP10" s="43"/>
-      <c r="DQ10" s="44"/>
+      <c r="CX10" s="47"/>
+      <c r="CY10" s="47"/>
+      <c r="CZ10" s="47"/>
+      <c r="DA10" s="47"/>
+      <c r="DB10" s="47"/>
+      <c r="DC10" s="47"/>
+      <c r="DD10" s="47"/>
+      <c r="DE10" s="47"/>
+      <c r="DF10" s="47"/>
+      <c r="DG10" s="47"/>
+      <c r="DH10" s="47"/>
+      <c r="DI10" s="47"/>
+      <c r="DJ10" s="47"/>
+      <c r="DK10" s="47"/>
+      <c r="DL10" s="47"/>
+      <c r="DM10" s="48"/>
+      <c r="DN10" s="48"/>
+      <c r="DO10" s="42"/>
+      <c r="DP10" s="42"/>
+      <c r="DQ10" s="43"/>
     </row>
-    <row r="11" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>11</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="42">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="41">
         <v>6</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="44"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="43"/>
       <c r="Z11" s="16">
         <v>11</v>
       </c>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="42">
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="41">
         <v>6</v>
       </c>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="43"/>
-      <c r="AS11" s="43"/>
-      <c r="AT11" s="44"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="43"/>
       <c r="AY11" s="16">
         <v>11</v>
       </c>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="42">
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="41">
         <v>6</v>
       </c>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="48"/>
-      <c r="BN11" s="48"/>
-      <c r="BO11" s="49"/>
-      <c r="BP11" s="49"/>
-      <c r="BQ11" s="43"/>
-      <c r="BR11" s="43"/>
-      <c r="BS11" s="44"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="47"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="42"/>
+      <c r="BR11" s="42"/>
+      <c r="BS11" s="43"/>
       <c r="BX11" s="16">
         <v>11</v>
       </c>
-      <c r="BY11" s="48"/>
-      <c r="BZ11" s="48"/>
-      <c r="CA11" s="48"/>
-      <c r="CB11" s="48"/>
-      <c r="CC11" s="50"/>
-      <c r="CD11" s="48"/>
-      <c r="CE11" s="48"/>
-      <c r="CF11" s="42">
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="47"/>
+      <c r="CE11" s="47"/>
+      <c r="CF11" s="41">
         <v>6</v>
       </c>
-      <c r="CG11" s="48"/>
-      <c r="CH11" s="48"/>
-      <c r="CI11" s="48"/>
-      <c r="CJ11" s="48"/>
-      <c r="CK11" s="48"/>
-      <c r="CL11" s="48"/>
-      <c r="CM11" s="48"/>
-      <c r="CN11" s="49"/>
-      <c r="CO11" s="49"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="43"/>
-      <c r="CR11" s="44"/>
+      <c r="CG11" s="47"/>
+      <c r="CH11" s="47"/>
+      <c r="CI11" s="47"/>
+      <c r="CJ11" s="47"/>
+      <c r="CK11" s="47"/>
+      <c r="CL11" s="47"/>
+      <c r="CM11" s="47"/>
+      <c r="CN11" s="48"/>
+      <c r="CO11" s="48"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="42"/>
+      <c r="CR11" s="43"/>
       <c r="CW11" s="16">
         <v>11</v>
       </c>
-      <c r="CX11" s="48"/>
-      <c r="CY11" s="48"/>
-      <c r="CZ11" s="48"/>
-      <c r="DA11" s="48"/>
-      <c r="DB11" s="50"/>
-      <c r="DC11" s="48"/>
-      <c r="DD11" s="48"/>
-      <c r="DE11" s="42">
+      <c r="CX11" s="47"/>
+      <c r="CY11" s="47"/>
+      <c r="CZ11" s="47"/>
+      <c r="DA11" s="47"/>
+      <c r="DB11" s="49"/>
+      <c r="DC11" s="47"/>
+      <c r="DD11" s="47"/>
+      <c r="DE11" s="41">
         <v>6</v>
       </c>
-      <c r="DF11" s="48"/>
-      <c r="DG11" s="48"/>
-      <c r="DH11" s="48"/>
-      <c r="DI11" s="48"/>
-      <c r="DJ11" s="48"/>
-      <c r="DK11" s="48"/>
-      <c r="DL11" s="48"/>
-      <c r="DM11" s="49"/>
-      <c r="DN11" s="49"/>
-      <c r="DO11" s="43"/>
-      <c r="DP11" s="43"/>
-      <c r="DQ11" s="44"/>
+      <c r="DF11" s="47"/>
+      <c r="DG11" s="47"/>
+      <c r="DH11" s="47"/>
+      <c r="DI11" s="47"/>
+      <c r="DJ11" s="47"/>
+      <c r="DK11" s="47"/>
+      <c r="DL11" s="47"/>
+      <c r="DM11" s="48"/>
+      <c r="DN11" s="48"/>
+      <c r="DO11" s="42"/>
+      <c r="DP11" s="42"/>
+      <c r="DQ11" s="43"/>
     </row>
-    <row r="12" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
       <c r="Z12" s="16">
         <v>10</v>
       </c>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="44"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="43"/>
       <c r="AY12" s="16">
         <v>10</v>
       </c>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="49"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="43"/>
-      <c r="BR12" s="43"/>
-      <c r="BS12" s="44"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="47"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="47"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="47"/>
+      <c r="BJ12" s="47"/>
+      <c r="BK12" s="47"/>
+      <c r="BL12" s="47"/>
+      <c r="BM12" s="47"/>
+      <c r="BN12" s="47"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="48"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="43"/>
       <c r="BX12" s="16">
         <v>10</v>
       </c>
-      <c r="BY12" s="48"/>
-      <c r="BZ12" s="48"/>
-      <c r="CA12" s="48"/>
-      <c r="CB12" s="48"/>
-      <c r="CC12" s="48"/>
-      <c r="CD12" s="48"/>
-      <c r="CE12" s="48"/>
-      <c r="CF12" s="48"/>
-      <c r="CG12" s="48"/>
-      <c r="CH12" s="48"/>
-      <c r="CI12" s="48"/>
-      <c r="CJ12" s="48"/>
-      <c r="CK12" s="48"/>
-      <c r="CL12" s="48"/>
-      <c r="CM12" s="48"/>
-      <c r="CN12" s="49"/>
-      <c r="CO12" s="49"/>
-      <c r="CP12" s="43"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="44"/>
+      <c r="BY12" s="47"/>
+      <c r="BZ12" s="47"/>
+      <c r="CA12" s="47"/>
+      <c r="CB12" s="47"/>
+      <c r="CC12" s="47"/>
+      <c r="CD12" s="47"/>
+      <c r="CE12" s="47"/>
+      <c r="CF12" s="47"/>
+      <c r="CG12" s="47"/>
+      <c r="CH12" s="47"/>
+      <c r="CI12" s="47"/>
+      <c r="CJ12" s="47"/>
+      <c r="CK12" s="47"/>
+      <c r="CL12" s="47"/>
+      <c r="CM12" s="47"/>
+      <c r="CN12" s="48"/>
+      <c r="CO12" s="48"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="43"/>
       <c r="CW12" s="16">
         <v>10</v>
       </c>
-      <c r="CX12" s="48"/>
-      <c r="CY12" s="48"/>
-      <c r="CZ12" s="48"/>
-      <c r="DA12" s="48"/>
-      <c r="DB12" s="48"/>
-      <c r="DC12" s="48"/>
-      <c r="DD12" s="48"/>
-      <c r="DE12" s="48"/>
-      <c r="DF12" s="48"/>
-      <c r="DG12" s="48"/>
-      <c r="DH12" s="48"/>
-      <c r="DI12" s="48"/>
-      <c r="DJ12" s="48"/>
-      <c r="DK12" s="48"/>
-      <c r="DL12" s="48"/>
-      <c r="DM12" s="49"/>
-      <c r="DN12" s="49"/>
-      <c r="DO12" s="43"/>
-      <c r="DP12" s="43"/>
-      <c r="DQ12" s="44"/>
+      <c r="CX12" s="47"/>
+      <c r="CY12" s="47"/>
+      <c r="CZ12" s="47"/>
+      <c r="DA12" s="47"/>
+      <c r="DB12" s="47"/>
+      <c r="DC12" s="47"/>
+      <c r="DD12" s="47"/>
+      <c r="DE12" s="47"/>
+      <c r="DF12" s="47"/>
+      <c r="DG12" s="47"/>
+      <c r="DH12" s="47"/>
+      <c r="DI12" s="47"/>
+      <c r="DJ12" s="47"/>
+      <c r="DK12" s="47"/>
+      <c r="DL12" s="47"/>
+      <c r="DM12" s="48"/>
+      <c r="DN12" s="48"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="43"/>
     </row>
-    <row r="13" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="42">
+      <c r="C13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41">
         <v>15</v>
       </c>
-      <c r="V13" s="44"/>
+      <c r="V13" s="43"/>
       <c r="Z13" s="16">
         <v>9</v>
       </c>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="42">
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="41">
         <v>15</v>
       </c>
-      <c r="AT13" s="44"/>
+      <c r="AT13" s="43"/>
       <c r="AY13" s="16">
         <v>9</v>
       </c>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="48"/>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="49"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="43"/>
-      <c r="BR13" s="42">
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="47"/>
+      <c r="BE13" s="47"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="47"/>
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="47"/>
+      <c r="BM13" s="47"/>
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="48"/>
+      <c r="BP13" s="48"/>
+      <c r="BQ13" s="42"/>
+      <c r="BR13" s="41">
         <v>15</v>
       </c>
-      <c r="BS13" s="44"/>
+      <c r="BS13" s="43"/>
       <c r="BX13" s="16">
         <v>9</v>
       </c>
-      <c r="BY13" s="48"/>
-      <c r="BZ13" s="50"/>
-      <c r="CA13" s="48"/>
-      <c r="CB13" s="48"/>
-      <c r="CC13" s="48"/>
-      <c r="CD13" s="48"/>
-      <c r="CE13" s="48"/>
-      <c r="CF13" s="48"/>
-      <c r="CG13" s="48"/>
-      <c r="CH13" s="48"/>
-      <c r="CI13" s="48"/>
-      <c r="CJ13" s="48"/>
-      <c r="CK13" s="48"/>
-      <c r="CL13" s="48"/>
-      <c r="CM13" s="48"/>
-      <c r="CN13" s="49"/>
-      <c r="CO13" s="49"/>
-      <c r="CP13" s="43"/>
-      <c r="CQ13" s="42">
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="49"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="47"/>
+      <c r="CE13" s="47"/>
+      <c r="CF13" s="47"/>
+      <c r="CG13" s="47"/>
+      <c r="CH13" s="47"/>
+      <c r="CI13" s="47"/>
+      <c r="CJ13" s="47"/>
+      <c r="CK13" s="47"/>
+      <c r="CL13" s="47"/>
+      <c r="CM13" s="47"/>
+      <c r="CN13" s="48"/>
+      <c r="CO13" s="48"/>
+      <c r="CP13" s="42"/>
+      <c r="CQ13" s="41">
         <v>15</v>
       </c>
-      <c r="CR13" s="44"/>
+      <c r="CR13" s="43"/>
       <c r="CW13" s="16">
         <v>9</v>
       </c>
-      <c r="CX13" s="48"/>
-      <c r="CY13" s="50"/>
-      <c r="CZ13" s="48"/>
-      <c r="DA13" s="48"/>
-      <c r="DB13" s="48"/>
-      <c r="DC13" s="48"/>
-      <c r="DD13" s="48"/>
-      <c r="DE13" s="48"/>
-      <c r="DF13" s="48"/>
-      <c r="DG13" s="48"/>
-      <c r="DH13" s="48"/>
-      <c r="DI13" s="48"/>
-      <c r="DJ13" s="48"/>
-      <c r="DK13" s="48"/>
-      <c r="DL13" s="48"/>
-      <c r="DM13" s="49"/>
-      <c r="DN13" s="49"/>
-      <c r="DO13" s="43"/>
-      <c r="DP13" s="42">
+      <c r="CX13" s="47"/>
+      <c r="CY13" s="49"/>
+      <c r="CZ13" s="47"/>
+      <c r="DA13" s="47"/>
+      <c r="DB13" s="47"/>
+      <c r="DC13" s="47"/>
+      <c r="DD13" s="47"/>
+      <c r="DE13" s="47"/>
+      <c r="DF13" s="47"/>
+      <c r="DG13" s="47"/>
+      <c r="DH13" s="47"/>
+      <c r="DI13" s="47"/>
+      <c r="DJ13" s="47"/>
+      <c r="DK13" s="47"/>
+      <c r="DL13" s="47"/>
+      <c r="DM13" s="48"/>
+      <c r="DN13" s="48"/>
+      <c r="DO13" s="42"/>
+      <c r="DP13" s="41">
         <v>15</v>
       </c>
-      <c r="DQ13" s="44"/>
+      <c r="DQ13" s="43"/>
     </row>
-    <row r="14" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="42">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="41">
         <v>7</v>
       </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
       <c r="Z14" s="16">
         <v>8</v>
       </c>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="42">
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="41">
         <v>7</v>
       </c>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="44"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="43"/>
       <c r="AY14" s="16">
         <v>8</v>
       </c>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="50"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="42">
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="47"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="47"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="47"/>
+      <c r="BJ14" s="41">
         <v>7</v>
       </c>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="48"/>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="49"/>
-      <c r="BP14" s="49"/>
-      <c r="BQ14" s="43"/>
-      <c r="BR14" s="43"/>
-      <c r="BS14" s="44"/>
+      <c r="BK14" s="47"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="47"/>
+      <c r="BN14" s="47"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="48"/>
+      <c r="BQ14" s="42"/>
+      <c r="BR14" s="42"/>
+      <c r="BS14" s="43"/>
       <c r="BX14" s="16">
         <v>8</v>
       </c>
-      <c r="BY14" s="48"/>
-      <c r="BZ14" s="48"/>
-      <c r="CA14" s="48"/>
-      <c r="CB14" s="48"/>
-      <c r="CC14" s="48"/>
-      <c r="CD14" s="51"/>
-      <c r="CE14" s="50"/>
-      <c r="CF14" s="48"/>
-      <c r="CG14" s="48"/>
-      <c r="CH14" s="48"/>
-      <c r="CI14" s="42">
+      <c r="BY14" s="47"/>
+      <c r="BZ14" s="47"/>
+      <c r="CA14" s="47"/>
+      <c r="CB14" s="47"/>
+      <c r="CC14" s="47"/>
+      <c r="CD14" s="50"/>
+      <c r="CE14" s="49"/>
+      <c r="CF14" s="47"/>
+      <c r="CG14" s="47"/>
+      <c r="CH14" s="47"/>
+      <c r="CI14" s="41">
         <v>7</v>
       </c>
-      <c r="CJ14" s="48"/>
-      <c r="CK14" s="48"/>
-      <c r="CL14" s="48"/>
-      <c r="CM14" s="48"/>
-      <c r="CN14" s="49"/>
-      <c r="CO14" s="49"/>
-      <c r="CP14" s="43"/>
-      <c r="CQ14" s="43"/>
-      <c r="CR14" s="44"/>
+      <c r="CJ14" s="47"/>
+      <c r="CK14" s="47"/>
+      <c r="CL14" s="47"/>
+      <c r="CM14" s="47"/>
+      <c r="CN14" s="48"/>
+      <c r="CO14" s="48"/>
+      <c r="CP14" s="42"/>
+      <c r="CQ14" s="42"/>
+      <c r="CR14" s="43"/>
       <c r="CW14" s="16">
         <v>8</v>
       </c>
-      <c r="CX14" s="48"/>
-      <c r="CY14" s="48"/>
-      <c r="CZ14" s="48"/>
-      <c r="DA14" s="48"/>
-      <c r="DB14" s="48"/>
-      <c r="DC14" s="51"/>
-      <c r="DD14" s="50"/>
-      <c r="DE14" s="48"/>
-      <c r="DF14" s="48"/>
-      <c r="DG14" s="48"/>
-      <c r="DH14" s="42">
+      <c r="CX14" s="47"/>
+      <c r="CY14" s="47"/>
+      <c r="CZ14" s="47"/>
+      <c r="DA14" s="47"/>
+      <c r="DB14" s="47"/>
+      <c r="DC14" s="50"/>
+      <c r="DD14" s="49"/>
+      <c r="DE14" s="47"/>
+      <c r="DF14" s="47"/>
+      <c r="DG14" s="47"/>
+      <c r="DH14" s="41">
         <v>7</v>
       </c>
-      <c r="DI14" s="48"/>
-      <c r="DJ14" s="48"/>
-      <c r="DK14" s="48"/>
-      <c r="DL14" s="48"/>
-      <c r="DM14" s="49"/>
-      <c r="DN14" s="49"/>
-      <c r="DO14" s="43"/>
-      <c r="DP14" s="43"/>
-      <c r="DQ14" s="44"/>
+      <c r="DI14" s="47"/>
+      <c r="DJ14" s="47"/>
+      <c r="DK14" s="47"/>
+      <c r="DL14" s="47"/>
+      <c r="DM14" s="48"/>
+      <c r="DN14" s="48"/>
+      <c r="DO14" s="42"/>
+      <c r="DP14" s="42"/>
+      <c r="DQ14" s="43"/>
     </row>
-    <row r="15" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="42">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="41">
         <v>8</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
       <c r="Z15" s="16">
         <v>7</v>
       </c>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="42">
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="41">
         <v>8</v>
       </c>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="44"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="43"/>
       <c r="AY15" s="16">
         <v>7</v>
       </c>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="42">
+      <c r="AZ15" s="47"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="47"/>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="47"/>
+      <c r="BE15" s="47"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="47"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="47"/>
+      <c r="BJ15" s="47"/>
+      <c r="BK15" s="41">
         <v>8</v>
       </c>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="48"/>
-      <c r="BN15" s="48"/>
-      <c r="BO15" s="49"/>
-      <c r="BP15" s="49"/>
-      <c r="BQ15" s="43"/>
-      <c r="BR15" s="43"/>
-      <c r="BS15" s="44"/>
+      <c r="BL15" s="47"/>
+      <c r="BM15" s="47"/>
+      <c r="BN15" s="47"/>
+      <c r="BO15" s="48"/>
+      <c r="BP15" s="48"/>
+      <c r="BQ15" s="42"/>
+      <c r="BR15" s="42"/>
+      <c r="BS15" s="43"/>
       <c r="BX15" s="16">
         <v>7</v>
       </c>
-      <c r="BY15" s="48"/>
-      <c r="BZ15" s="48"/>
-      <c r="CA15" s="48"/>
-      <c r="CB15" s="48"/>
-      <c r="CC15" s="48"/>
-      <c r="CD15" s="48"/>
-      <c r="CE15" s="48"/>
-      <c r="CF15" s="48"/>
-      <c r="CG15" s="48"/>
-      <c r="CH15" s="48"/>
-      <c r="CI15" s="48"/>
-      <c r="CJ15" s="42">
+      <c r="BY15" s="47"/>
+      <c r="BZ15" s="47"/>
+      <c r="CA15" s="47"/>
+      <c r="CB15" s="47"/>
+      <c r="CC15" s="47"/>
+      <c r="CD15" s="47"/>
+      <c r="CE15" s="47"/>
+      <c r="CF15" s="47"/>
+      <c r="CG15" s="47"/>
+      <c r="CH15" s="47"/>
+      <c r="CI15" s="47"/>
+      <c r="CJ15" s="41">
         <v>8</v>
       </c>
-      <c r="CK15" s="48"/>
-      <c r="CL15" s="48"/>
-      <c r="CM15" s="48"/>
-      <c r="CN15" s="49"/>
-      <c r="CO15" s="49"/>
-      <c r="CP15" s="43"/>
-      <c r="CQ15" s="43"/>
-      <c r="CR15" s="44"/>
+      <c r="CK15" s="47"/>
+      <c r="CL15" s="47"/>
+      <c r="CM15" s="47"/>
+      <c r="CN15" s="48"/>
+      <c r="CO15" s="48"/>
+      <c r="CP15" s="42"/>
+      <c r="CQ15" s="42"/>
+      <c r="CR15" s="43"/>
       <c r="CW15" s="16">
         <v>7</v>
       </c>
-      <c r="CX15" s="48"/>
-      <c r="CY15" s="48"/>
-      <c r="CZ15" s="48"/>
-      <c r="DA15" s="48"/>
-      <c r="DB15" s="48"/>
-      <c r="DC15" s="48"/>
-      <c r="DD15" s="48"/>
-      <c r="DE15" s="48"/>
-      <c r="DF15" s="48"/>
-      <c r="DG15" s="48"/>
-      <c r="DH15" s="48"/>
-      <c r="DI15" s="42">
+      <c r="CX15" s="47"/>
+      <c r="CY15" s="47"/>
+      <c r="CZ15" s="47"/>
+      <c r="DA15" s="47"/>
+      <c r="DB15" s="47"/>
+      <c r="DC15" s="47"/>
+      <c r="DD15" s="47"/>
+      <c r="DE15" s="47"/>
+      <c r="DF15" s="47"/>
+      <c r="DG15" s="47"/>
+      <c r="DH15" s="47"/>
+      <c r="DI15" s="41">
         <v>8</v>
       </c>
-      <c r="DJ15" s="48"/>
-      <c r="DK15" s="48"/>
-      <c r="DL15" s="48"/>
-      <c r="DM15" s="49"/>
-      <c r="DN15" s="49"/>
-      <c r="DO15" s="43"/>
-      <c r="DP15" s="43"/>
-      <c r="DQ15" s="44"/>
+      <c r="DJ15" s="47"/>
+      <c r="DK15" s="47"/>
+      <c r="DL15" s="47"/>
+      <c r="DM15" s="48"/>
+      <c r="DN15" s="48"/>
+      <c r="DO15" s="42"/>
+      <c r="DP15" s="42"/>
+      <c r="DQ15" s="43"/>
     </row>
-    <row r="16" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="42">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="41">
         <v>12</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="44"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
       <c r="Z16" s="16">
         <v>6</v>
       </c>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="42">
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="41">
         <v>12</v>
       </c>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="44"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="43"/>
       <c r="AY16" s="16">
         <v>6</v>
       </c>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="48"/>
-      <c r="BK16" s="48"/>
-      <c r="BL16" s="48"/>
-      <c r="BM16" s="48"/>
-      <c r="BN16" s="48"/>
-      <c r="BO16" s="42">
+      <c r="AZ16" s="47"/>
+      <c r="BA16" s="47"/>
+      <c r="BB16" s="47"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="47"/>
+      <c r="BE16" s="47"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="47"/>
+      <c r="BH16" s="47"/>
+      <c r="BI16" s="47"/>
+      <c r="BJ16" s="47"/>
+      <c r="BK16" s="47"/>
+      <c r="BL16" s="47"/>
+      <c r="BM16" s="47"/>
+      <c r="BN16" s="47"/>
+      <c r="BO16" s="41">
         <v>12</v>
       </c>
-      <c r="BP16" s="49"/>
-      <c r="BQ16" s="43"/>
-      <c r="BR16" s="43"/>
-      <c r="BS16" s="44"/>
+      <c r="BP16" s="48"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="43"/>
       <c r="BX16" s="16">
         <v>6</v>
       </c>
-      <c r="BY16" s="48"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="50"/>
-      <c r="CC16" s="48"/>
-      <c r="CD16" s="48"/>
-      <c r="CE16" s="48"/>
-      <c r="CF16" s="48"/>
-      <c r="CG16" s="48"/>
-      <c r="CH16" s="48"/>
-      <c r="CI16" s="48"/>
-      <c r="CJ16" s="48"/>
-      <c r="CK16" s="48"/>
-      <c r="CL16" s="48"/>
-      <c r="CM16" s="48"/>
-      <c r="CN16" s="42">
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="47"/>
+      <c r="CA16" s="47"/>
+      <c r="CB16" s="49"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="47"/>
+      <c r="CK16" s="47"/>
+      <c r="CL16" s="47"/>
+      <c r="CM16" s="47"/>
+      <c r="CN16" s="41">
         <v>12</v>
       </c>
-      <c r="CO16" s="49"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="44"/>
+      <c r="CO16" s="48"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="43"/>
       <c r="CW16" s="16">
         <v>6</v>
       </c>
-      <c r="CX16" s="48"/>
-      <c r="CY16" s="48"/>
-      <c r="CZ16" s="48"/>
-      <c r="DA16" s="50"/>
-      <c r="DB16" s="48"/>
-      <c r="DC16" s="48"/>
-      <c r="DD16" s="48"/>
-      <c r="DE16" s="48"/>
-      <c r="DF16" s="48"/>
-      <c r="DG16" s="48"/>
-      <c r="DH16" s="48"/>
-      <c r="DI16" s="48"/>
-      <c r="DJ16" s="48"/>
-      <c r="DK16" s="48"/>
-      <c r="DL16" s="48"/>
-      <c r="DM16" s="42">
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
+      <c r="DA16" s="49"/>
+      <c r="DB16" s="47"/>
+      <c r="DC16" s="47"/>
+      <c r="DD16" s="47"/>
+      <c r="DE16" s="47"/>
+      <c r="DF16" s="47"/>
+      <c r="DG16" s="47"/>
+      <c r="DH16" s="47"/>
+      <c r="DI16" s="47"/>
+      <c r="DJ16" s="47"/>
+      <c r="DK16" s="47"/>
+      <c r="DL16" s="47"/>
+      <c r="DM16" s="41">
         <v>12</v>
       </c>
-      <c r="DN16" s="49"/>
-      <c r="DO16" s="43"/>
-      <c r="DP16" s="43"/>
-      <c r="DQ16" s="44"/>
+      <c r="DN16" s="48"/>
+      <c r="DO16" s="42"/>
+      <c r="DP16" s="42"/>
+      <c r="DQ16" s="43"/>
     </row>
-    <row r="17" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="42">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="41">
         <v>11</v>
       </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
       <c r="Z17" s="16">
         <v>5</v>
       </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="42">
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="41">
         <v>11</v>
       </c>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="43"/>
-      <c r="AT17" s="44"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="43"/>
       <c r="AY17" s="16">
         <v>5</v>
       </c>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48"/>
-      <c r="BJ17" s="48"/>
-      <c r="BK17" s="48"/>
-      <c r="BL17" s="48"/>
-      <c r="BM17" s="48"/>
-      <c r="BN17" s="42">
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="47"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="47"/>
+      <c r="BM17" s="47"/>
+      <c r="BN17" s="41">
         <v>11</v>
       </c>
-      <c r="BO17" s="43"/>
-      <c r="BP17" s="43"/>
-      <c r="BQ17" s="43"/>
-      <c r="BR17" s="43"/>
-      <c r="BS17" s="44"/>
+      <c r="BO17" s="42"/>
+      <c r="BP17" s="42"/>
+      <c r="BQ17" s="42"/>
+      <c r="BR17" s="42"/>
+      <c r="BS17" s="43"/>
       <c r="BX17" s="16">
         <v>5</v>
       </c>
-      <c r="BY17" s="48"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="48"/>
-      <c r="CC17" s="48"/>
-      <c r="CD17" s="48"/>
-      <c r="CE17" s="48"/>
-      <c r="CF17" s="48"/>
-      <c r="CG17" s="48"/>
-      <c r="CH17" s="48"/>
-      <c r="CI17" s="48"/>
-      <c r="CJ17" s="48"/>
-      <c r="CK17" s="48"/>
-      <c r="CL17" s="48"/>
-      <c r="CM17" s="42">
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="47"/>
+      <c r="CA17" s="47"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
+      <c r="CL17" s="47"/>
+      <c r="CM17" s="41">
         <v>11</v>
       </c>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="44"/>
+      <c r="CN17" s="42"/>
+      <c r="CO17" s="42"/>
+      <c r="CP17" s="42"/>
+      <c r="CQ17" s="42"/>
+      <c r="CR17" s="43"/>
       <c r="CW17" s="16">
         <v>5</v>
       </c>
-      <c r="CX17" s="48"/>
-      <c r="CY17" s="48"/>
-      <c r="CZ17" s="48"/>
-      <c r="DA17" s="48"/>
-      <c r="DB17" s="48"/>
-      <c r="DC17" s="48"/>
-      <c r="DD17" s="48"/>
-      <c r="DE17" s="48"/>
-      <c r="DF17" s="48"/>
-      <c r="DG17" s="48"/>
-      <c r="DH17" s="48"/>
-      <c r="DI17" s="48"/>
-      <c r="DJ17" s="48"/>
-      <c r="DK17" s="48"/>
-      <c r="DL17" s="42">
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
+      <c r="DA17" s="47"/>
+      <c r="DB17" s="47"/>
+      <c r="DC17" s="47"/>
+      <c r="DD17" s="47"/>
+      <c r="DE17" s="47"/>
+      <c r="DF17" s="47"/>
+      <c r="DG17" s="47"/>
+      <c r="DH17" s="47"/>
+      <c r="DI17" s="47"/>
+      <c r="DJ17" s="47"/>
+      <c r="DK17" s="47"/>
+      <c r="DL17" s="41">
         <v>11</v>
       </c>
-      <c r="DM17" s="43"/>
-      <c r="DN17" s="43"/>
-      <c r="DO17" s="43"/>
-      <c r="DP17" s="43"/>
-      <c r="DQ17" s="44"/>
+      <c r="DM17" s="42"/>
+      <c r="DN17" s="42"/>
+      <c r="DO17" s="42"/>
+      <c r="DP17" s="42"/>
+      <c r="DQ17" s="43"/>
     </row>
-    <row r="18" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="42">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="41">
         <v>14</v>
       </c>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
       <c r="Z18" s="16">
         <v>4</v>
       </c>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="42">
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="41">
         <v>14</v>
       </c>
-      <c r="AS18" s="43"/>
-      <c r="AT18" s="44"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="43"/>
       <c r="AY18" s="16">
         <v>4</v>
       </c>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="43"/>
-      <c r="BP18" s="43"/>
-      <c r="BQ18" s="42">
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="51"/>
+      <c r="BO18" s="42"/>
+      <c r="BP18" s="42"/>
+      <c r="BQ18" s="41">
         <v>14</v>
       </c>
-      <c r="BR18" s="43"/>
-      <c r="BS18" s="44"/>
+      <c r="BR18" s="42"/>
+      <c r="BS18" s="43"/>
       <c r="BX18" s="16">
         <v>4</v>
       </c>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="52"/>
-      <c r="CA18" s="52"/>
-      <c r="CB18" s="52"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
-      <c r="CE18" s="52"/>
-      <c r="CF18" s="52"/>
-      <c r="CG18" s="52"/>
-      <c r="CH18" s="52"/>
-      <c r="CI18" s="52"/>
-      <c r="CJ18" s="52"/>
-      <c r="CK18" s="52"/>
-      <c r="CL18" s="52"/>
-      <c r="CM18" s="52"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="42">
+      <c r="BY18" s="51"/>
+      <c r="BZ18" s="51"/>
+      <c r="CA18" s="51"/>
+      <c r="CB18" s="51"/>
+      <c r="CC18" s="51"/>
+      <c r="CD18" s="51"/>
+      <c r="CE18" s="51"/>
+      <c r="CF18" s="51"/>
+      <c r="CG18" s="51"/>
+      <c r="CH18" s="51"/>
+      <c r="CI18" s="51"/>
+      <c r="CJ18" s="51"/>
+      <c r="CK18" s="51"/>
+      <c r="CL18" s="51"/>
+      <c r="CM18" s="51"/>
+      <c r="CN18" s="42"/>
+      <c r="CO18" s="42"/>
+      <c r="CP18" s="41">
         <v>14</v>
       </c>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="44"/>
+      <c r="CQ18" s="42"/>
+      <c r="CR18" s="43"/>
       <c r="CW18" s="16">
         <v>4</v>
       </c>
-      <c r="CX18" s="44"/>
-      <c r="CY18" s="44"/>
-      <c r="CZ18" s="44"/>
-      <c r="DA18" s="44"/>
-      <c r="DB18" s="44"/>
-      <c r="DC18" s="44"/>
-      <c r="DD18" s="44"/>
-      <c r="DE18" s="44"/>
-      <c r="DF18" s="44"/>
-      <c r="DG18" s="44"/>
-      <c r="DH18" s="44"/>
-      <c r="DI18" s="44"/>
-      <c r="DJ18" s="44"/>
-      <c r="DK18" s="44"/>
-      <c r="DL18" s="44"/>
-      <c r="DM18" s="43"/>
-      <c r="DN18" s="43"/>
-      <c r="DO18" s="42">
+      <c r="CX18" s="43"/>
+      <c r="CY18" s="43"/>
+      <c r="CZ18" s="43"/>
+      <c r="DA18" s="43"/>
+      <c r="DB18" s="43"/>
+      <c r="DC18" s="43"/>
+      <c r="DD18" s="43"/>
+      <c r="DE18" s="43"/>
+      <c r="DF18" s="43"/>
+      <c r="DG18" s="43"/>
+      <c r="DH18" s="43"/>
+      <c r="DI18" s="43"/>
+      <c r="DJ18" s="43"/>
+      <c r="DK18" s="43"/>
+      <c r="DL18" s="43"/>
+      <c r="DM18" s="42"/>
+      <c r="DN18" s="42"/>
+      <c r="DO18" s="41">
         <v>14</v>
       </c>
-      <c r="DP18" s="43"/>
-      <c r="DQ18" s="44"/>
+      <c r="DP18" s="42"/>
+      <c r="DQ18" s="43"/>
     </row>
-    <row r="19" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="44"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
       <c r="Z19" s="16">
         <v>3</v>
       </c>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="43"/>
-      <c r="AT19" s="44"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="43"/>
       <c r="AY19" s="16">
         <v>3</v>
       </c>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="43"/>
-      <c r="BP19" s="43"/>
-      <c r="BQ19" s="43"/>
-      <c r="BR19" s="43"/>
-      <c r="BS19" s="44"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="51"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="51"/>
+      <c r="BL19" s="51"/>
+      <c r="BM19" s="51"/>
+      <c r="BN19" s="51"/>
+      <c r="BO19" s="42"/>
+      <c r="BP19" s="42"/>
+      <c r="BQ19" s="42"/>
+      <c r="BR19" s="42"/>
+      <c r="BS19" s="43"/>
       <c r="BX19" s="16">
         <v>3</v>
       </c>
-      <c r="BY19" s="44"/>
-      <c r="BZ19" s="44"/>
-      <c r="CA19" s="44"/>
-      <c r="CB19" s="44"/>
-      <c r="CC19" s="44"/>
-      <c r="CD19" s="44"/>
-      <c r="CE19" s="44"/>
-      <c r="CF19" s="44"/>
-      <c r="CG19" s="44"/>
-      <c r="CH19" s="44"/>
-      <c r="CI19" s="44"/>
-      <c r="CJ19" s="44"/>
-      <c r="CK19" s="44"/>
-      <c r="CL19" s="44"/>
-      <c r="CM19" s="44"/>
-      <c r="CN19" s="43"/>
-      <c r="CO19" s="43"/>
-      <c r="CP19" s="43"/>
-      <c r="CQ19" s="43"/>
-      <c r="CR19" s="44"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="43"/>
+      <c r="CC19" s="43"/>
+      <c r="CD19" s="43"/>
+      <c r="CE19" s="43"/>
+      <c r="CF19" s="43"/>
+      <c r="CG19" s="43"/>
+      <c r="CH19" s="43"/>
+      <c r="CI19" s="43"/>
+      <c r="CJ19" s="43"/>
+      <c r="CK19" s="43"/>
+      <c r="CL19" s="43"/>
+      <c r="CM19" s="43"/>
+      <c r="CN19" s="42"/>
+      <c r="CO19" s="42"/>
+      <c r="CP19" s="42"/>
+      <c r="CQ19" s="42"/>
+      <c r="CR19" s="43"/>
       <c r="CW19" s="16">
         <v>3</v>
       </c>
-      <c r="CX19" s="44"/>
-      <c r="CY19" s="44"/>
-      <c r="CZ19" s="44"/>
-      <c r="DA19" s="44"/>
-      <c r="DB19" s="44"/>
-      <c r="DC19" s="44"/>
-      <c r="DD19" s="44"/>
-      <c r="DE19" s="44"/>
-      <c r="DF19" s="44"/>
-      <c r="DG19" s="44"/>
-      <c r="DH19" s="44"/>
-      <c r="DI19" s="44"/>
-      <c r="DJ19" s="44"/>
-      <c r="DK19" s="44"/>
-      <c r="DL19" s="44"/>
-      <c r="DM19" s="43"/>
-      <c r="DN19" s="43"/>
-      <c r="DO19" s="43"/>
-      <c r="DP19" s="43"/>
-      <c r="DQ19" s="44"/>
+      <c r="CX19" s="43"/>
+      <c r="CY19" s="43"/>
+      <c r="CZ19" s="43"/>
+      <c r="DA19" s="43"/>
+      <c r="DB19" s="43"/>
+      <c r="DC19" s="43"/>
+      <c r="DD19" s="43"/>
+      <c r="DE19" s="43"/>
+      <c r="DF19" s="43"/>
+      <c r="DG19" s="43"/>
+      <c r="DH19" s="43"/>
+      <c r="DI19" s="43"/>
+      <c r="DJ19" s="43"/>
+      <c r="DK19" s="43"/>
+      <c r="DL19" s="43"/>
+      <c r="DM19" s="42"/>
+      <c r="DN19" s="42"/>
+      <c r="DO19" s="42"/>
+      <c r="DP19" s="42"/>
+      <c r="DQ19" s="43"/>
     </row>
-    <row r="20" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="42">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="41">
         <v>10</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="44"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
       <c r="Z20" s="16">
         <v>2</v>
       </c>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="42">
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="41">
         <v>10</v>
       </c>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="43"/>
-      <c r="AT20" s="44"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="43"/>
       <c r="AY20" s="16">
         <v>2</v>
       </c>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-      <c r="BM20" s="42">
+      <c r="AZ20" s="43"/>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="43"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="43"/>
+      <c r="BF20" s="43"/>
+      <c r="BG20" s="43"/>
+      <c r="BH20" s="43"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="43"/>
+      <c r="BL20" s="43"/>
+      <c r="BM20" s="41">
         <v>10</v>
       </c>
-      <c r="BN20" s="44"/>
-      <c r="BO20" s="43"/>
-      <c r="BP20" s="43"/>
-      <c r="BQ20" s="43"/>
-      <c r="BR20" s="43"/>
-      <c r="BS20" s="44"/>
+      <c r="BN20" s="43"/>
+      <c r="BO20" s="42"/>
+      <c r="BP20" s="42"/>
+      <c r="BQ20" s="42"/>
+      <c r="BR20" s="42"/>
+      <c r="BS20" s="43"/>
       <c r="BX20" s="16">
         <v>2</v>
       </c>
-      <c r="BY20" s="44"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="44"/>
-      <c r="CC20" s="44"/>
-      <c r="CD20" s="44"/>
-      <c r="CE20" s="44"/>
-      <c r="CF20" s="44"/>
-      <c r="CG20" s="44"/>
-      <c r="CH20" s="44"/>
-      <c r="CI20" s="44"/>
-      <c r="CJ20" s="44"/>
-      <c r="CK20" s="44"/>
-      <c r="CL20" s="42">
+      <c r="BY20" s="43"/>
+      <c r="BZ20" s="43"/>
+      <c r="CA20" s="43"/>
+      <c r="CB20" s="43"/>
+      <c r="CC20" s="43"/>
+      <c r="CD20" s="43"/>
+      <c r="CE20" s="43"/>
+      <c r="CF20" s="43"/>
+      <c r="CG20" s="43"/>
+      <c r="CH20" s="43"/>
+      <c r="CI20" s="43"/>
+      <c r="CJ20" s="43"/>
+      <c r="CK20" s="43"/>
+      <c r="CL20" s="41">
         <v>10</v>
       </c>
-      <c r="CM20" s="44"/>
-      <c r="CN20" s="43"/>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="44"/>
+      <c r="CM20" s="43"/>
+      <c r="CN20" s="42"/>
+      <c r="CO20" s="42"/>
+      <c r="CP20" s="42"/>
+      <c r="CQ20" s="42"/>
+      <c r="CR20" s="43"/>
       <c r="CW20" s="16">
         <v>2</v>
       </c>
-      <c r="CX20" s="44"/>
-      <c r="CY20" s="44"/>
-      <c r="CZ20" s="44"/>
-      <c r="DA20" s="44"/>
-      <c r="DB20" s="44"/>
-      <c r="DC20" s="44"/>
-      <c r="DD20" s="44"/>
-      <c r="DE20" s="44"/>
-      <c r="DF20" s="44"/>
-      <c r="DG20" s="44"/>
-      <c r="DH20" s="44"/>
-      <c r="DI20" s="44"/>
-      <c r="DJ20" s="44"/>
-      <c r="DK20" s="42">
+      <c r="CX20" s="43"/>
+      <c r="CY20" s="43"/>
+      <c r="CZ20" s="43"/>
+      <c r="DA20" s="43"/>
+      <c r="DB20" s="43"/>
+      <c r="DC20" s="43"/>
+      <c r="DD20" s="43"/>
+      <c r="DE20" s="43"/>
+      <c r="DF20" s="43"/>
+      <c r="DG20" s="43"/>
+      <c r="DH20" s="43"/>
+      <c r="DI20" s="43"/>
+      <c r="DJ20" s="43"/>
+      <c r="DK20" s="41">
         <v>10</v>
       </c>
-      <c r="DL20" s="44"/>
-      <c r="DM20" s="43"/>
-      <c r="DN20" s="43"/>
-      <c r="DO20" s="43"/>
-      <c r="DP20" s="43"/>
-      <c r="DQ20" s="44"/>
+      <c r="DL20" s="43"/>
+      <c r="DM20" s="42"/>
+      <c r="DN20" s="42"/>
+      <c r="DO20" s="42"/>
+      <c r="DP20" s="42"/>
+      <c r="DQ20" s="43"/>
     </row>
-    <row r="21" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>1</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="42">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="41">
         <v>2</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
       <c r="Z21" s="16">
         <v>1</v>
       </c>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="42">
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="41">
         <v>2</v>
       </c>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="43"/>
-      <c r="AT21" s="44"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="43"/>
       <c r="AY21" s="16">
         <v>1</v>
       </c>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="42">
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="41">
         <v>2</v>
       </c>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
-      <c r="BM21" s="44"/>
-      <c r="BN21" s="44"/>
-      <c r="BO21" s="43"/>
-      <c r="BP21" s="43"/>
-      <c r="BQ21" s="43"/>
-      <c r="BR21" s="43"/>
-      <c r="BS21" s="44"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="43"/>
+      <c r="BG21" s="43"/>
+      <c r="BH21" s="43"/>
+      <c r="BI21" s="43"/>
+      <c r="BJ21" s="43"/>
+      <c r="BK21" s="43"/>
+      <c r="BL21" s="43"/>
+      <c r="BM21" s="43"/>
+      <c r="BN21" s="43"/>
+      <c r="BO21" s="42"/>
+      <c r="BP21" s="42"/>
+      <c r="BQ21" s="42"/>
+      <c r="BR21" s="42"/>
+      <c r="BS21" s="43"/>
       <c r="BX21" s="16">
         <v>1</v>
       </c>
-      <c r="BY21" s="44"/>
-      <c r="BZ21" s="44"/>
-      <c r="CA21" s="42">
+      <c r="BY21" s="43"/>
+      <c r="BZ21" s="43"/>
+      <c r="CA21" s="41">
         <v>2</v>
       </c>
-      <c r="CB21" s="44"/>
-      <c r="CC21" s="44"/>
-      <c r="CD21" s="44"/>
-      <c r="CE21" s="44"/>
-      <c r="CF21" s="44"/>
-      <c r="CG21" s="44"/>
-      <c r="CH21" s="44"/>
-      <c r="CI21" s="44"/>
-      <c r="CJ21" s="44"/>
-      <c r="CK21" s="44"/>
-      <c r="CL21" s="44"/>
-      <c r="CM21" s="44"/>
-      <c r="CN21" s="43"/>
-      <c r="CO21" s="43"/>
-      <c r="CP21" s="43"/>
-      <c r="CQ21" s="43"/>
-      <c r="CR21" s="44"/>
+      <c r="CB21" s="43"/>
+      <c r="CC21" s="43"/>
+      <c r="CD21" s="43"/>
+      <c r="CE21" s="43"/>
+      <c r="CF21" s="43"/>
+      <c r="CG21" s="43"/>
+      <c r="CH21" s="43"/>
+      <c r="CI21" s="43"/>
+      <c r="CJ21" s="43"/>
+      <c r="CK21" s="43"/>
+      <c r="CL21" s="43"/>
+      <c r="CM21" s="43"/>
+      <c r="CN21" s="42"/>
+      <c r="CO21" s="42"/>
+      <c r="CP21" s="42"/>
+      <c r="CQ21" s="42"/>
+      <c r="CR21" s="43"/>
       <c r="CW21" s="16">
         <v>1</v>
       </c>
-      <c r="CX21" s="44"/>
-      <c r="CY21" s="44"/>
-      <c r="CZ21" s="42">
+      <c r="CX21" s="43"/>
+      <c r="CY21" s="43"/>
+      <c r="CZ21" s="41">
         <v>2</v>
       </c>
-      <c r="DA21" s="44"/>
-      <c r="DB21" s="44"/>
-      <c r="DC21" s="44"/>
-      <c r="DD21" s="44"/>
-      <c r="DE21" s="44"/>
-      <c r="DF21" s="44"/>
-      <c r="DG21" s="44"/>
-      <c r="DH21" s="44"/>
-      <c r="DI21" s="44"/>
-      <c r="DJ21" s="44"/>
-      <c r="DK21" s="44"/>
-      <c r="DL21" s="44"/>
-      <c r="DM21" s="43"/>
-      <c r="DN21" s="43"/>
-      <c r="DO21" s="43"/>
-      <c r="DP21" s="43"/>
-      <c r="DQ21" s="44"/>
+      <c r="DA21" s="43"/>
+      <c r="DB21" s="43"/>
+      <c r="DC21" s="43"/>
+      <c r="DD21" s="43"/>
+      <c r="DE21" s="43"/>
+      <c r="DF21" s="43"/>
+      <c r="DG21" s="43"/>
+      <c r="DH21" s="43"/>
+      <c r="DI21" s="43"/>
+      <c r="DJ21" s="43"/>
+      <c r="DK21" s="43"/>
+      <c r="DL21" s="43"/>
+      <c r="DM21" s="42"/>
+      <c r="DN21" s="42"/>
+      <c r="DO21" s="42"/>
+      <c r="DP21" s="42"/>
+      <c r="DQ21" s="43"/>
     </row>
-    <row r="22" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56">
         <v>9</v>
       </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
       <c r="Z22" s="16">
         <v>0</v>
       </c>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="57">
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="56">
         <v>9</v>
       </c>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="56"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
       <c r="AY22" s="16">
         <v>0</v>
       </c>
-      <c r="AZ22" s="56"/>
-      <c r="BA22" s="56"/>
-      <c r="BB22" s="56"/>
-      <c r="BC22" s="56"/>
-      <c r="BD22" s="56"/>
-      <c r="BE22" s="56"/>
-      <c r="BF22" s="56"/>
-      <c r="BG22" s="56"/>
-      <c r="BH22" s="56"/>
-      <c r="BI22" s="56"/>
-      <c r="BJ22" s="56"/>
-      <c r="BK22" s="56"/>
-      <c r="BL22" s="57">
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
+      <c r="BK22" s="55"/>
+      <c r="BL22" s="56">
         <v>9</v>
       </c>
-      <c r="BM22" s="56"/>
-      <c r="BN22" s="56"/>
-      <c r="BO22" s="56"/>
-      <c r="BP22" s="56"/>
-      <c r="BQ22" s="56"/>
-      <c r="BR22" s="56"/>
-      <c r="BS22" s="56"/>
+      <c r="BM22" s="55"/>
+      <c r="BN22" s="55"/>
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
+      <c r="BQ22" s="55"/>
+      <c r="BR22" s="55"/>
+      <c r="BS22" s="55"/>
       <c r="BX22" s="16">
         <v>0</v>
       </c>
-      <c r="BY22" s="56"/>
-      <c r="BZ22" s="56"/>
-      <c r="CA22" s="56"/>
-      <c r="CB22" s="56"/>
-      <c r="CC22" s="56"/>
-      <c r="CD22" s="56"/>
-      <c r="CE22" s="56"/>
-      <c r="CF22" s="56"/>
-      <c r="CG22" s="56"/>
-      <c r="CH22" s="56"/>
-      <c r="CI22" s="56"/>
-      <c r="CJ22" s="56"/>
-      <c r="CK22" s="57">
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="55"/>
+      <c r="CA22" s="55"/>
+      <c r="CB22" s="55"/>
+      <c r="CC22" s="55"/>
+      <c r="CD22" s="55"/>
+      <c r="CE22" s="55"/>
+      <c r="CF22" s="55"/>
+      <c r="CG22" s="55"/>
+      <c r="CH22" s="55"/>
+      <c r="CI22" s="55"/>
+      <c r="CJ22" s="55"/>
+      <c r="CK22" s="56">
         <v>9</v>
       </c>
-      <c r="CL22" s="56"/>
-      <c r="CM22" s="56"/>
-      <c r="CN22" s="56"/>
-      <c r="CO22" s="56"/>
-      <c r="CP22" s="56"/>
-      <c r="CQ22" s="56"/>
-      <c r="CR22" s="56"/>
+      <c r="CL22" s="55"/>
+      <c r="CM22" s="55"/>
+      <c r="CN22" s="55"/>
+      <c r="CO22" s="55"/>
+      <c r="CP22" s="55"/>
+      <c r="CQ22" s="55"/>
+      <c r="CR22" s="55"/>
       <c r="CW22" s="16">
         <v>0</v>
       </c>
-      <c r="CX22" s="56"/>
-      <c r="CY22" s="56"/>
-      <c r="CZ22" s="56"/>
-      <c r="DA22" s="56"/>
-      <c r="DB22" s="56"/>
-      <c r="DC22" s="56"/>
-      <c r="DD22" s="56"/>
-      <c r="DE22" s="56"/>
-      <c r="DF22" s="56"/>
-      <c r="DG22" s="56"/>
-      <c r="DH22" s="56"/>
-      <c r="DI22" s="56"/>
-      <c r="DJ22" s="57">
+      <c r="CX22" s="55"/>
+      <c r="CY22" s="55"/>
+      <c r="CZ22" s="55"/>
+      <c r="DA22" s="55"/>
+      <c r="DB22" s="55"/>
+      <c r="DC22" s="55"/>
+      <c r="DD22" s="55"/>
+      <c r="DE22" s="55"/>
+      <c r="DF22" s="55"/>
+      <c r="DG22" s="55"/>
+      <c r="DH22" s="55"/>
+      <c r="DI22" s="55"/>
+      <c r="DJ22" s="56">
         <v>9</v>
       </c>
-      <c r="DK22" s="56"/>
-      <c r="DL22" s="56"/>
-      <c r="DM22" s="56"/>
-      <c r="DN22" s="56"/>
-      <c r="DO22" s="56"/>
-      <c r="DP22" s="56"/>
-      <c r="DQ22" s="56"/>
+      <c r="DK22" s="55"/>
+      <c r="DL22" s="55"/>
+      <c r="DM22" s="55"/>
+      <c r="DN22" s="55"/>
+      <c r="DO22" s="55"/>
+      <c r="DP22" s="55"/>
+      <c r="DQ22" s="55"/>
     </row>
-    <row r="23" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>-1</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>0</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="54">
         <v>1</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="54">
         <v>2</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="54">
         <v>3</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="54">
         <v>4</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="54">
         <v>5</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="54">
         <v>6</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="54">
         <v>7</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="54">
         <v>8</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="54">
         <v>9</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="54">
         <v>10</v>
       </c>
-      <c r="N23" s="55">
+      <c r="N23" s="54">
         <v>11</v>
       </c>
-      <c r="O23" s="55">
+      <c r="O23" s="54">
         <v>12</v>
       </c>
-      <c r="P23" s="55">
+      <c r="P23" s="54">
         <v>13</v>
       </c>
-      <c r="Q23" s="55">
+      <c r="Q23" s="54">
         <v>14</v>
       </c>
-      <c r="R23" s="55">
+      <c r="R23" s="54">
         <v>15</v>
       </c>
-      <c r="S23" s="55">
+      <c r="S23" s="54">
         <v>16</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="54">
         <v>17</v>
       </c>
-      <c r="U23" s="55">
+      <c r="U23" s="54">
         <v>18</v>
       </c>
-      <c r="V23" s="55">
+      <c r="V23" s="54">
         <v>19</v>
       </c>
       <c r="Z23" s="16">
         <v>-1</v>
       </c>
-      <c r="AA23" s="55">
+      <c r="AA23" s="54">
         <v>0</v>
       </c>
-      <c r="AB23" s="55">
+      <c r="AB23" s="54">
         <v>1</v>
       </c>
-      <c r="AC23" s="55">
+      <c r="AC23" s="54">
         <v>2</v>
       </c>
-      <c r="AD23" s="55">
+      <c r="AD23" s="54">
         <v>3</v>
       </c>
-      <c r="AE23" s="55">
+      <c r="AE23" s="54">
         <v>4</v>
       </c>
-      <c r="AF23" s="55">
+      <c r="AF23" s="54">
         <v>5</v>
       </c>
-      <c r="AG23" s="55">
+      <c r="AG23" s="54">
         <v>6</v>
       </c>
-      <c r="AH23" s="55">
+      <c r="AH23" s="54">
         <v>7</v>
       </c>
-      <c r="AI23" s="55">
+      <c r="AI23" s="54">
         <v>8</v>
       </c>
-      <c r="AJ23" s="55">
+      <c r="AJ23" s="54">
         <v>9</v>
       </c>
-      <c r="AK23" s="55">
+      <c r="AK23" s="54">
         <v>10</v>
       </c>
-      <c r="AL23" s="55">
+      <c r="AL23" s="54">
         <v>11</v>
       </c>
-      <c r="AM23" s="55">
+      <c r="AM23" s="54">
         <v>12</v>
       </c>
-      <c r="AN23" s="55">
+      <c r="AN23" s="54">
         <v>13</v>
       </c>
-      <c r="AO23" s="55">
+      <c r="AO23" s="54">
         <v>14</v>
       </c>
-      <c r="AP23" s="55">
+      <c r="AP23" s="54">
         <v>15</v>
       </c>
-      <c r="AQ23" s="55">
+      <c r="AQ23" s="54">
         <v>16</v>
       </c>
-      <c r="AR23" s="55">
+      <c r="AR23" s="54">
         <v>17</v>
       </c>
-      <c r="AS23" s="55">
+      <c r="AS23" s="54">
         <v>18</v>
       </c>
-      <c r="AT23" s="55">
+      <c r="AT23" s="54">
         <v>19</v>
       </c>
       <c r="AY23" s="16">
         <v>-1</v>
       </c>
-      <c r="AZ23" s="55">
+      <c r="AZ23" s="54">
         <v>0</v>
       </c>
-      <c r="BA23" s="55">
+      <c r="BA23" s="54">
         <v>1</v>
       </c>
-      <c r="BB23" s="55">
+      <c r="BB23" s="54">
         <v>2</v>
       </c>
-      <c r="BC23" s="55">
+      <c r="BC23" s="54">
         <v>3</v>
       </c>
-      <c r="BD23" s="55">
+      <c r="BD23" s="54">
         <v>4</v>
       </c>
-      <c r="BE23" s="55">
+      <c r="BE23" s="54">
         <v>5</v>
       </c>
-      <c r="BF23" s="55">
+      <c r="BF23" s="54">
         <v>6</v>
       </c>
-      <c r="BG23" s="55">
+      <c r="BG23" s="54">
         <v>7</v>
       </c>
-      <c r="BH23" s="55">
+      <c r="BH23" s="54">
         <v>8</v>
       </c>
-      <c r="BI23" s="55">
+      <c r="BI23" s="54">
         <v>9</v>
       </c>
-      <c r="BJ23" s="55">
+      <c r="BJ23" s="54">
         <v>10</v>
       </c>
-      <c r="BK23" s="55">
+      <c r="BK23" s="54">
         <v>11</v>
       </c>
-      <c r="BL23" s="55">
+      <c r="BL23" s="54">
         <v>12</v>
       </c>
-      <c r="BM23" s="55">
+      <c r="BM23" s="54">
         <v>13</v>
       </c>
-      <c r="BN23" s="55">
+      <c r="BN23" s="54">
         <v>14</v>
       </c>
-      <c r="BO23" s="55">
+      <c r="BO23" s="54">
         <v>15</v>
       </c>
-      <c r="BP23" s="55">
+      <c r="BP23" s="54">
         <v>16</v>
       </c>
-      <c r="BQ23" s="55">
+      <c r="BQ23" s="54">
         <v>17</v>
       </c>
-      <c r="BR23" s="55">
+      <c r="BR23" s="54">
         <v>18</v>
       </c>
-      <c r="BS23" s="55">
+      <c r="BS23" s="54">
         <v>19</v>
       </c>
       <c r="BX23" s="16">
         <v>-1</v>
       </c>
-      <c r="BY23" s="55">
+      <c r="BY23" s="54">
         <v>0</v>
       </c>
-      <c r="BZ23" s="55">
+      <c r="BZ23" s="54">
         <v>1</v>
       </c>
-      <c r="CA23" s="55">
+      <c r="CA23" s="54">
         <v>2</v>
       </c>
-      <c r="CB23" s="55">
+      <c r="CB23" s="54">
         <v>3</v>
       </c>
-      <c r="CC23" s="55">
+      <c r="CC23" s="54">
         <v>4</v>
       </c>
-      <c r="CD23" s="55">
+      <c r="CD23" s="54">
         <v>5</v>
       </c>
-      <c r="CE23" s="55">
+      <c r="CE23" s="54">
         <v>6</v>
       </c>
-      <c r="CF23" s="55">
+      <c r="CF23" s="54">
         <v>7</v>
       </c>
-      <c r="CG23" s="55">
+      <c r="CG23" s="54">
         <v>8</v>
       </c>
-      <c r="CH23" s="55">
+      <c r="CH23" s="54">
         <v>9</v>
       </c>
-      <c r="CI23" s="55">
+      <c r="CI23" s="54">
         <v>10</v>
       </c>
-      <c r="CJ23" s="55">
+      <c r="CJ23" s="54">
         <v>11</v>
       </c>
-      <c r="CK23" s="55">
+      <c r="CK23" s="54">
         <v>12</v>
       </c>
-      <c r="CL23" s="55">
+      <c r="CL23" s="54">
         <v>13</v>
       </c>
-      <c r="CM23" s="55">
+      <c r="CM23" s="54">
         <v>14</v>
       </c>
-      <c r="CN23" s="55">
+      <c r="CN23" s="54">
         <v>15</v>
       </c>
-      <c r="CO23" s="55">
+      <c r="CO23" s="54">
         <v>16</v>
       </c>
-      <c r="CP23" s="55">
+      <c r="CP23" s="54">
         <v>17</v>
       </c>
-      <c r="CQ23" s="55">
+      <c r="CQ23" s="54">
         <v>18</v>
       </c>
-      <c r="CR23" s="55">
+      <c r="CR23" s="54">
         <v>19</v>
       </c>
       <c r="CW23" s="16">
         <v>-1</v>
       </c>
-      <c r="CX23" s="55">
+      <c r="CX23" s="54">
         <v>0</v>
       </c>
-      <c r="CY23" s="55">
+      <c r="CY23" s="54">
         <v>1</v>
       </c>
-      <c r="CZ23" s="55">
+      <c r="CZ23" s="54">
         <v>2</v>
       </c>
-      <c r="DA23" s="55">
+      <c r="DA23" s="54">
         <v>3</v>
       </c>
-      <c r="DB23" s="55">
+      <c r="DB23" s="54">
         <v>4</v>
       </c>
-      <c r="DC23" s="55">
+      <c r="DC23" s="54">
         <v>5</v>
       </c>
-      <c r="DD23" s="55">
+      <c r="DD23" s="54">
         <v>6</v>
       </c>
-      <c r="DE23" s="55">
+      <c r="DE23" s="54">
         <v>7</v>
       </c>
-      <c r="DF23" s="55">
+      <c r="DF23" s="54">
         <v>8</v>
       </c>
-      <c r="DG23" s="55">
+      <c r="DG23" s="54">
         <v>9</v>
       </c>
-      <c r="DH23" s="55">
+      <c r="DH23" s="54">
         <v>10</v>
       </c>
-      <c r="DI23" s="55">
+      <c r="DI23" s="54">
         <v>11</v>
       </c>
-      <c r="DJ23" s="55">
+      <c r="DJ23" s="54">
         <v>12</v>
       </c>
-      <c r="DK23" s="55">
+      <c r="DK23" s="54">
         <v>13</v>
       </c>
-      <c r="DL23" s="55">
+      <c r="DL23" s="54">
         <v>14</v>
       </c>
-      <c r="DM23" s="55">
+      <c r="DM23" s="54">
         <v>15</v>
       </c>
-      <c r="DN23" s="55">
+      <c r="DN23" s="54">
         <v>16</v>
       </c>
-      <c r="DO23" s="55">
+      <c r="DO23" s="54">
         <v>17</v>
       </c>
-      <c r="DP23" s="55">
+      <c r="DP23" s="54">
         <v>18</v>
       </c>
-      <c r="DQ23" s="55">
+      <c r="DQ23" s="54">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="40">
+    <row r="24" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="39">
         <v>-2</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="Z24" s="40">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="Z24" s="39">
         <v>-2</v>
       </c>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AY24" s="40">
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AY24" s="39">
         <v>-2</v>
       </c>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BX24" s="40">
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BX24" s="39">
         <v>-2</v>
       </c>
-      <c r="BY24" s="45"/>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CB24" s="45"/>
-      <c r="CC24" s="45"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CF24" s="45"/>
-      <c r="CG24" s="45"/>
-      <c r="CH24" s="45"/>
-      <c r="CI24" s="45"/>
-      <c r="CJ24" s="45"/>
-      <c r="CK24" s="45"/>
-      <c r="CL24" s="45"/>
-      <c r="CM24" s="45"/>
-      <c r="CN24" s="45"/>
-      <c r="CO24" s="45"/>
-      <c r="CP24" s="45"/>
-      <c r="CQ24" s="45"/>
-      <c r="CR24" s="45"/>
-      <c r="CW24" s="40">
+      <c r="BY24" s="44"/>
+      <c r="BZ24" s="44"/>
+      <c r="CA24" s="44"/>
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
+      <c r="CG24" s="44"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="44"/>
+      <c r="CJ24" s="44"/>
+      <c r="CK24" s="44"/>
+      <c r="CL24" s="44"/>
+      <c r="CM24" s="44"/>
+      <c r="CN24" s="44"/>
+      <c r="CO24" s="44"/>
+      <c r="CP24" s="44"/>
+      <c r="CQ24" s="44"/>
+      <c r="CR24" s="44"/>
+      <c r="CW24" s="39">
         <v>-2</v>
       </c>
-      <c r="CX24" s="45"/>
-      <c r="CY24" s="45"/>
-      <c r="CZ24" s="45"/>
-      <c r="DA24" s="45"/>
-      <c r="DB24" s="45"/>
-      <c r="DC24" s="45"/>
-      <c r="DD24" s="45"/>
-      <c r="DE24" s="45"/>
-      <c r="DF24" s="45"/>
-      <c r="DG24" s="45"/>
-      <c r="DH24" s="45"/>
-      <c r="DI24" s="45"/>
-      <c r="DJ24" s="45"/>
-      <c r="DK24" s="45"/>
-      <c r="DL24" s="45"/>
-      <c r="DM24" s="45"/>
-      <c r="DN24" s="45"/>
-      <c r="DO24" s="45"/>
-      <c r="DP24" s="45"/>
-      <c r="DQ24" s="45"/>
+      <c r="CX24" s="44"/>
+      <c r="CY24" s="44"/>
+      <c r="CZ24" s="44"/>
+      <c r="DA24" s="44"/>
+      <c r="DB24" s="44"/>
+      <c r="DC24" s="44"/>
+      <c r="DD24" s="44"/>
+      <c r="DE24" s="44"/>
+      <c r="DF24" s="44"/>
+      <c r="DG24" s="44"/>
+      <c r="DH24" s="44"/>
+      <c r="DI24" s="44"/>
+      <c r="DJ24" s="44"/>
+      <c r="DK24" s="44"/>
+      <c r="DL24" s="44"/>
+      <c r="DM24" s="44"/>
+      <c r="DN24" s="44"/>
+      <c r="DO24" s="44"/>
+      <c r="DP24" s="44"/>
+      <c r="DQ24" s="44"/>
     </row>
-    <row r="25" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>-3</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
       <c r="Z25" s="16">
         <v>-3</v>
       </c>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
       <c r="AY25" s="16">
         <v>-3</v>
       </c>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="45"/>
-      <c r="BO25" s="45"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="45"/>
-      <c r="BS25" s="45"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
       <c r="BX25" s="16">
         <v>-3</v>
       </c>
-      <c r="BY25" s="45"/>
-      <c r="BZ25" s="45"/>
-      <c r="CA25" s="45"/>
-      <c r="CB25" s="45"/>
-      <c r="CC25" s="45"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="45"/>
-      <c r="CF25" s="45"/>
-      <c r="CG25" s="45"/>
-      <c r="CH25" s="45"/>
-      <c r="CI25" s="45"/>
-      <c r="CJ25" s="45"/>
-      <c r="CK25" s="45"/>
-      <c r="CL25" s="45"/>
-      <c r="CM25" s="45"/>
-      <c r="CN25" s="45"/>
-      <c r="CO25" s="45"/>
-      <c r="CP25" s="45"/>
-      <c r="CQ25" s="45"/>
-      <c r="CR25" s="45"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="44"/>
+      <c r="CM25" s="44"/>
+      <c r="CN25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
       <c r="CW25" s="16">
         <v>-3</v>
       </c>
-      <c r="CX25" s="45"/>
-      <c r="CY25" s="45"/>
-      <c r="CZ25" s="45"/>
-      <c r="DA25" s="45"/>
-      <c r="DB25" s="45"/>
-      <c r="DC25" s="45"/>
-      <c r="DD25" s="45"/>
-      <c r="DE25" s="45"/>
-      <c r="DF25" s="45"/>
-      <c r="DG25" s="45"/>
-      <c r="DH25" s="45"/>
-      <c r="DI25" s="45"/>
-      <c r="DJ25" s="45"/>
-      <c r="DK25" s="45"/>
-      <c r="DL25" s="45"/>
-      <c r="DM25" s="45"/>
-      <c r="DN25" s="45"/>
-      <c r="DO25" s="45"/>
-      <c r="DP25" s="45"/>
-      <c r="DQ25" s="45"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="44"/>
+      <c r="DC25" s="44"/>
+      <c r="DD25" s="44"/>
+      <c r="DE25" s="44"/>
+      <c r="DF25" s="44"/>
+      <c r="DG25" s="44"/>
+      <c r="DH25" s="44"/>
+      <c r="DI25" s="44"/>
+      <c r="DJ25" s="44"/>
+      <c r="DK25" s="44"/>
+      <c r="DL25" s="44"/>
+      <c r="DM25" s="44"/>
+      <c r="DN25" s="44"/>
+      <c r="DO25" s="44"/>
+      <c r="DP25" s="44"/>
+      <c r="DQ25" s="44"/>
     </row>
-    <row r="26" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="40">
+    <row r="26" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39">
         <v>-4</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="Z26" s="40">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="Z26" s="39">
         <v>-4</v>
       </c>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AY26" s="40">
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AY26" s="39">
         <v>-4</v>
       </c>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="45"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="45"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="45"/>
-      <c r="BR26" s="45"/>
-      <c r="BS26" s="45"/>
-      <c r="BX26" s="40">
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BX26" s="39">
         <v>-4</v>
       </c>
-      <c r="BY26" s="45"/>
-      <c r="BZ26" s="45"/>
-      <c r="CA26" s="45"/>
-      <c r="CB26" s="45"/>
-      <c r="CC26" s="45"/>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="45"/>
-      <c r="CF26" s="45"/>
-      <c r="CG26" s="45"/>
-      <c r="CH26" s="45"/>
-      <c r="CI26" s="45"/>
-      <c r="CJ26" s="45"/>
-      <c r="CK26" s="45"/>
-      <c r="CL26" s="45"/>
-      <c r="CM26" s="45"/>
-      <c r="CN26" s="45"/>
-      <c r="CO26" s="45"/>
-      <c r="CP26" s="45"/>
-      <c r="CQ26" s="45"/>
-      <c r="CR26" s="45"/>
-      <c r="CW26" s="40">
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="44"/>
+      <c r="CM26" s="44"/>
+      <c r="CN26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CW26" s="39">
         <v>-4</v>
       </c>
-      <c r="CX26" s="45"/>
-      <c r="CY26" s="45"/>
-      <c r="CZ26" s="45"/>
-      <c r="DA26" s="45"/>
-      <c r="DB26" s="45"/>
-      <c r="DC26" s="45"/>
-      <c r="DD26" s="45"/>
-      <c r="DE26" s="45"/>
-      <c r="DF26" s="45"/>
-      <c r="DG26" s="45"/>
-      <c r="DH26" s="45"/>
-      <c r="DI26" s="45"/>
-      <c r="DJ26" s="45"/>
-      <c r="DK26" s="45"/>
-      <c r="DL26" s="45"/>
-      <c r="DM26" s="45"/>
-      <c r="DN26" s="45"/>
-      <c r="DO26" s="45"/>
-      <c r="DP26" s="45"/>
-      <c r="DQ26" s="45"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="44"/>
+      <c r="DC26" s="44"/>
+      <c r="DD26" s="44"/>
+      <c r="DE26" s="44"/>
+      <c r="DF26" s="44"/>
+      <c r="DG26" s="44"/>
+      <c r="DH26" s="44"/>
+      <c r="DI26" s="44"/>
+      <c r="DJ26" s="44"/>
+      <c r="DK26" s="44"/>
+      <c r="DL26" s="44"/>
+      <c r="DM26" s="44"/>
+      <c r="DN26" s="44"/>
+      <c r="DO26" s="44"/>
+      <c r="DP26" s="44"/>
+      <c r="DQ26" s="44"/>
     </row>
-    <row r="27" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>-5</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
       <c r="Z27" s="16">
         <v>-5</v>
       </c>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
       <c r="AY27" s="16">
         <v>-5</v>
       </c>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="45"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="45"/>
-      <c r="BL27" s="45"/>
-      <c r="BM27" s="45"/>
-      <c r="BN27" s="45"/>
-      <c r="BO27" s="45"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="45"/>
-      <c r="BS27" s="45"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
+      <c r="BP27" s="44"/>
+      <c r="BQ27" s="44"/>
+      <c r="BR27" s="44"/>
+      <c r="BS27" s="44"/>
       <c r="BX27" s="16">
         <v>-5</v>
       </c>
-      <c r="BY27" s="45"/>
-      <c r="BZ27" s="45"/>
-      <c r="CA27" s="45"/>
-      <c r="CB27" s="45"/>
-      <c r="CC27" s="45"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="45"/>
-      <c r="CF27" s="45"/>
-      <c r="CG27" s="45"/>
-      <c r="CH27" s="45"/>
-      <c r="CI27" s="45"/>
-      <c r="CJ27" s="45"/>
-      <c r="CK27" s="45"/>
-      <c r="CL27" s="45"/>
-      <c r="CM27" s="45"/>
-      <c r="CN27" s="45"/>
-      <c r="CO27" s="45"/>
-      <c r="CP27" s="45"/>
-      <c r="CQ27" s="45"/>
-      <c r="CR27" s="45"/>
+      <c r="BY27" s="44"/>
+      <c r="BZ27" s="44"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="44"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="44"/>
+      <c r="CF27" s="44"/>
+      <c r="CG27" s="44"/>
+      <c r="CH27" s="44"/>
+      <c r="CI27" s="44"/>
+      <c r="CJ27" s="44"/>
+      <c r="CK27" s="44"/>
+      <c r="CL27" s="44"/>
+      <c r="CM27" s="44"/>
+      <c r="CN27" s="44"/>
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="44"/>
       <c r="CW27" s="16">
         <v>-5</v>
       </c>
-      <c r="CX27" s="45"/>
-      <c r="CY27" s="45"/>
-      <c r="CZ27" s="45"/>
-      <c r="DA27" s="45"/>
-      <c r="DB27" s="45"/>
-      <c r="DC27" s="45"/>
-      <c r="DD27" s="45"/>
-      <c r="DE27" s="45"/>
-      <c r="DF27" s="45"/>
-      <c r="DG27" s="45"/>
-      <c r="DH27" s="45"/>
-      <c r="DI27" s="45"/>
-      <c r="DJ27" s="45"/>
-      <c r="DK27" s="45"/>
-      <c r="DL27" s="45"/>
-      <c r="DM27" s="45"/>
-      <c r="DN27" s="45"/>
-      <c r="DO27" s="45"/>
-      <c r="DP27" s="45"/>
-      <c r="DQ27" s="45"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="44"/>
+      <c r="CZ27" s="44"/>
+      <c r="DA27" s="44"/>
+      <c r="DB27" s="44"/>
+      <c r="DC27" s="44"/>
+      <c r="DD27" s="44"/>
+      <c r="DE27" s="44"/>
+      <c r="DF27" s="44"/>
+      <c r="DG27" s="44"/>
+      <c r="DH27" s="44"/>
+      <c r="DI27" s="44"/>
+      <c r="DJ27" s="44"/>
+      <c r="DK27" s="44"/>
+      <c r="DL27" s="44"/>
+      <c r="DM27" s="44"/>
+      <c r="DN27" s="44"/>
+      <c r="DO27" s="44"/>
+      <c r="DP27" s="44"/>
+      <c r="DQ27" s="44"/>
     </row>
-    <row r="28" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="40">
+    <row r="28" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39">
         <v>-6</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="Z28" s="40">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="Z28" s="39">
         <v>-6</v>
       </c>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AY28" s="40">
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AY28" s="39">
         <v>-6</v>
       </c>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
-      <c r="BG28" s="45"/>
-      <c r="BH28" s="45"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="45"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="45"/>
-      <c r="BR28" s="45"/>
-      <c r="BS28" s="45"/>
-      <c r="BX28" s="40">
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="44"/>
+      <c r="BQ28" s="44"/>
+      <c r="BR28" s="44"/>
+      <c r="BS28" s="44"/>
+      <c r="BX28" s="39">
         <v>-6</v>
       </c>
-      <c r="BY28" s="45"/>
-      <c r="BZ28" s="45"/>
-      <c r="CA28" s="45"/>
-      <c r="CB28" s="45"/>
-      <c r="CC28" s="45"/>
-      <c r="CD28" s="45"/>
-      <c r="CE28" s="45"/>
-      <c r="CF28" s="45"/>
-      <c r="CG28" s="45"/>
-      <c r="CH28" s="45"/>
-      <c r="CI28" s="45"/>
-      <c r="CJ28" s="45"/>
-      <c r="CK28" s="45"/>
-      <c r="CL28" s="45"/>
-      <c r="CM28" s="45"/>
-      <c r="CN28" s="45"/>
-      <c r="CO28" s="45"/>
-      <c r="CP28" s="45"/>
-      <c r="CQ28" s="45"/>
-      <c r="CR28" s="45"/>
-      <c r="CW28" s="40">
+      <c r="BY28" s="44"/>
+      <c r="BZ28" s="44"/>
+      <c r="CA28" s="44"/>
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="44"/>
+      <c r="CF28" s="44"/>
+      <c r="CG28" s="44"/>
+      <c r="CH28" s="44"/>
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="44"/>
+      <c r="CK28" s="44"/>
+      <c r="CL28" s="44"/>
+      <c r="CM28" s="44"/>
+      <c r="CN28" s="44"/>
+      <c r="CO28" s="44"/>
+      <c r="CP28" s="44"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="44"/>
+      <c r="CW28" s="39">
         <v>-6</v>
       </c>
-      <c r="CX28" s="45"/>
-      <c r="CY28" s="45"/>
-      <c r="CZ28" s="45"/>
-      <c r="DA28" s="45"/>
-      <c r="DB28" s="45"/>
-      <c r="DC28" s="45"/>
-      <c r="DD28" s="45"/>
-      <c r="DE28" s="45"/>
-      <c r="DF28" s="45"/>
-      <c r="DG28" s="45"/>
-      <c r="DH28" s="45"/>
-      <c r="DI28" s="45"/>
-      <c r="DJ28" s="45"/>
-      <c r="DK28" s="45"/>
-      <c r="DL28" s="45"/>
-      <c r="DM28" s="45"/>
-      <c r="DN28" s="45"/>
-      <c r="DO28" s="45"/>
-      <c r="DP28" s="45"/>
-      <c r="DQ28" s="45"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="44"/>
+      <c r="CZ28" s="44"/>
+      <c r="DA28" s="44"/>
+      <c r="DB28" s="44"/>
+      <c r="DC28" s="44"/>
+      <c r="DD28" s="44"/>
+      <c r="DE28" s="44"/>
+      <c r="DF28" s="44"/>
+      <c r="DG28" s="44"/>
+      <c r="DH28" s="44"/>
+      <c r="DI28" s="44"/>
+      <c r="DJ28" s="44"/>
+      <c r="DK28" s="44"/>
+      <c r="DL28" s="44"/>
+      <c r="DM28" s="44"/>
+      <c r="DN28" s="44"/>
+      <c r="DO28" s="44"/>
+      <c r="DP28" s="44"/>
+      <c r="DQ28" s="44"/>
     </row>
-    <row r="29" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>-7</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
       <c r="Z29" s="16">
         <v>-7</v>
       </c>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
       <c r="AY29" s="16">
         <v>-7</v>
       </c>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
-      <c r="BD29" s="45"/>
-      <c r="BE29" s="45"/>
-      <c r="BF29" s="45"/>
-      <c r="BG29" s="45"/>
-      <c r="BH29" s="45"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="45"/>
-      <c r="BK29" s="45"/>
-      <c r="BL29" s="45"/>
-      <c r="BM29" s="45"/>
-      <c r="BN29" s="45"/>
-      <c r="BO29" s="45"/>
-      <c r="BP29" s="45"/>
-      <c r="BQ29" s="45"/>
-      <c r="BR29" s="45"/>
-      <c r="BS29" s="45"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="44"/>
+      <c r="BQ29" s="44"/>
+      <c r="BR29" s="44"/>
+      <c r="BS29" s="44"/>
       <c r="BX29" s="16">
         <v>-7</v>
       </c>
-      <c r="BY29" s="45"/>
-      <c r="BZ29" s="45"/>
-      <c r="CA29" s="45"/>
-      <c r="CB29" s="45"/>
-      <c r="CC29" s="45"/>
-      <c r="CD29" s="45"/>
-      <c r="CE29" s="45"/>
-      <c r="CF29" s="45"/>
-      <c r="CG29" s="45"/>
-      <c r="CH29" s="45"/>
-      <c r="CI29" s="45"/>
-      <c r="CJ29" s="45"/>
-      <c r="CK29" s="45"/>
-      <c r="CL29" s="45"/>
-      <c r="CM29" s="45"/>
-      <c r="CN29" s="45"/>
-      <c r="CO29" s="45"/>
-      <c r="CP29" s="45"/>
-      <c r="CQ29" s="45"/>
-      <c r="CR29" s="45"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+      <c r="CE29" s="44"/>
+      <c r="CF29" s="44"/>
+      <c r="CG29" s="44"/>
+      <c r="CH29" s="44"/>
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="44"/>
+      <c r="CK29" s="44"/>
+      <c r="CL29" s="44"/>
+      <c r="CM29" s="44"/>
+      <c r="CN29" s="44"/>
+      <c r="CO29" s="44"/>
+      <c r="CP29" s="44"/>
+      <c r="CQ29" s="44"/>
+      <c r="CR29" s="44"/>
       <c r="CW29" s="16">
         <v>-7</v>
       </c>
-      <c r="CX29" s="45"/>
-      <c r="CY29" s="45"/>
-      <c r="CZ29" s="45"/>
-      <c r="DA29" s="45"/>
-      <c r="DB29" s="45"/>
-      <c r="DC29" s="45"/>
-      <c r="DD29" s="45"/>
-      <c r="DE29" s="45"/>
-      <c r="DF29" s="45"/>
-      <c r="DG29" s="45"/>
-      <c r="DH29" s="45"/>
-      <c r="DI29" s="45"/>
-      <c r="DJ29" s="45"/>
-      <c r="DK29" s="45"/>
-      <c r="DL29" s="45"/>
-      <c r="DM29" s="45"/>
-      <c r="DN29" s="45"/>
-      <c r="DO29" s="45"/>
-      <c r="DP29" s="45"/>
-      <c r="DQ29" s="45"/>
+      <c r="CX29" s="44"/>
+      <c r="CY29" s="44"/>
+      <c r="CZ29" s="44"/>
+      <c r="DA29" s="44"/>
+      <c r="DB29" s="44"/>
+      <c r="DC29" s="44"/>
+      <c r="DD29" s="44"/>
+      <c r="DE29" s="44"/>
+      <c r="DF29" s="44"/>
+      <c r="DG29" s="44"/>
+      <c r="DH29" s="44"/>
+      <c r="DI29" s="44"/>
+      <c r="DJ29" s="44"/>
+      <c r="DK29" s="44"/>
+      <c r="DL29" s="44"/>
+      <c r="DM29" s="44"/>
+      <c r="DN29" s="44"/>
+      <c r="DO29" s="44"/>
+      <c r="DP29" s="44"/>
+      <c r="DQ29" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2020/USACO2020DecSilverRectangularPasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2020\USACO2020DecSilverRectangularPasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0E2DE-36EB-4C34-9040-E7CB7FDCAE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F211C-3018-45D2-A9DD-F85916A76556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="0" windowWidth="3765" windowHeight="7830" firstSheet="1" activeTab="2" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="15410" yWindow="0" windowWidth="3770" windowHeight="7830" tabRatio="699" firstSheet="3" activeTab="4" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
     <sheet name="GoldPro3.SquarePasture" sheetId="2" r:id="rId2"/>
-    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId3"/>
+    <sheet name="GoldPro3.SquarePasture2" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="GoldPro3.SquarePasture2" sheetId="5" r:id="rId5"/>
+    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId5"/>
+    <sheet name="Stuck in a Rut (error) (3)" sheetId="8" r:id="rId6"/>
+    <sheet name="Stuck in a Rut (error) (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,8 +230,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -411,6 +436,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -420,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +635,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -604,7 +650,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6473,6 +6570,1403 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935D9611-FEE6-4E4F-B7BE-67E9A3064BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75649" y="3910724"/>
+          <a:ext cx="4320000" cy="3174"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212944</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214586</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2410059-EE57-4A12-8976-FD214FB311F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="427530" y="59123"/>
+          <a:ext cx="1642" cy="5379981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC46A3BB-D1F2-41EC-8ECE-F0164584BE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75649" y="3122448"/>
+          <a:ext cx="4320000" cy="2736"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>767</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8200E0B1-27CD-42A0-9FCB-21E3AA7BE1F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3188905" y="59123"/>
+          <a:ext cx="3612" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33856</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0A2B04-E1C1-491C-B297-C103C91EB3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75649" y="957426"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CDD666-41A5-46F5-B808-9FC1AB88BD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="3476410"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2710E59F-3A04-48CF-8CA4-FC2986516AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5020332" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230E382E-8416-49C7-98AF-1D40AC936B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="2923736"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3698BAE6-25DF-4606-A8E9-4A136FA64E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7782035" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C2DBE-C969-44BB-98E8-E816AFBA6C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="755976"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>40618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>20721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416F5D64-6B6C-473F-A868-CE830EDC980B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9434239" y="3296858"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6789FA47-6DFD-463E-9269-7721E0F97390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9758746" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC034EE-C41D-4275-986F-07C20607BBD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652031" y="2923736"/>
+          <a:ext cx="4320000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00497DB-BF9F-4697-B154-38965AAA5BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12520449" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6807B4F0-1251-4741-8099-735C7033F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429859" y="541828"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>40618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>20721</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D90C53-1D71-4B5D-8E7A-51E6009A204F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14032515" y="3108548"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFF2CE3-E55C-445A-84A5-8F7959EF4585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14357022" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7C6BE7-0A25-4A4D-B072-5F3AD3A9D841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429859" y="2923736"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FE1C31-8F45-4F0A-848D-491E45717FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17118725" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>49376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>29479</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FCB4F4-5261-4276-931E-A58E4077F372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14041273" y="349139"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>181194</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11439E8A-2D83-436E-B002-22B7C8E13D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18955297" y="59123"/>
+          <a:ext cx="2737" cy="5423774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>36238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>16341</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896741C7-337B-4F75-B28A-FBA165A10CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14028135" y="2923736"/>
+          <a:ext cx="4210516" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>5146</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BB4B63-AA99-4F12-8215-10E6FDAE769A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21717001" y="59123"/>
+          <a:ext cx="5145" cy="5438116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>44997</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>25100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11932</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58162FD-FD22-4780-B4D8-60F02533F25D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18635169" y="178346"/>
+          <a:ext cx="4210517" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>198783</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -8361,262 +9855,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>75649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>191113</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33856</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7">
+        <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935D9611-FEE6-4E4F-B7BE-67E9A3064BB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="75649" y="3910724"/>
-          <a:ext cx="4320000" cy="3174"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>212944</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214586</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>140138</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直接连接符 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2410059-EE57-4A12-8976-FD214FB311F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="427530" y="59123"/>
-          <a:ext cx="1642" cy="5379981"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>75649</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33856</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2736</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接连接符 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC46A3BB-D1F2-41EC-8ECE-F0164584BE66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="75649" y="3122448"/>
-          <a:ext cx="4320000" cy="2736"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>767</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4379</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接连接符 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8200E0B1-27CD-42A0-9FCB-21E3AA7BE1F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3188905" y="59123"/>
-          <a:ext cx="3612" cy="5438116"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>75649</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33856</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2736</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接连接符 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0A2B04-E1C1-491C-B297-C103C91EB3D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D5EF06-5427-4D78-95A8-924D925C25BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8624,77 +9881,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="75649" y="957426"/>
-          <a:ext cx="4320000" cy="0"/>
+          <a:off x="4998970" y="1724320"/>
+          <a:ext cx="955516" cy="2880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>183169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>183169</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接连接符 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CDD666-41A5-46F5-B808-9FC1AB88BD56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4652031" y="3476410"/>
-          <a:ext cx="4320000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8717,42 +9912,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>181194</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:colOff>6056</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17518</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17">
+        <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2710E59F-3A04-48CF-8CA4-FC2986516AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B491B-A262-4DA4-81D2-CBFDE34525F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5020332" y="59123"/>
-          <a:ext cx="2737" cy="5423774"/>
+        <a:xfrm flipV="1">
+          <a:off x="4813913" y="1919514"/>
+          <a:ext cx="1133316" cy="8007"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8774,43 +9965,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>106901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接连接符 18">
+        <xdr:cNvPr id="39" name="直接连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230E382E-8416-49C7-98AF-1D40AC936B31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D39A61-719D-4FC2-89B1-2F2CC8E372FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4652031" y="2923736"/>
-          <a:ext cx="4320000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5107072" y="1440543"/>
+          <a:ext cx="1957" cy="777042"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8832,43 +10019,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>5146</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31860</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103272</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接连接符 19">
+        <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3698BAE6-25DF-4606-A8E9-4A136FA64E6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6225E347-BF26-4B44-817D-22A175F871C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7782035" y="59123"/>
-          <a:ext cx="5145" cy="5438116"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5678714" y="1429657"/>
+          <a:ext cx="1672" cy="1176185"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8890,43 +10073,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>195424</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>183856</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>195424</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直接连接符 20">
+        <xdr:cNvPr id="41" name="直接连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C2DBE-C969-44BB-98E8-E816AFBA6C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE4DBBF-4D4B-410F-BE3B-4C7061BA7ADE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4652031" y="755976"/>
-          <a:ext cx="4320000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5568656" y="2115457"/>
+          <a:ext cx="364058" cy="749"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8948,43 +10127,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>40618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3617</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>191114</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>20721</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3617</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98721</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接连接符 23">
+        <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416F5D64-6B6C-473F-A868-CE830EDC980B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CA5B4C-0340-4481-BEFA-822A71CB2640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9434239" y="3296858"/>
-          <a:ext cx="4210516" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5383600" y="2503714"/>
+          <a:ext cx="563629" cy="750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9006,43 +10181,416 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>181194</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>79828</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17518</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>137428</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="椭圆 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E31040-68D3-4F2D-8E69-F2ED39EF0C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5079999" y="1698171"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="椭圆 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAE313F-7B36-4074-B4CA-1B100497970E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076370" y="1897743"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>130172</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="椭圆 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AECE8C-5346-494E-A618-74CC7A8F71F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5649686" y="1897743"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133801</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="椭圆 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F1EC59-FE10-4B59-A5B9-2CE22CF78ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653315" y="1694543"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="椭圆 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6829E67-8BFC-46D4-8045-2A2A77E1C8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653315" y="2082801"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>130172</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="椭圆 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD31F90-3207-41EF-975D-37A633F27608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5649686" y="2471058"/>
+          <a:ext cx="57600" cy="57600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178805</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接连接符 24">
+        <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6789FA47-6DFD-463E-9269-7721E0F97390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEBF250-00DC-4430-88F6-3AA86A79F282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9758746" y="59123"/>
-          <a:ext cx="2737" cy="5423774"/>
+        <a:xfrm flipV="1">
+          <a:off x="1363080" y="3752453"/>
+          <a:ext cx="3516101" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9064,43 +10612,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180473</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179386</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直接连接符 25">
+        <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC034EE-C41D-4275-986F-07C20607BBD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A8E743-B86C-489E-BB8C-3220E0BDEAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4652031" y="2923736"/>
-          <a:ext cx="4320000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="1555248" y="6950076"/>
+          <a:ext cx="3351713" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9122,43 +10666,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7833</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>5146</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31860</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122237</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接连接符 26">
+        <xdr:cNvPr id="4" name="直接连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00497DB-BF9F-4697-B154-38965AAA5BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAD6CC5-F194-49D0-97B2-81CAEE8F81AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12520449" y="59123"/>
-          <a:ext cx="5145" cy="5438116"/>
+        <a:xfrm>
+          <a:off x="2906608" y="6562053"/>
+          <a:ext cx="2133704" cy="2615"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9180,43 +10720,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7552</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105778</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7552</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>199590</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接连接符 27">
+        <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6807B4F0-1251-4741-8099-735C7033F614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6809DDE1-7951-41D3-BA18-747ACBE70CAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9429859" y="541828"/>
-          <a:ext cx="4210516" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2998203" y="2716213"/>
+          <a:ext cx="19634" cy="1934727"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9238,43 +10774,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>40618</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>183169</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86519</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>20721</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>183169</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86519</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直接连接符 28">
+        <xdr:cNvPr id="6" name="直接连接符 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D90C53-1D71-4B5D-8E7A-51E6009A204F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10494674-2AA4-4B8B-BD76-C23368606379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14032515" y="3108548"/>
-          <a:ext cx="4210516" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2407444" y="2695575"/>
+          <a:ext cx="0" cy="3361492"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9296,43 +10828,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>181194</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>218950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17518</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104106</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直接连接符 29">
+        <xdr:cNvPr id="7" name="直接连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFF2CE3-E55C-445A-84A5-8F7959EF4585}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DA723E-7E65-4304-AC8A-3903F32354A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14357022" y="59123"/>
-          <a:ext cx="2737" cy="5423774"/>
+        <a:xfrm>
+          <a:off x="3346325" y="3955381"/>
+          <a:ext cx="1746375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9354,43 +10882,159 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46330</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116013</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8471E63-B7AF-4BD3-B036-232C0BCFAB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2373605" y="3731461"/>
+          <a:ext cx="66508" cy="48795"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61976</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112609</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC26607-A48A-4DE7-99DB-065FB400B5ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1817751" y="3734948"/>
+          <a:ext cx="47458" cy="55145"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直接连接符 30">
+        <xdr:cNvPr id="10" name="直接连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7C6BE7-0A25-4A4D-B072-5F3AD3A9D841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232A0C41-CCB1-4609-992C-67675AF90B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9429859" y="2923736"/>
-          <a:ext cx="4210516" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1847850" y="2892822"/>
+          <a:ext cx="0" cy="3358316"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9412,23 +11056,88 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76492</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>5146</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31860</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="椭圆 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7240C63-9894-4BC1-A621-F8E21627EB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2972092" y="3731462"/>
+          <a:ext cx="66508" cy="48795"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>187439</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直接连接符 31">
+        <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FE1C31-8F45-4F0A-848D-491E45717FAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ACCC79-F249-469E-BB19-1E8AE82162FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9436,19 +11145,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17118725" y="59123"/>
-          <a:ext cx="5145" cy="5438116"/>
+          <a:off x="2699657" y="5784453"/>
+          <a:ext cx="2212182" cy="1304"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9470,23 +11175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>49376</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>182725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8230</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>113507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>29479</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>182725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接连接符 32">
+        <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FCB4F4-5261-4276-931E-A58E4077F372}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD37C42-0B5E-40B7-AA8C-D81184E180AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9494,19 +11199,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14041273" y="349139"/>
-          <a:ext cx="4210516" cy="0"/>
+          <a:off x="2141830" y="4990307"/>
+          <a:ext cx="2734970" cy="793"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9528,43 +11229,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>181194</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189602</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17518</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>113506</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122196</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直接连接符 34">
+        <xdr:cNvPr id="4" name="直接连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11439E8A-2D83-436E-B002-22B7C8E13D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C42371-5681-4C45-80B8-83679CCED00A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="18955297" y="59123"/>
-          <a:ext cx="2737" cy="5423774"/>
+        <a:xfrm>
+          <a:off x="2701821" y="7447878"/>
+          <a:ext cx="2114654" cy="2615"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9586,43 +11283,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>36238</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>16341</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182288</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88542</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直接连接符 35">
+        <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896741C7-337B-4F75-B28A-FBA165A10CD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E446D8F-0617-492D-A186-C91FFDE76CD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14028135" y="2923736"/>
-          <a:ext cx="4210516" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1268186" y="3194957"/>
+          <a:ext cx="1456" cy="483527"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9644,43 +11337,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59123</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>5146</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2739</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直接连接符 36">
+        <xdr:cNvPr id="6" name="直接连接符 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BB4B63-AA99-4F12-8215-10E6FDAE769A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8293371A-C765-4BC3-959B-2F5062C116D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21717001" y="59123"/>
-          <a:ext cx="5145" cy="5438116"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2226469" y="3119438"/>
+          <a:ext cx="0" cy="3401973"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9702,23 +11391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>44997</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11932</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>25100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11932</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142081</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直接连接符 37">
+        <xdr:cNvPr id="7" name="直接连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58162FD-FD22-4780-B4D8-60F02533F25D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139E4F8E-3F49-4929-9C25-609A060BDEC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9726,19 +11415,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18635169" y="178346"/>
-          <a:ext cx="4210517" cy="0"/>
+          <a:off x="3115344" y="7221265"/>
+          <a:ext cx="1729706" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="19050">
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9756,6 +11441,234 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49649795-2293-48CD-A713-FE5EF3D53DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2188029" y="4941701"/>
+          <a:ext cx="87991" cy="103828"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7711</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>146957</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0866909B-792A-46C5-9FB1-F4161097405A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1569811" y="5584371"/>
+          <a:ext cx="3301546" cy="2268"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8732</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035CC60A-2089-4491-A0DE-B25A222A6545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4033157" y="6394054"/>
+          <a:ext cx="890475" cy="1303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52737</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C062CD-2951-4109-9F4A-15598FE56216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2186337" y="5543600"/>
+          <a:ext cx="85603" cy="89757"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10064,17 +11977,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="12"/>
-    <col min="8" max="8" width="3.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="2.44140625" style="12"/>
-    <col min="14" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="3.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.69140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.4609375" style="12"/>
+    <col min="8" max="8" width="3.23046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="2.4609375" style="12"/>
+    <col min="14" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O3" s="1">
         <v>11</v>
       </c>
@@ -10160,7 +12073,7 @@
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
     </row>
-    <row r="4" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O4" s="1">
         <v>10</v>
       </c>
@@ -10246,7 +12159,7 @@
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O5" s="1">
         <v>9</v>
       </c>
@@ -10332,7 +12245,7 @@
       <c r="CN5" s="2"/>
       <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -10429,7 +12342,7 @@
       <c r="CN6" s="2"/>
       <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O7" s="1">
         <v>7</v>
       </c>
@@ -10515,7 +12428,7 @@
       <c r="CN7" s="2"/>
       <c r="CO7" s="2"/>
     </row>
-    <row r="8" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O8" s="1">
         <v>6</v>
       </c>
@@ -10613,7 +12526,7 @@
       <c r="CN8" s="2"/>
       <c r="CO8" s="2"/>
     </row>
-    <row r="9" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -10705,7 +12618,7 @@
       <c r="CN9" s="2"/>
       <c r="CO9" s="2"/>
     </row>
-    <row r="10" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O10" s="1">
         <v>4</v>
       </c>
@@ -10803,7 +12716,7 @@
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
     </row>
-    <row r="11" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O11" s="1">
         <v>3</v>
       </c>
@@ -10901,7 +12814,7 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
     </row>
-    <row r="12" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O12" s="1">
         <v>2</v>
       </c>
@@ -10999,7 +12912,7 @@
       <c r="CN12" s="2"/>
       <c r="CO12" s="2"/>
     </row>
-    <row r="13" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O13" s="1">
         <v>1</v>
       </c>
@@ -11097,7 +13010,7 @@
       <c r="CN13" s="2"/>
       <c r="CO13" s="2"/>
     </row>
-    <row r="14" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="15:93" x14ac:dyDescent="0.35">
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -11195,7 +13108,7 @@
       <c r="CN14" s="2"/>
       <c r="CO14" s="2"/>
     </row>
-    <row r="15" spans="15:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="15:93" x14ac:dyDescent="0.35">
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -11395,7 +13308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O18" s="1">
         <v>9</v>
       </c>
@@ -11438,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O19" s="1">
         <v>8</v>
       </c>
@@ -11478,7 +13391,7 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O20" s="1">
         <v>7</v>
       </c>
@@ -11518,7 +13431,7 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O21" s="1">
         <v>6</v>
       </c>
@@ -11558,7 +13471,7 @@
       <c r="AY21" s="28"/>
       <c r="AZ21" s="28"/>
     </row>
-    <row r="22" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O22" s="1">
         <v>5</v>
       </c>
@@ -11598,7 +13511,7 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="28"/>
     </row>
-    <row r="23" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O23" s="1">
         <v>4</v>
       </c>
@@ -11644,7 +13557,7 @@
       <c r="AY23" s="28"/>
       <c r="AZ23" s="28"/>
     </row>
-    <row r="24" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O24" s="1">
         <v>3</v>
       </c>
@@ -11688,7 +13601,7 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O25" s="1">
         <v>2</v>
       </c>
@@ -11732,7 +13645,7 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O26" s="1">
         <v>1</v>
       </c>
@@ -11778,7 +13691,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="27" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="14:86" x14ac:dyDescent="0.35">
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -11842,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="14:86" x14ac:dyDescent="0.35">
       <c r="P28" s="1">
         <v>0</v>
       </c>
@@ -11877,7 +13790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="30" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -11894,7 +13807,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="31" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
@@ -11911,26 +13824,26 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="14:86" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:86" x14ac:dyDescent="0.35">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -11960,7 +13873,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -11996,7 +13909,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -12036,7 +13949,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -12072,7 +13985,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -12106,7 +14019,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -12140,7 +14053,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N39" s="12"/>
       <c r="O39" s="1">
         <v>5</v>
@@ -12159,7 +14072,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N40" s="12"/>
       <c r="O40" s="1">
         <v>4</v>
@@ -12180,7 +14093,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N41" s="12"/>
       <c r="O41" s="1">
         <v>3</v>
@@ -12201,7 +14114,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N42" s="12"/>
       <c r="O42" s="1">
         <v>2</v>
@@ -12222,7 +14135,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M43" s="15"/>
       <c r="N43" s="12"/>
       <c r="O43" s="1">
@@ -12246,7 +14159,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N44" s="12"/>
       <c r="O44" s="1">
         <v>0</v>
@@ -12265,7 +14178,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P45" s="1">
         <v>0</v>
       </c>
@@ -12300,23 +14213,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O47" s="12"/>
-      <c r="P47" s="57" t="s">
+      <c r="P47" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O48" s="1">
         <v>11</v>
       </c>
@@ -12332,7 +14245,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O49" s="1">
         <v>10</v>
       </c>
@@ -12348,7 +14261,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O50" s="1">
         <v>9</v>
       </c>
@@ -12364,7 +14277,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O51" s="1">
         <v>8</v>
       </c>
@@ -12380,7 +14293,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O52" s="1">
         <v>7</v>
       </c>
@@ -12396,7 +14309,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O53" s="1">
         <v>6</v>
       </c>
@@ -12412,7 +14325,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O54" s="1">
         <v>5</v>
       </c>
@@ -12428,7 +14341,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O55" s="1">
         <v>4</v>
       </c>
@@ -12446,7 +14359,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O56" s="1">
         <v>3</v>
       </c>
@@ -12464,7 +14377,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M57" s="15"/>
       <c r="O57" s="1">
         <v>2</v>
@@ -12485,7 +14398,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O58" s="1">
         <v>1</v>
       </c>
@@ -12503,7 +14416,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -12519,7 +14432,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
       <c r="P60" s="1">
         <v>0</v>
       </c>
@@ -12554,23 +14467,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O62" s="12"/>
-      <c r="P62" s="57" t="s">
+      <c r="P62" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="58"/>
-      <c r="W62" s="58"/>
-      <c r="X62" s="58"/>
-      <c r="Y62" s="58"/>
-      <c r="Z62" s="58"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
     </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O63" s="1">
         <v>11</v>
       </c>
@@ -12586,7 +14499,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O64" s="1">
         <v>10</v>
       </c>
@@ -12602,7 +14515,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O65" s="1">
         <v>9</v>
       </c>
@@ -12618,7 +14531,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O66" s="1">
         <v>8</v>
       </c>
@@ -12634,7 +14547,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O67" s="1">
         <v>7</v>
       </c>
@@ -12650,7 +14563,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O68" s="1">
         <v>6</v>
       </c>
@@ -12666,7 +14579,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O69" s="1">
         <v>5</v>
       </c>
@@ -12682,7 +14595,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O70" s="1">
         <v>4</v>
       </c>
@@ -12700,7 +14613,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O71" s="1">
         <v>3</v>
       </c>
@@ -12718,7 +14631,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="12:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="L72" s="15"/>
       <c r="O72" s="1">
         <v>2</v>
@@ -12739,7 +14652,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O73" s="1">
         <v>1</v>
       </c>
@@ -12757,7 +14670,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O74" s="1">
         <v>0</v>
       </c>
@@ -12773,7 +14686,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.35">
       <c r="P75" s="1">
         <v>0</v>
       </c>
@@ -12808,23 +14721,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O77" s="12"/>
-      <c r="P77" s="57" t="s">
+      <c r="P77" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="58"/>
-      <c r="R77" s="58"/>
-      <c r="S77" s="58"/>
-      <c r="T77" s="58"/>
-      <c r="U77" s="58"/>
-      <c r="V77" s="58"/>
-      <c r="W77" s="58"/>
-      <c r="X77" s="58"/>
-      <c r="Y77" s="58"/>
-      <c r="Z77" s="58"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O78" s="1">
         <v>11</v>
       </c>
@@ -12840,7 +14753,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O79" s="1">
         <v>10</v>
       </c>
@@ -12856,7 +14769,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:26" x14ac:dyDescent="0.35">
       <c r="O80" s="1">
         <v>9</v>
       </c>
@@ -12872,7 +14785,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O81" s="1">
         <v>8</v>
       </c>
@@ -12888,7 +14801,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O82" s="1">
         <v>7</v>
       </c>
@@ -12904,7 +14817,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O83" s="1">
         <v>6</v>
       </c>
@@ -12920,7 +14833,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O84" s="1">
         <v>5</v>
       </c>
@@ -12936,7 +14849,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
       <c r="M85" s="15"/>
       <c r="O85" s="1">
         <v>4</v>
@@ -12957,7 +14870,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O86" s="1">
         <v>3</v>
       </c>
@@ -12975,7 +14888,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O87" s="1">
         <v>2</v>
       </c>
@@ -12993,7 +14906,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O88" s="1">
         <v>1</v>
       </c>
@@ -13011,7 +14924,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:26" x14ac:dyDescent="0.35">
       <c r="O89" s="1">
         <v>0</v>
       </c>
@@ -13027,7 +14940,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:26" x14ac:dyDescent="0.35">
       <c r="P90" s="1">
         <v>0</v>
       </c>
@@ -13084,26 +14997,26 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="12"/>
-    <col min="2" max="2" width="2.44140625" style="1"/>
-    <col min="3" max="3" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="2.44140625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="2.44140625" style="1"/>
-    <col min="27" max="27" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="2.44140625" style="1"/>
-    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="74" width="2.44140625" style="1"/>
-    <col min="75" max="75" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="98" width="2.44140625" style="1"/>
-    <col min="99" max="99" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="121" width="2.44140625" style="1"/>
-    <col min="122" max="122" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="2.4609375" style="12"/>
+    <col min="2" max="2" width="2.4609375" style="1"/>
+    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="2.4609375" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.4609375" style="1"/>
+    <col min="27" max="27" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="2.4609375" style="1"/>
+    <col min="51" max="51" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="74" width="2.4609375" style="1"/>
+    <col min="75" max="75" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="98" width="2.4609375" style="1"/>
+    <col min="99" max="99" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="2.4609375" style="1"/>
+    <col min="122" max="122" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="2.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B2" s="12"/>
       <c r="C2" s="16">
         <v>19</v>
@@ -13249,7 +15162,7 @@
       <c r="EK2" s="5"/>
       <c r="EL2" s="5"/>
     </row>
-    <row r="3" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C3" s="16">
         <v>18</v>
       </c>
@@ -13389,7 +15302,7 @@
       <c r="EK3" s="5"/>
       <c r="EL3" s="5"/>
     </row>
-    <row r="4" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C4" s="16">
         <v>17</v>
       </c>
@@ -13529,7 +15442,7 @@
       <c r="EK4" s="5"/>
       <c r="EL4" s="5"/>
     </row>
-    <row r="5" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C5" s="16">
         <v>16</v>
       </c>
@@ -13657,7 +15570,7 @@
       <c r="EK5" s="5"/>
       <c r="EL5" s="5"/>
     </row>
-    <row r="6" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C6" s="16">
         <v>15</v>
       </c>
@@ -13797,7 +15710,7 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
     </row>
-    <row r="7" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
@@ -13940,7 +15853,7 @@
       <c r="EK7" s="5"/>
       <c r="EL7" s="5"/>
     </row>
-    <row r="8" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C8" s="16">
         <v>13</v>
       </c>
@@ -14092,7 +16005,7 @@
       <c r="EK8" s="5"/>
       <c r="EL8" s="5"/>
     </row>
-    <row r="9" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C9" s="16">
         <v>12</v>
       </c>
@@ -14232,7 +16145,7 @@
       <c r="EK9" s="5"/>
       <c r="EL9" s="5"/>
     </row>
-    <row r="10" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C10" s="16">
         <v>11</v>
       </c>
@@ -14384,7 +16297,7 @@
       <c r="EK10" s="5"/>
       <c r="EL10" s="5"/>
     </row>
-    <row r="11" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C11" s="16">
         <v>10</v>
       </c>
@@ -14524,7 +16437,7 @@
       <c r="EK11" s="5"/>
       <c r="EL11" s="5"/>
     </row>
-    <row r="12" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C12" s="16">
         <v>9</v>
       </c>
@@ -14664,7 +16577,7 @@
       <c r="EK12" s="4"/>
       <c r="EL12" s="5"/>
     </row>
-    <row r="13" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C13" s="16">
         <v>8</v>
       </c>
@@ -14804,7 +16717,7 @@
       <c r="EK13" s="5"/>
       <c r="EL13" s="5"/>
     </row>
-    <row r="14" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C14" s="16">
         <v>7</v>
       </c>
@@ -14944,7 +16857,7 @@
       <c r="EK14" s="5"/>
       <c r="EL14" s="5"/>
     </row>
-    <row r="15" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C15" s="16">
         <v>6</v>
       </c>
@@ -15084,7 +16997,7 @@
       <c r="EK15" s="5"/>
       <c r="EL15" s="5"/>
     </row>
-    <row r="16" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C16" s="16">
         <v>5</v>
       </c>
@@ -15224,7 +17137,7 @@
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
     </row>
-    <row r="17" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:142" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
@@ -15367,7 +17280,7 @@
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
     </row>
-    <row r="18" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C18" s="16">
         <v>3</v>
       </c>
@@ -15507,7 +17420,7 @@
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
     </row>
-    <row r="19" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -15641,7 +17554,7 @@
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
     </row>
-    <row r="20" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -15781,7 +17694,7 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
     </row>
-    <row r="21" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C21" s="16">
         <v>0</v>
       </c>
@@ -15921,7 +17834,7 @@
       <c r="EK21" s="18"/>
       <c r="EL21" s="18"/>
     </row>
-    <row r="22" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:142" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -16283,7 +18196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C29" s="16">
         <v>3</v>
       </c>
@@ -16299,7 +18212,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C30" s="16">
         <v>2</v>
       </c>
@@ -16315,7 +18228,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C31" s="16">
         <v>1</v>
       </c>
@@ -16330,7 +18243,7 @@
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:142" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
       <c r="C32" s="16">
         <v>0</v>
       </c>
@@ -16346,7 +18259,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D33" s="1">
         <v>0</v>
       </c>
@@ -16383,818 +18296,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
-  <dimension ref="A1:X29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" style="1"/>
-    <col min="2" max="2" width="2.33203125" style="16"/>
-    <col min="3" max="15" width="2.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="2.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
-        <v>8</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
-        <v>7</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16">
-        <v>6</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="34">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="16">
-        <v>4</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="34">
-        <v>4</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
-        <v>3</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34">
-        <v>2</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="34">
-        <v>6</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="34">
-        <v>5</v>
-      </c>
-      <c r="O13" s="32"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="61">
-        <v>7</v>
-      </c>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>4</v>
-      </c>
-      <c r="H15" s="16">
-        <v>5</v>
-      </c>
-      <c r="I15" s="16">
-        <v>6</v>
-      </c>
-      <c r="J15" s="16">
-        <v>7</v>
-      </c>
-      <c r="K15" s="16">
-        <v>8</v>
-      </c>
-      <c r="L15" s="16">
-        <v>9</v>
-      </c>
-      <c r="M15" s="16">
-        <v>10</v>
-      </c>
-      <c r="N15" s="16">
-        <v>11</v>
-      </c>
-      <c r="O15" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16">
-        <v>10</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16">
-        <v>9</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-    </row>
-    <row r="20" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
-        <v>8</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16">
-        <v>7</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16">
-        <v>6</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
-        <v>5</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
-        <v>4</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16">
-        <v>3</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16">
-        <v>2</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16">
-        <v>1</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
-        <v>2</v>
-      </c>
-      <c r="F29" s="16">
-        <v>3</v>
-      </c>
-      <c r="G29" s="16">
-        <v>4</v>
-      </c>
-      <c r="H29" s="16">
-        <v>5</v>
-      </c>
-      <c r="I29" s="16">
-        <v>6</v>
-      </c>
-      <c r="J29" s="16">
-        <v>7</v>
-      </c>
-      <c r="K29" s="16">
-        <v>8</v>
-      </c>
-      <c r="L29" s="16">
-        <v>9</v>
-      </c>
-      <c r="M29" s="16">
-        <v>10</v>
-      </c>
-      <c r="N29" s="16">
-        <v>11</v>
-      </c>
-      <c r="O29" s="16">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
-  <dimension ref="C4:I19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="16">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="16">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="16">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37">
-        <v>1</v>
-      </c>
-      <c r="F10" s="37">
-        <v>2</v>
-      </c>
-      <c r="G10" s="37">
-        <v>3</v>
-      </c>
-      <c r="H10" s="37">
-        <v>4</v>
-      </c>
-      <c r="I10" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="16">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
-        <v>3</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="37">
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
-        <v>1</v>
-      </c>
-      <c r="F19" s="37">
-        <v>2</v>
-      </c>
-      <c r="G19" s="37">
-        <v>3</v>
-      </c>
-      <c r="H19" s="37">
-        <v>4</v>
-      </c>
-      <c r="I19" s="37">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11676968-8A2D-4D5C-B828-16AF2C6FABD1}">
   <dimension ref="B3:DQ29"/>
   <sheetViews>
@@ -17202,19 +18303,19 @@
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.07421875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="2.6640625" style="39" customWidth="1"/>
-    <col min="3" max="22" width="2.21875" style="39" customWidth="1"/>
-    <col min="23" max="24" width="3.109375" style="39"/>
-    <col min="25" max="25" width="2.6640625" style="39" customWidth="1"/>
-    <col min="26" max="46" width="2.21875" style="39" customWidth="1"/>
-    <col min="47" max="48" width="3.109375" style="39"/>
-    <col min="49" max="123" width="2.21875" style="39" customWidth="1"/>
-    <col min="124" max="16384" width="3.109375" style="39"/>
+    <col min="1" max="2" width="2.69140625" style="39" customWidth="1"/>
+    <col min="3" max="22" width="2.23046875" style="39" customWidth="1"/>
+    <col min="23" max="24" width="3.07421875" style="39"/>
+    <col min="25" max="25" width="2.69140625" style="39" customWidth="1"/>
+    <col min="26" max="46" width="2.23046875" style="39" customWidth="1"/>
+    <col min="47" max="48" width="3.07421875" style="39"/>
+    <col min="49" max="123" width="2.23046875" style="39" customWidth="1"/>
+    <col min="124" max="16384" width="3.07421875" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16">
         <v>19</v>
       </c>
@@ -17341,7 +18442,7 @@
       <c r="DP3" s="42"/>
       <c r="DQ3" s="43"/>
     </row>
-    <row r="4" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16">
         <v>18</v>
       </c>
@@ -17468,7 +18569,7 @@
       <c r="DP4" s="42"/>
       <c r="DQ4" s="43"/>
     </row>
-    <row r="5" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16">
         <v>17</v>
       </c>
@@ -17595,7 +18696,7 @@
       <c r="DP5" s="42"/>
       <c r="DQ5" s="43"/>
     </row>
-    <row r="6" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16">
         <v>16</v>
       </c>
@@ -17722,7 +18823,7 @@
       <c r="DP6" s="42"/>
       <c r="DQ6" s="43"/>
     </row>
-    <row r="7" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16">
         <v>15</v>
       </c>
@@ -17849,7 +18950,7 @@
       <c r="DP7" s="42"/>
       <c r="DQ7" s="43"/>
     </row>
-    <row r="8" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16">
         <v>14</v>
       </c>
@@ -17966,7 +19067,7 @@
       <c r="DP8" s="42"/>
       <c r="DQ8" s="43"/>
     </row>
-    <row r="9" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16">
         <v>13</v>
       </c>
@@ -18093,7 +19194,7 @@
       <c r="DP9" s="42"/>
       <c r="DQ9" s="43"/>
     </row>
-    <row r="10" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16">
         <v>12</v>
       </c>
@@ -18210,7 +19311,7 @@
       <c r="DP10" s="42"/>
       <c r="DQ10" s="43"/>
     </row>
-    <row r="11" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16">
         <v>11</v>
       </c>
@@ -18337,7 +19438,7 @@
       <c r="DP11" s="42"/>
       <c r="DQ11" s="43"/>
     </row>
-    <row r="12" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -18454,7 +19555,7 @@
       <c r="DP12" s="42"/>
       <c r="DQ12" s="43"/>
     </row>
-    <row r="13" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -18581,7 +19682,7 @@
       </c>
       <c r="DQ13" s="43"/>
     </row>
-    <row r="14" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16">
         <v>8</v>
       </c>
@@ -18708,7 +19809,7 @@
       <c r="DP14" s="42"/>
       <c r="DQ14" s="43"/>
     </row>
-    <row r="15" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16">
         <v>7</v>
       </c>
@@ -18835,7 +19936,7 @@
       <c r="DP15" s="42"/>
       <c r="DQ15" s="43"/>
     </row>
-    <row r="16" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -18962,7 +20063,7 @@
       <c r="DP16" s="42"/>
       <c r="DQ16" s="43"/>
     </row>
-    <row r="17" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16">
         <v>5</v>
       </c>
@@ -19089,7 +20190,7 @@
       <c r="DP17" s="42"/>
       <c r="DQ17" s="43"/>
     </row>
-    <row r="18" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16">
         <v>4</v>
       </c>
@@ -19216,7 +20317,7 @@
       <c r="DP18" s="42"/>
       <c r="DQ18" s="43"/>
     </row>
-    <row r="19" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16">
         <v>3</v>
       </c>
@@ -19333,7 +20434,7 @@
       <c r="DP19" s="42"/>
       <c r="DQ19" s="43"/>
     </row>
-    <row r="20" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16">
         <v>2</v>
       </c>
@@ -19460,7 +20561,7 @@
       <c r="DP20" s="42"/>
       <c r="DQ20" s="43"/>
     </row>
-    <row r="21" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16">
         <v>1</v>
       </c>
@@ -19587,7 +20688,7 @@
       <c r="DP21" s="42"/>
       <c r="DQ21" s="43"/>
     </row>
-    <row r="22" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16">
         <v>0</v>
       </c>
@@ -19714,7 +20815,7 @@
       <c r="DP22" s="55"/>
       <c r="DQ22" s="55"/>
     </row>
-    <row r="23" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16">
         <v>-1</v>
       </c>
@@ -20031,7 +21132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="39">
         <v>-2</v>
       </c>
@@ -20148,7 +21249,7 @@
       <c r="DP24" s="44"/>
       <c r="DQ24" s="44"/>
     </row>
-    <row r="25" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16">
         <v>-3</v>
       </c>
@@ -20265,7 +21366,7 @@
       <c r="DP25" s="44"/>
       <c r="DQ25" s="44"/>
     </row>
-    <row r="26" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="39">
         <v>-4</v>
       </c>
@@ -20382,7 +21483,7 @@
       <c r="DP26" s="44"/>
       <c r="DQ26" s="44"/>
     </row>
-    <row r="27" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16">
         <v>-5</v>
       </c>
@@ -20499,7 +21600,7 @@
       <c r="DP27" s="44"/>
       <c r="DQ27" s="44"/>
     </row>
-    <row r="28" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="39">
         <v>-6</v>
       </c>
@@ -20616,7 +21717,7 @@
       <c r="DP28" s="44"/>
       <c r="DQ28" s="44"/>
     </row>
-    <row r="29" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16">
         <v>-7</v>
       </c>
@@ -20739,4 +21840,3728 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
+  <dimension ref="C4:I19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="1.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="2.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C4" s="16">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" s="16">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="16"/>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37">
+        <v>2</v>
+      </c>
+      <c r="G10" s="37">
+        <v>3</v>
+      </c>
+      <c r="H10" s="37">
+        <v>4</v>
+      </c>
+      <c r="I10" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="16"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="16">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="16"/>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>1</v>
+      </c>
+      <c r="F19" s="37">
+        <v>2</v>
+      </c>
+      <c r="G19" s="37">
+        <v>3</v>
+      </c>
+      <c r="H19" s="37">
+        <v>4</v>
+      </c>
+      <c r="I19" s="37">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
+  <dimension ref="A1:AD29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:AJ16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.3046875" style="1"/>
+    <col min="2" max="2" width="2.3046875" style="16"/>
+    <col min="3" max="15" width="2.3046875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.3046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="16">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="16">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="16">
+        <v>8</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16">
+        <v>7</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="S8" s="16"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="64">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="79">
+        <v>1</v>
+      </c>
+      <c r="F9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="S9" s="16"/>
+      <c r="Y9" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27"/>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="34">
+        <v>4</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="S10" s="16"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="64">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34">
+        <v>2</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="S11" s="16"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="64">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="34">
+        <v>6</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="S12" s="16"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="64">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="34">
+        <v>5</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="S13" s="16"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="57">
+        <v>7</v>
+      </c>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>4</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>6</v>
+      </c>
+      <c r="J15" s="16">
+        <v>7</v>
+      </c>
+      <c r="K15" s="16">
+        <v>8</v>
+      </c>
+      <c r="L15" s="16">
+        <v>9</v>
+      </c>
+      <c r="M15" s="16">
+        <v>10</v>
+      </c>
+      <c r="N15" s="16">
+        <v>11</v>
+      </c>
+      <c r="O15" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="16">
+        <v>10</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="16">
+        <v>9</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="16">
+        <v>8</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="16">
+        <v>7</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="16">
+        <v>6</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5</v>
+      </c>
+      <c r="I29" s="16">
+        <v>6</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7</v>
+      </c>
+      <c r="K29" s="16">
+        <v>8</v>
+      </c>
+      <c r="L29" s="16">
+        <v>9</v>
+      </c>
+      <c r="M29" s="16">
+        <v>10</v>
+      </c>
+      <c r="N29" s="16">
+        <v>11</v>
+      </c>
+      <c r="O29" s="16">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B00B5-C317-414B-BECF-8C8548186170}">
+  <dimension ref="A1:AH39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.3046875" style="66"/>
+    <col min="2" max="2" width="2.765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="2.3046875" style="66" customWidth="1"/>
+    <col min="16" max="23" width="2.765625" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="2.3046875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="65"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67">
+        <v>20</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67">
+        <v>19</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72">
+        <v>4</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67">
+        <v>18</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72">
+        <v>7</v>
+      </c>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
+      <c r="B20" s="67">
+        <v>17</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67">
+        <v>16</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
+      <c r="B22" s="67">
+        <v>15</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B23" s="67">
+        <v>14</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="72">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B24" s="67">
+        <v>13</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B25" s="67">
+        <v>12</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="67">
+        <v>11</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="67">
+        <v>10</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="67">
+        <v>9</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="68"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="67">
+        <v>8</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="67">
+        <v>7</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="76">
+        <v>2</v>
+      </c>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="67">
+        <v>6</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="76">
+        <v>5</v>
+      </c>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="68"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="68"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="67">
+        <v>5</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="76">
+        <v>6</v>
+      </c>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="74"/>
+      <c r="B33" s="67">
+        <v>4</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+    </row>
+    <row r="34" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67">
+        <v>3</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="75">
+        <v>1</v>
+      </c>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+    </row>
+    <row r="35" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67">
+        <v>2</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67">
+        <v>1</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="67">
+        <v>0</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+    </row>
+    <row r="38" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="67">
+        <v>0</v>
+      </c>
+      <c r="D38" s="67">
+        <v>1</v>
+      </c>
+      <c r="E38" s="67">
+        <v>2</v>
+      </c>
+      <c r="F38" s="67">
+        <v>3</v>
+      </c>
+      <c r="G38" s="67">
+        <v>4</v>
+      </c>
+      <c r="H38" s="67">
+        <v>5</v>
+      </c>
+      <c r="I38" s="67">
+        <v>6</v>
+      </c>
+      <c r="J38" s="67">
+        <v>7</v>
+      </c>
+      <c r="K38" s="67">
+        <v>8</v>
+      </c>
+      <c r="L38" s="67">
+        <v>9</v>
+      </c>
+      <c r="M38" s="67">
+        <v>10</v>
+      </c>
+      <c r="N38" s="67">
+        <v>11</v>
+      </c>
+      <c r="O38" s="67">
+        <v>12</v>
+      </c>
+      <c r="P38" s="67">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="67">
+        <v>14</v>
+      </c>
+      <c r="R38" s="67">
+        <v>15</v>
+      </c>
+      <c r="S38" s="67">
+        <v>16</v>
+      </c>
+      <c r="T38" s="67">
+        <v>17</v>
+      </c>
+      <c r="U38" s="67">
+        <v>18</v>
+      </c>
+      <c r="V38" s="67">
+        <v>19</v>
+      </c>
+      <c r="W38" s="67">
+        <v>20</v>
+      </c>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
+    </row>
+    <row r="39" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB832B-8DE1-4E0D-8C96-207985DCED73}">
+  <dimension ref="A1:AH39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.3046875" style="66"/>
+    <col min="2" max="2" width="2.765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="2.3046875" style="66" customWidth="1"/>
+    <col min="16" max="23" width="2.765625" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="2.3046875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="65"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67">
+        <v>20</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67">
+        <v>19</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72">
+        <v>6</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67">
+        <v>18</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
+      <c r="B20" s="67">
+        <v>17</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67">
+        <v>16</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
+      <c r="B22" s="67">
+        <v>15</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B23" s="67">
+        <v>14</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B24" s="67">
+        <v>13</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72">
+        <v>1</v>
+      </c>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B25" s="67">
+        <v>12</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="67">
+        <v>11</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="67">
+        <v>10</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="76">
+        <v>8</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="67">
+        <v>9</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="76">
+        <v>5</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="68"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="67">
+        <v>8</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="67">
+        <v>7</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="67">
+        <v>6</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="72">
+        <v>7</v>
+      </c>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="68"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="68"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="67">
+        <v>5</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="76">
+        <v>4</v>
+      </c>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="74"/>
+      <c r="B33" s="67">
+        <v>4</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+    </row>
+    <row r="34" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67">
+        <v>3</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+    </row>
+    <row r="35" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67">
+        <v>2</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="72">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67">
+        <v>1</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="75">
+        <v>2</v>
+      </c>
+      <c r="O36" s="62"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="67">
+        <v>0</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+    </row>
+    <row r="38" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="67">
+        <v>0</v>
+      </c>
+      <c r="D38" s="67">
+        <v>1</v>
+      </c>
+      <c r="E38" s="67">
+        <v>2</v>
+      </c>
+      <c r="F38" s="67">
+        <v>3</v>
+      </c>
+      <c r="G38" s="67">
+        <v>4</v>
+      </c>
+      <c r="H38" s="67">
+        <v>5</v>
+      </c>
+      <c r="I38" s="67">
+        <v>6</v>
+      </c>
+      <c r="J38" s="67">
+        <v>7</v>
+      </c>
+      <c r="K38" s="67">
+        <v>8</v>
+      </c>
+      <c r="L38" s="67">
+        <v>9</v>
+      </c>
+      <c r="M38" s="67">
+        <v>10</v>
+      </c>
+      <c r="N38" s="67">
+        <v>11</v>
+      </c>
+      <c r="O38" s="67">
+        <v>12</v>
+      </c>
+      <c r="P38" s="67">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="67">
+        <v>14</v>
+      </c>
+      <c r="R38" s="67">
+        <v>15</v>
+      </c>
+      <c r="S38" s="67">
+        <v>16</v>
+      </c>
+      <c r="T38" s="67">
+        <v>17</v>
+      </c>
+      <c r="U38" s="67">
+        <v>18</v>
+      </c>
+      <c r="V38" s="67">
+        <v>19</v>
+      </c>
+      <c r="W38" s="67">
+        <v>20</v>
+      </c>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
+    </row>
+    <row r="39" spans="1:34" ht="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>